--- a/היענות לתדר ותהודה/היענות לתדר ותהודה - אקסל.xlsx
+++ b/היענות לתדר ותהודה/היענות לתדר ותהודה - אקסל.xlsx
@@ -5,18 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\היענות לתדר ותהודה\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\מעבדה 2 א\laba\היענות לתדר ותהודה\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FCE92C-63DD-4C6F-9F4F-55BAFADD2DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A10EB7-CF80-42E4-A1F0-F3D5B18D0FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{302F7809-826E-4DEF-8391-6CA50C82BFBF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{302F7809-826E-4DEF-8391-6CA50C82BFBF}"/>
   </bookViews>
   <sheets>
     <sheet name="מדידות RCL" sheetId="1" r:id="rId1"/>
     <sheet name="יחסי מתחים" sheetId="2" r:id="rId2"/>
-    <sheet name="תתה בשיטת הקרסים" sheetId="3" r:id="rId3"/>
-    <sheet name="תתה בשיטת האליפסות" sheetId="4" r:id="rId4"/>
+    <sheet name="שגיאות יחסי מתחים" sheetId="5" r:id="rId3"/>
+    <sheet name="eddington v_r" sheetId="6" r:id="rId4"/>
+    <sheet name="תתה בשיטת הקרסים" sheetId="3" r:id="rId5"/>
+    <sheet name="שגיאות קרסים" sheetId="8" r:id="rId6"/>
+    <sheet name="תתה בשיטת האליפסות" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
   <si>
     <t>מדידות</t>
   </si>
@@ -129,19 +132,64 @@
   </si>
   <si>
     <t>B</t>
+  </si>
+  <si>
+    <t>V_0 [V]</t>
+  </si>
+  <si>
+    <t>V_r[V]</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>dV_0</t>
+  </si>
+  <si>
+    <t>dV_r</t>
+  </si>
+  <si>
+    <t>ω[kHz]</t>
+  </si>
+  <si>
+    <t>f [kHz]</t>
+  </si>
+  <si>
+    <t>dω</t>
+  </si>
+  <si>
+    <t>V_r/V_0</t>
+  </si>
+  <si>
+    <t>dV_r/V_0</t>
+  </si>
+  <si>
+    <t>ddt - res</t>
+  </si>
+  <si>
+    <t>φ[rad]</t>
+  </si>
+  <si>
+    <t>dφ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -164,8 +212,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -482,13 +531,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E94006C9-943D-42BB-B10F-EA9536D21714}">
   <dimension ref="W3:AB12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A28"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="AA17" sqref="AA17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="23:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="23:28" x14ac:dyDescent="0.3">
       <c r="Y3" t="s">
         <v>5</v>
       </c>
@@ -502,7 +551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="23:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="23:28" x14ac:dyDescent="0.3">
       <c r="W4" t="s">
         <v>9</v>
       </c>
@@ -519,7 +568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="23:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="23:28" x14ac:dyDescent="0.3">
       <c r="X5" t="s">
         <v>11</v>
       </c>
@@ -530,7 +579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="23:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="23:28" x14ac:dyDescent="0.3">
       <c r="AA6" t="s">
         <v>12</v>
       </c>
@@ -538,7 +587,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="23:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="23:28" x14ac:dyDescent="0.3">
       <c r="X9" t="s">
         <v>14</v>
       </c>
@@ -549,7 +598,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="23:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="23:28" x14ac:dyDescent="0.3">
       <c r="X12" t="s">
         <v>15</v>
       </c>
@@ -563,13 +612,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EC7C659-EA60-4E10-956A-C41EE8C7247E}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A28"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -580,7 +629,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1.7</v>
       </c>
@@ -591,7 +640,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2.1</v>
       </c>
@@ -602,7 +651,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2.4</v>
       </c>
@@ -613,7 +662,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2.7</v>
       </c>
@@ -624,7 +673,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2.9</v>
       </c>
@@ -635,7 +684,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3.1</v>
       </c>
@@ -646,7 +695,7 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3.2</v>
       </c>
@@ -657,7 +706,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3.3</v>
       </c>
@@ -668,7 +717,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3.4</v>
       </c>
@@ -679,7 +728,7 @@
         <v>3.12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>3.5</v>
       </c>
@@ -690,7 +739,7 @@
         <v>3.56</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3.56</v>
       </c>
@@ -698,7 +747,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>3.58</v>
       </c>
@@ -706,7 +755,7 @@
         <v>3.76</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3.59</v>
       </c>
@@ -714,7 +763,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>3.6</v>
       </c>
@@ -725,7 +774,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3.61</v>
       </c>
@@ -733,7 +782,7 @@
         <v>3.84</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>3.62</v>
       </c>
@@ -741,7 +790,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>3.64</v>
       </c>
@@ -749,7 +798,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>3.7</v>
       </c>
@@ -760,7 +809,7 @@
         <v>3.72</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>3.8</v>
       </c>
@@ -771,7 +820,7 @@
         <v>3.32</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>3.9</v>
       </c>
@@ -782,7 +831,7 @@
         <v>2.92</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>4</v>
       </c>
@@ -793,7 +842,7 @@
         <v>2.44</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>4.2</v>
       </c>
@@ -804,7 +853,7 @@
         <v>1.84</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>4.4000000000000004</v>
       </c>
@@ -815,7 +864,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>4.7</v>
       </c>
@@ -826,7 +875,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>5</v>
       </c>
@@ -837,7 +886,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>5.3</v>
       </c>
@@ -848,7 +897,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>5.7</v>
       </c>
@@ -859,12 +908,12 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>16</v>
       </c>
@@ -872,7 +921,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D37" t="s">
         <v>22</v>
       </c>
@@ -886,247 +935,1509 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B82B89C-9999-42C7-87E6-1991117A20CF}">
-  <dimension ref="A1:B35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DFC0B75-D2CC-4D18-9206-B3571EB1D673}">
+  <dimension ref="A1:L28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1.7</v>
+      </c>
+      <c r="B2">
+        <f>10^(-7)/SQRT(12)</f>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C2">
+        <v>4.12</v>
+      </c>
+      <c r="D2">
+        <f>0.04/SQRT(12)</f>
+        <v>1.1547005383792516E-2</v>
+      </c>
+      <c r="E2">
+        <v>0.52</v>
+      </c>
+      <c r="F2">
+        <f>0.04/SQRT(12)</f>
+        <v>1.1547005383792516E-2</v>
+      </c>
+      <c r="I2">
+        <f>A2*2*PI()</f>
+        <v>10.681415022205297</v>
+      </c>
+      <c r="J2">
+        <f>10^(-7)/SQRT(12)</f>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="K2">
+        <f>E2/C2</f>
+        <v>0.12621359223300971</v>
+      </c>
+      <c r="L2">
+        <f>SQRT(((E2/(C2^2))*D2)^2+((1/C2)*F2)^2)</f>
+        <v>2.8249061049934764E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2.1</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B28" si="0">10^(-7)/SQRT(12)</f>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C3">
+        <v>4.12</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D28" si="1">0.04/SQRT(12)</f>
+        <v>1.1547005383792516E-2</v>
+      </c>
+      <c r="E3">
+        <v>0.72</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F28" si="2">0.04/SQRT(12)</f>
+        <v>1.1547005383792516E-2</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I28" si="3">A3*2*PI()</f>
+        <v>13.194689145077131</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J28" si="4">10^(-7)/SQRT(12)</f>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K28" si="5">E3/C3</f>
+        <v>0.17475728155339804</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L28" si="6">SQRT(((E3/(C3^2))*D3)^2+((1/C3)*F3)^2)</f>
+        <v>2.8451462901554272E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2.4</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C4">
+        <v>4.12</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>1.1547005383792516E-2</v>
+      </c>
+      <c r="E4">
+        <v>0.96</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="2"/>
+        <v>1.1547005383792516E-2</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="3"/>
+        <v>15.079644737231007</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="4"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="5"/>
+        <v>0.23300970873786406</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="6"/>
+        <v>2.8777490669701354E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2.7</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C5">
+        <v>4.12</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>1.1547005383792516E-2</v>
+      </c>
+      <c r="E5">
+        <v>1.24</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>1.1547005383792516E-2</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>16.964600329384883</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="4"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="5"/>
+        <v>0.30097087378640774</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="6"/>
+        <v>2.9268576927575021E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2.9</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C6">
+        <v>4.12</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>1.1547005383792516E-2</v>
+      </c>
+      <c r="E6">
+        <v>1.56</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>1.1547005383792516E-2</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>18.2212373908208</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="4"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="5"/>
+        <v>0.37864077669902912</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="6"/>
+        <v>2.9968522223628394E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>3.1</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C7">
+        <v>4.12</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>1.1547005383792516E-2</v>
+      </c>
+      <c r="E7">
+        <v>1.96</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>1.1547005383792516E-2</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>19.477874452256717</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="4"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="5"/>
+        <v>0.47572815533980578</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="6"/>
+        <v>3.1036559749999023E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>3.2</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C8">
+        <v>4.12</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>1.1547005383792516E-2</v>
+      </c>
+      <c r="E8">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>1.1547005383792516E-2</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>20.106192982974676</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="4"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="5"/>
+        <v>0.55339805825242716</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="6"/>
+        <v>3.203208483954749E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>3.3</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C9">
+        <v>4.12</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>1.1547005383792516E-2</v>
+      </c>
+      <c r="E9">
+        <v>2.68</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>1.1547005383792516E-2</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>20.734511513692635</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="4"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="5"/>
+        <v>0.65048543689320393</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="6"/>
+        <v>3.3434485003549694E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>3.4</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C10">
+        <v>4.12</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>1.1547005383792516E-2</v>
+      </c>
+      <c r="E10">
+        <v>3.12</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>1.1547005383792516E-2</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>21.362830044410593</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="4"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="5"/>
+        <v>0.75728155339805825</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="6"/>
+        <v>3.5156216011369167E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>3.5</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C11">
+        <v>4.12</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>1.1547005383792516E-2</v>
+      </c>
+      <c r="E11">
+        <v>3.56</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>1.1547005383792516E-2</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>21.991148575128552</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="4"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="5"/>
+        <v>0.86407766990291257</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="6"/>
+        <v>3.7040141511021207E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>3.56</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C12">
+        <v>4.12</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>1.1547005383792516E-2</v>
+      </c>
+      <c r="E12">
+        <v>3.72</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>1.1547005383792516E-2</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>22.368139693559328</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="4"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="5"/>
+        <v>0.90291262135922334</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="6"/>
+        <v>3.7760741925047347E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>3.58</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C13">
+        <v>4.12</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>1.1547005383792516E-2</v>
+      </c>
+      <c r="E13">
+        <v>3.76</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>1.1547005383792516E-2</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>22.493803399702919</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="4"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="5"/>
+        <v>0.9126213592233009</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="6"/>
+        <v>3.7943632147700987E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>3.59</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C14">
+        <v>4.12</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>1.1547005383792516E-2</v>
+      </c>
+      <c r="E14">
+        <v>3.8</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>1.1547005383792516E-2</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>22.556635252774715</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="4"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="5"/>
+        <v>0.92233009708737856</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="6"/>
+        <v>3.8127587014715734E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>3.6</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C15">
+        <v>4.12</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>1.1547005383792516E-2</v>
+      </c>
+      <c r="E15">
+        <v>3.8</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>1.1547005383792516E-2</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>22.61946710584651</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="4"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="5"/>
+        <v>0.92233009708737856</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="6"/>
+        <v>3.8127587014715734E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>3.61</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C16">
+        <v>4.12</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>1.1547005383792516E-2</v>
+      </c>
+      <c r="E16">
+        <v>3.84</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>1.1547005383792516E-2</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="3"/>
+        <v>22.682298958918306</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="4"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="5"/>
+        <v>0.93203883495145623</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="6"/>
+        <v>3.8312591190678355E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>3.62</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C17">
+        <v>4.12</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>1.1547005383792516E-2</v>
+      </c>
+      <c r="E17">
+        <v>3.8</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>1.1547005383792516E-2</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="3"/>
+        <v>22.745130811990101</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="4"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="5"/>
+        <v>0.92233009708737856</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="6"/>
+        <v>3.8127587014715734E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>3.64</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C18">
+        <v>4.12</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>1.1547005383792516E-2</v>
+      </c>
+      <c r="E18">
+        <v>3.8</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>1.1547005383792516E-2</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="3"/>
+        <v>22.870794518133696</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="4"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="5"/>
+        <v>0.92233009708737856</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="6"/>
+        <v>3.8127587014715734E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>3.7</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C19">
+        <v>4.12</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>1.1547005383792516E-2</v>
+      </c>
+      <c r="E19">
+        <v>3.72</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>1.1547005383792516E-2</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="3"/>
+        <v>23.247785636564469</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="4"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="5"/>
+        <v>0.90291262135922334</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="6"/>
+        <v>3.7760741925047347E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>3.8</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C20">
+        <v>4.12</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>1.1547005383792516E-2</v>
+      </c>
+      <c r="E20">
+        <v>3.32</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>1.1547005383792516E-2</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="3"/>
+        <v>23.876104167282428</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="4"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="5"/>
+        <v>0.80582524271844658</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="6"/>
+        <v>3.5993918889664226E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>3.9</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C21">
+        <v>4.12</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>1.1547005383792516E-2</v>
+      </c>
+      <c r="E21">
+        <v>2.92</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>1.1547005383792516E-2</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="3"/>
+        <v>24.504422698000386</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="4"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="5"/>
+        <v>0.70873786407766992</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="6"/>
+        <v>3.4351985107220332E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C22">
+        <v>4.12</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>1.1547005383792516E-2</v>
+      </c>
+      <c r="E22">
+        <v>2.44</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="2"/>
+        <v>1.1547005383792516E-2</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="3"/>
+        <v>25.132741228718345</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="4"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="5"/>
+        <v>0.59223300970873782</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="6"/>
+        <v>3.2573019761544756E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>4.2</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C23">
+        <v>4.12</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>1.1547005383792516E-2</v>
+      </c>
+      <c r="E23">
+        <v>1.84</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>1.1547005383792516E-2</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="3"/>
+        <v>26.389378290154262</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="4"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="5"/>
+        <v>0.44660194174757284</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="6"/>
+        <v>3.0694730390203166E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C24">
+        <v>4.12</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>1.1547005383792516E-2</v>
+      </c>
+      <c r="E24">
+        <v>1.48</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="2"/>
+        <v>1.1547005383792516E-2</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="3"/>
+        <v>27.646015351590183</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="4"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="5"/>
+        <v>0.35922330097087379</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="6"/>
+        <v>2.9780163783876511E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>4.7</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C25">
+        <v>4.12</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>1.1547005383792516E-2</v>
+      </c>
+      <c r="E25">
+        <v>1.04</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="2"/>
+        <v>1.1547005383792516E-2</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="3"/>
+        <v>29.530970943744055</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="4"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="5"/>
+        <v>0.25242718446601942</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="6"/>
+        <v>2.8905847643294932E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C26">
+        <v>4.12</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>1.1547005383792516E-2</v>
+      </c>
+      <c r="E26">
+        <v>0.8</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="2"/>
+        <v>1.1547005383792516E-2</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="3"/>
+        <v>31.415926535897931</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="4"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="5"/>
+        <v>0.1941747572815534</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="6"/>
+        <v>2.8550180837874188E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>5.3</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C27">
+        <v>4.12</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>1.1547005383792516E-2</v>
+      </c>
+      <c r="E27">
+        <v>0.68</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="2"/>
+        <v>1.1547005383792516E-2</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="3"/>
+        <v>33.300882128051803</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="4"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="5"/>
+        <v>0.1650485436893204</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="6"/>
+        <v>2.8405885317696021E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>5.7</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C28">
+        <v>4.12</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>1.1547005383792516E-2</v>
+      </c>
+      <c r="E28">
+        <v>0.48</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="2"/>
+        <v>1.1547005383792516E-2</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="3"/>
+        <v>35.814156250923645</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="4"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="5"/>
+        <v>0.11650485436893203</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="6"/>
+        <v>2.8216279618684384E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E125A2F-187B-4CCF-8148-99C5C233E483}">
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1.7</v>
+        <v>10.681415022205297</v>
       </c>
       <c r="B2">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C2">
+        <v>0.12621359223300971</v>
+      </c>
+      <c r="D2">
+        <v>2.8249061049934764E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2.1</v>
+        <v>13.194689145077131</v>
       </c>
       <c r="B3">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C3">
+        <v>0.17475728155339804</v>
+      </c>
+      <c r="D3">
+        <v>2.8451462901554272E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>2.4</v>
+        <v>15.079644737231007</v>
       </c>
       <c r="B4">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C4">
+        <v>0.23300970873786406</v>
+      </c>
+      <c r="D4">
+        <v>2.8777490669701354E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>2.7</v>
+        <v>16.964600329384883</v>
       </c>
       <c r="B5">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C5">
+        <v>0.30097087378640774</v>
+      </c>
+      <c r="D5">
+        <v>2.9268576927575021E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>2.9</v>
+        <v>18.2212373908208</v>
       </c>
       <c r="B6">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C6">
+        <v>0.37864077669902912</v>
+      </c>
+      <c r="D6">
+        <v>2.9968522223628394E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>3.1</v>
+        <v>19.477874452256717</v>
       </c>
       <c r="B7">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C7">
+        <v>0.47572815533980578</v>
+      </c>
+      <c r="D7">
+        <v>3.1036559749999023E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>3.2</v>
+        <v>20.106192982974676</v>
       </c>
       <c r="B8">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C8">
+        <v>0.55339805825242716</v>
+      </c>
+      <c r="D8">
+        <v>3.203208483954749E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>3.3</v>
+        <v>20.734511513692635</v>
       </c>
       <c r="B9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C9">
+        <v>0.65048543689320393</v>
+      </c>
+      <c r="D9">
+        <v>3.3434485003549694E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>3.4</v>
+        <v>21.362830044410593</v>
       </c>
       <c r="B10">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C10">
+        <v>0.75728155339805825</v>
+      </c>
+      <c r="D10">
+        <v>3.5156216011369167E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>3.5</v>
+        <v>21.991148575128552</v>
       </c>
       <c r="B11">
-        <v>16.8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C11">
+        <v>0.86407766990291257</v>
+      </c>
+      <c r="D11">
+        <v>3.7040141511021207E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>3.56</v>
+        <v>22.368139693559328</v>
       </c>
       <c r="B12">
-        <v>8.4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C12">
+        <v>0.90291262135922334</v>
+      </c>
+      <c r="D12">
+        <v>3.7760741925047347E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>3.58</v>
+        <v>22.493803399702919</v>
       </c>
       <c r="B13">
-        <v>5.4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C13">
+        <v>0.9126213592233009</v>
+      </c>
+      <c r="D13">
+        <v>3.7943632147700987E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>3.59</v>
+        <v>22.556635252774715</v>
       </c>
       <c r="B14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C14">
+        <v>0.92233009708737856</v>
+      </c>
+      <c r="D14">
+        <v>3.8127587014715734E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>3.6</v>
+        <v>22.61946710584651</v>
       </c>
       <c r="B15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C15">
+        <v>0.92233009708737856</v>
+      </c>
+      <c r="D15">
+        <v>3.8127587014715734E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>3.61</v>
+        <v>22.682298958918306</v>
       </c>
       <c r="B16">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C16">
+        <v>0.93203883495145623</v>
+      </c>
+      <c r="D16">
+        <v>3.8312591190678355E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>3.62</v>
+        <v>22.745130811990101</v>
       </c>
       <c r="B17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C17">
+        <v>0.92233009708737856</v>
+      </c>
+      <c r="D17">
+        <v>3.8127587014715734E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>3.64</v>
+        <v>22.870794518133696</v>
       </c>
       <c r="B18">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C18">
+        <v>0.92233009708737856</v>
+      </c>
+      <c r="D18">
+        <v>3.8127587014715734E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>3.7</v>
+        <v>23.247785636564469</v>
       </c>
       <c r="B19">
-        <v>10.8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C19">
+        <v>0.90291262135922334</v>
+      </c>
+      <c r="D19">
+        <v>3.7760741925047347E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>3.8</v>
+        <v>23.876104167282428</v>
       </c>
       <c r="B20">
-        <v>21.6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C20">
+        <v>0.80582524271844658</v>
+      </c>
+      <c r="D20">
+        <v>3.5993918889664226E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>3.9</v>
+        <v>24.504422698000386</v>
       </c>
       <c r="B21">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C21">
+        <v>0.70873786407766992</v>
+      </c>
+      <c r="D21">
+        <v>3.4351985107220332E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>4</v>
+        <v>25.132741228718345</v>
       </c>
       <c r="B22">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C22">
+        <v>0.59223300970873782</v>
+      </c>
+      <c r="D22">
+        <v>3.2573019761544756E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>4.2</v>
+        <v>26.389378290154262</v>
       </c>
       <c r="B23">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C23">
+        <v>0.44660194174757284</v>
+      </c>
+      <c r="D23">
+        <v>3.0694730390203166E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>4.4000000000000004</v>
+        <v>27.646015351590183</v>
       </c>
       <c r="B24">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C24">
+        <v>0.35922330097087379</v>
+      </c>
+      <c r="D24">
+        <v>2.9780163783876511E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>4.7</v>
+        <v>29.530970943744055</v>
       </c>
       <c r="B25">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C25">
+        <v>0.25242718446601942</v>
+      </c>
+      <c r="D25">
+        <v>2.8905847643294932E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>5</v>
+        <v>31.415926535897931</v>
       </c>
       <c r="B26">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C26">
+        <v>0.1941747572815534</v>
+      </c>
+      <c r="D26">
+        <v>2.8550180837874188E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>5.3</v>
+        <v>33.300882128051803</v>
       </c>
       <c r="B27">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C27">
+        <v>0.1650485436893204</v>
+      </c>
+      <c r="D27">
+        <v>2.8405885317696021E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>5.7</v>
+        <v>35.814156250923645</v>
       </c>
       <c r="B28">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>26</v>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C28">
+        <v>0.11650485436893203</v>
+      </c>
+      <c r="D28">
+        <v>2.8216279618684384E-3</v>
       </c>
     </row>
   </sheetData>
@@ -1134,7 +2445,1165 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B82B89C-9999-42C7-87E6-1991117A20CF}">
+  <dimension ref="A1:B35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection sqref="A1:B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1.7</v>
+      </c>
+      <c r="B2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2.1</v>
+      </c>
+      <c r="B3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2.4</v>
+      </c>
+      <c r="B4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2.7</v>
+      </c>
+      <c r="B5">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2.9</v>
+      </c>
+      <c r="B6">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>3.1</v>
+      </c>
+      <c r="B7">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>3.2</v>
+      </c>
+      <c r="B8">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>3.3</v>
+      </c>
+      <c r="B9">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>3.4</v>
+      </c>
+      <c r="B10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>3.5</v>
+      </c>
+      <c r="B11">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>3.56</v>
+      </c>
+      <c r="B12">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>3.58</v>
+      </c>
+      <c r="B13">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>3.59</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>3.6</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>3.61</v>
+      </c>
+      <c r="B16">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>3.62</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>3.64</v>
+      </c>
+      <c r="B18">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>3.7</v>
+      </c>
+      <c r="B19">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>3.8</v>
+      </c>
+      <c r="B20">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>3.9</v>
+      </c>
+      <c r="B21">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>4.2</v>
+      </c>
+      <c r="B23">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B24">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>4.7</v>
+      </c>
+      <c r="B25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>5.3</v>
+      </c>
+      <c r="B27">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>5.7</v>
+      </c>
+      <c r="B28">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F89B044B-855C-4DAA-BF0B-EA830A5C624F}">
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1.7</v>
+      </c>
+      <c r="B2">
+        <f>10^(-7)/SQRT(12)</f>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C2">
+        <v>136</v>
+      </c>
+      <c r="D2">
+        <f>0.4/SQRT(12)</f>
+        <v>0.11547005383792516</v>
+      </c>
+      <c r="H2">
+        <f>A2*2*PI()</f>
+        <v>10.681415022205297</v>
+      </c>
+      <c r="I2">
+        <f>10^(-7)/SQRT(12)</f>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="J2">
+        <f>H2*C2*10^-3</f>
+        <v>1.4526724430199205</v>
+      </c>
+      <c r="K2">
+        <f>SQRT((H2*D2*10^-3)^2+(C2*I2*10^-3)^2)</f>
+        <v>1.2333835676855164E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2.1</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B28" si="0">10^(-7)/SQRT(12)</f>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C3">
+        <v>106</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D28" si="1">0.4/SQRT(12)</f>
+        <v>0.11547005383792516</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H28" si="2">A3*2*PI()</f>
+        <v>13.194689145077131</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I28" si="3">10^(-7)/SQRT(12)</f>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J28" si="4">H3*C3*10^-3</f>
+        <v>1.3986370493781759</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K28" si="5">SQRT((H3*D3*10^-3)^2+(C3*I3*10^-3)^2)</f>
+        <v>1.523591465959816E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2.4</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C4">
+        <v>90</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>0.11547005383792516</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>15.079644737231007</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="3"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="4"/>
+        <v>1.3571680263507906</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="5"/>
+        <v>1.7412473896667876E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2.7</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C5">
+        <v>76</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>0.11547005383792516</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>16.964600329384883</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="4"/>
+        <v>1.289309625033251</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="5"/>
+        <v>1.9589033133741839E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2.9</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C6">
+        <v>68</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>0.11547005383792516</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>18.2212373908208</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="4"/>
+        <v>1.2390441425758145</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="5"/>
+        <v>2.1040072625126086E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>3.1</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C7">
+        <v>58</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>0.11547005383792516</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>19.477874452256717</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="4"/>
+        <v>1.1297167182308898</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="5"/>
+        <v>2.2491112116510533E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>3.2</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C8">
+        <v>46</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>0.11547005383792516</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>20.106192982974676</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="4"/>
+        <v>0.9248848772168351</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="5"/>
+        <v>2.3216631862201793E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>3.3</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C9">
+        <v>38</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>0.11547005383792516</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>20.734511513692635</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="4"/>
+        <v>0.78791143752032011</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="5"/>
+        <v>2.394215160789419E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>3.4</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C10">
+        <v>30</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>0.11547005383792516</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>21.362830044410593</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="4"/>
+        <v>0.64088490133231779</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="5"/>
+        <v>2.4667671353586882E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>3.5</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C11">
+        <v>16.8</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>0.11547005383792516</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>21.991148575128552</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="4"/>
+        <v>0.36945129606215971</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="5"/>
+        <v>2.5393191099279517E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>3.56</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C12">
+        <v>8.4</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>0.11547005383792516</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>22.368139693559328</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="4"/>
+        <v>0.18789237342589837</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="5"/>
+        <v>2.5828502946695382E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>3.58</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C13">
+        <v>5.4</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>0.11547005383792516</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>22.493803399702919</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="4"/>
+        <v>0.12146653835839577</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="5"/>
+        <v>2.5973606895834051E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>3.59</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>0.11547005383792516</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>22.556635252774715</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="4"/>
+        <v>9.0226541011098865E-2</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="5"/>
+        <v>2.6046158870403398E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>3.6</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>0.11547005383792516</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>22.61946710584651</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="4"/>
+        <v>6.7858401317539535E-2</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="5"/>
+        <v>2.6118710844972755E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>3.61</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C16">
+        <v>1.2</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>0.11547005383792516</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>22.682298958918306</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="3"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="4"/>
+        <v>2.7218758750701965E-2</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="5"/>
+        <v>2.6191262819542107E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>3.62</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>0.11547005383792516</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>22.745130811990101</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="3"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="5"/>
+        <v>2.6263814794111476E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>3.64</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C18">
+        <v>2.8</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>0.11547005383792516</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>22.870794518133696</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="3"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="4"/>
+        <v>6.4038224650774342E-2</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="5"/>
+        <v>2.6408918743250228E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>3.7</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C19">
+        <v>10.8</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>0.11547005383792516</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>23.247785636564469</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="3"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="4"/>
+        <v>0.2510760848748963</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="5"/>
+        <v>2.6844230590666609E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>3.8</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C20">
+        <v>21.6</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>0.11547005383792516</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>23.876104167282428</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="3"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="4"/>
+        <v>0.51572385001330046</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="5"/>
+        <v>2.7569750336360818E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>3.9</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C21">
+        <v>30</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>0.11547005383792516</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="2"/>
+        <v>24.504422698000386</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="3"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="4"/>
+        <v>0.73513268094001161</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="5"/>
+        <v>2.8295270082055127E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C22">
+        <v>36</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>0.11547005383792516</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="2"/>
+        <v>25.132741228718345</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="3"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="4"/>
+        <v>0.90477868423386043</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="5"/>
+        <v>2.9020789827749346E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>4.2</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C23">
+        <v>42</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>0.11547005383792516</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="2"/>
+        <v>26.389378290154262</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="3"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="4"/>
+        <v>1.108353888186479</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="5"/>
+        <v>3.0471829319137275E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C24">
+        <v>44</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>0.11547005383792516</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="2"/>
+        <v>27.646015351590183</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="3"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="4"/>
+        <v>1.2164246754699679</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="5"/>
+        <v>3.1922868810524761E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>4.7</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C25">
+        <v>46</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>0.11547005383792516</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="2"/>
+        <v>29.530970943744055</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="3"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="4"/>
+        <v>1.3584246634122266</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="5"/>
+        <v>3.409942804760588E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C26">
+        <v>46</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>0.11547005383792516</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="2"/>
+        <v>31.415926535897931</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="3"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="4"/>
+        <v>1.4451326206513049</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="5"/>
+        <v>3.6275987284686791E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>5.3</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C27">
+        <v>46</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>0.11547005383792516</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="2"/>
+        <v>33.300882128051803</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="3"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="4"/>
+        <v>1.531840577890383</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="5"/>
+        <v>3.8452546521767711E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>5.7</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C28">
+        <v>48</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>0.11547005383792516</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="2"/>
+        <v>35.814156250923645</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="3"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="4"/>
+        <v>1.7190795000443351</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="5"/>
+        <v>4.1354625504542494E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D0D33E-FD0C-46AE-AD34-04E877D3A333}">
   <dimension ref="A1:I28"/>
   <sheetViews>
@@ -1142,9 +3611,9 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -1158,7 +3627,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1.7</v>
       </c>
@@ -1169,12 +3638,12 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2.1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2.4</v>
       </c>
@@ -1182,22 +3651,22 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2.7</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2.9</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3.1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3.2</v>
       </c>
@@ -1208,17 +3677,17 @@
         <v>1.76</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3.3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3.4</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>3.5</v>
       </c>
@@ -1229,22 +3698,22 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3.56</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>3.58</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3.59</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>3.6</v>
       </c>
@@ -1255,12 +3724,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3.61</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>3.62</v>
       </c>
@@ -1271,12 +3740,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>3.64</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>3.7</v>
       </c>
@@ -1287,17 +3756,17 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>3.8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>3.9</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>4</v>
       </c>
@@ -1308,32 +3777,32 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>4.2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>4.7</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>5.3</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>5.7</v>
       </c>

--- a/היענות לתדר ותהודה/היענות לתדר ותהודה - אקסל.xlsx
+++ b/היענות לתדר ותהודה/היענות לתדר ותהודה - אקסל.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\מעבדה 2 א\laba\היענות לתדר ותהודה\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A10EB7-CF80-42E4-A1F0-F3D5B18D0FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4DD54C8-A4E4-4DA5-B5BE-28FDE02E3087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{302F7809-826E-4DEF-8391-6CA50C82BFBF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="6" xr2:uid="{302F7809-826E-4DEF-8391-6CA50C82BFBF}"/>
   </bookViews>
   <sheets>
     <sheet name="מדידות RCL" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,8 @@
     <sheet name="eddington v_r" sheetId="6" r:id="rId4"/>
     <sheet name="תתה בשיטת הקרסים" sheetId="3" r:id="rId5"/>
     <sheet name="שגיאות קרסים" sheetId="8" r:id="rId6"/>
-    <sheet name="תתה בשיטת האליפסות" sheetId="4" r:id="rId7"/>
+    <sheet name="eddington phi" sheetId="9" r:id="rId7"/>
+    <sheet name="תתה בשיטת האליפסות" sheetId="4" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
   <si>
     <t>מדידות</t>
   </si>
@@ -149,9 +150,6 @@
     <t>dV_r</t>
   </si>
   <si>
-    <t>ω[kHz]</t>
-  </si>
-  <si>
     <t>f [kHz]</t>
   </si>
   <si>
@@ -171,6 +169,9 @@
   </si>
   <si>
     <t>dφ</t>
+  </si>
+  <si>
+    <t>ω[Hz]</t>
   </si>
 </sst>
 </file>
@@ -938,18 +939,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DFC0B75-D2CC-4D18-9206-B3571EB1D673}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I28"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
         <v>32</v>
@@ -967,16 +969,16 @@
         <v>34</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -1002,12 +1004,12 @@
         <v>1.1547005383792516E-2</v>
       </c>
       <c r="I2">
-        <f>A2*2*PI()</f>
-        <v>10.681415022205297</v>
+        <f>A2*2*PI()*1000</f>
+        <v>10681.415022205296</v>
       </c>
       <c r="J2">
-        <f>10^(-7)/SQRT(12)</f>
-        <v>2.8867513459481289E-8</v>
+        <f>10^(-4)/SQRT(12)</f>
+        <v>2.8867513459481293E-5</v>
       </c>
       <c r="K2">
         <f>E2/C2</f>
@@ -1041,12 +1043,12 @@
         <v>1.1547005383792516E-2</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I28" si="3">A3*2*PI()</f>
-        <v>13.194689145077131</v>
+        <f t="shared" ref="I3:I28" si="3">A3*2*PI()*1000</f>
+        <v>13194.689145077131</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J28" si="4">10^(-7)/SQRT(12)</f>
-        <v>2.8867513459481289E-8</v>
+        <f t="shared" ref="J3:J28" si="4">10^(-4)/SQRT(12)</f>
+        <v>2.8867513459481293E-5</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K28" si="5">E3/C3</f>
@@ -1081,11 +1083,11 @@
       </c>
       <c r="I4">
         <f t="shared" si="3"/>
-        <v>15.079644737231007</v>
+        <v>15079.644737231007</v>
       </c>
       <c r="J4">
         <f t="shared" si="4"/>
-        <v>2.8867513459481289E-8</v>
+        <v>2.8867513459481293E-5</v>
       </c>
       <c r="K4">
         <f t="shared" si="5"/>
@@ -1120,11 +1122,11 @@
       </c>
       <c r="I5">
         <f t="shared" si="3"/>
-        <v>16.964600329384883</v>
+        <v>16964.600329384884</v>
       </c>
       <c r="J5">
         <f t="shared" si="4"/>
-        <v>2.8867513459481289E-8</v>
+        <v>2.8867513459481293E-5</v>
       </c>
       <c r="K5">
         <f t="shared" si="5"/>
@@ -1159,11 +1161,11 @@
       </c>
       <c r="I6">
         <f t="shared" si="3"/>
-        <v>18.2212373908208</v>
+        <v>18221.237390820799</v>
       </c>
       <c r="J6">
         <f t="shared" si="4"/>
-        <v>2.8867513459481289E-8</v>
+        <v>2.8867513459481293E-5</v>
       </c>
       <c r="K6">
         <f t="shared" si="5"/>
@@ -1198,11 +1200,11 @@
       </c>
       <c r="I7">
         <f t="shared" si="3"/>
-        <v>19.477874452256717</v>
+        <v>19477.874452256718</v>
       </c>
       <c r="J7">
         <f t="shared" si="4"/>
-        <v>2.8867513459481289E-8</v>
+        <v>2.8867513459481293E-5</v>
       </c>
       <c r="K7">
         <f t="shared" si="5"/>
@@ -1237,11 +1239,11 @@
       </c>
       <c r="I8">
         <f t="shared" si="3"/>
-        <v>20.106192982974676</v>
+        <v>20106.192982974677</v>
       </c>
       <c r="J8">
         <f t="shared" si="4"/>
-        <v>2.8867513459481289E-8</v>
+        <v>2.8867513459481293E-5</v>
       </c>
       <c r="K8">
         <f t="shared" si="5"/>
@@ -1276,11 +1278,11 @@
       </c>
       <c r="I9">
         <f t="shared" si="3"/>
-        <v>20.734511513692635</v>
+        <v>20734.511513692636</v>
       </c>
       <c r="J9">
         <f t="shared" si="4"/>
-        <v>2.8867513459481289E-8</v>
+        <v>2.8867513459481293E-5</v>
       </c>
       <c r="K9">
         <f t="shared" si="5"/>
@@ -1315,11 +1317,11 @@
       </c>
       <c r="I10">
         <f t="shared" si="3"/>
-        <v>21.362830044410593</v>
+        <v>21362.830044410592</v>
       </c>
       <c r="J10">
         <f t="shared" si="4"/>
-        <v>2.8867513459481289E-8</v>
+        <v>2.8867513459481293E-5</v>
       </c>
       <c r="K10">
         <f t="shared" si="5"/>
@@ -1354,11 +1356,11 @@
       </c>
       <c r="I11">
         <f t="shared" si="3"/>
-        <v>21.991148575128552</v>
+        <v>21991.148575128551</v>
       </c>
       <c r="J11">
         <f t="shared" si="4"/>
-        <v>2.8867513459481289E-8</v>
+        <v>2.8867513459481293E-5</v>
       </c>
       <c r="K11">
         <f t="shared" si="5"/>
@@ -1393,11 +1395,11 @@
       </c>
       <c r="I12">
         <f t="shared" si="3"/>
-        <v>22.368139693559328</v>
+        <v>22368.139693559329</v>
       </c>
       <c r="J12">
         <f t="shared" si="4"/>
-        <v>2.8867513459481289E-8</v>
+        <v>2.8867513459481293E-5</v>
       </c>
       <c r="K12">
         <f t="shared" si="5"/>
@@ -1432,11 +1434,11 @@
       </c>
       <c r="I13">
         <f t="shared" si="3"/>
-        <v>22.493803399702919</v>
+        <v>22493.80339970292</v>
       </c>
       <c r="J13">
         <f t="shared" si="4"/>
-        <v>2.8867513459481289E-8</v>
+        <v>2.8867513459481293E-5</v>
       </c>
       <c r="K13">
         <f t="shared" si="5"/>
@@ -1471,11 +1473,11 @@
       </c>
       <c r="I14">
         <f t="shared" si="3"/>
-        <v>22.556635252774715</v>
+        <v>22556.635252774715</v>
       </c>
       <c r="J14">
         <f t="shared" si="4"/>
-        <v>2.8867513459481289E-8</v>
+        <v>2.8867513459481293E-5</v>
       </c>
       <c r="K14">
         <f t="shared" si="5"/>
@@ -1510,11 +1512,11 @@
       </c>
       <c r="I15">
         <f t="shared" si="3"/>
-        <v>22.61946710584651</v>
+        <v>22619.46710584651</v>
       </c>
       <c r="J15">
         <f t="shared" si="4"/>
-        <v>2.8867513459481289E-8</v>
+        <v>2.8867513459481293E-5</v>
       </c>
       <c r="K15">
         <f t="shared" si="5"/>
@@ -1549,11 +1551,11 @@
       </c>
       <c r="I16">
         <f t="shared" si="3"/>
-        <v>22.682298958918306</v>
+        <v>22682.298958918305</v>
       </c>
       <c r="J16">
         <f t="shared" si="4"/>
-        <v>2.8867513459481289E-8</v>
+        <v>2.8867513459481293E-5</v>
       </c>
       <c r="K16">
         <f t="shared" si="5"/>
@@ -1588,11 +1590,11 @@
       </c>
       <c r="I17">
         <f t="shared" si="3"/>
-        <v>22.745130811990101</v>
+        <v>22745.1308119901</v>
       </c>
       <c r="J17">
         <f t="shared" si="4"/>
-        <v>2.8867513459481289E-8</v>
+        <v>2.8867513459481293E-5</v>
       </c>
       <c r="K17">
         <f t="shared" si="5"/>
@@ -1627,11 +1629,11 @@
       </c>
       <c r="I18">
         <f t="shared" si="3"/>
-        <v>22.870794518133696</v>
+        <v>22870.794518133695</v>
       </c>
       <c r="J18">
         <f t="shared" si="4"/>
-        <v>2.8867513459481289E-8</v>
+        <v>2.8867513459481293E-5</v>
       </c>
       <c r="K18">
         <f t="shared" si="5"/>
@@ -1666,11 +1668,11 @@
       </c>
       <c r="I19">
         <f t="shared" si="3"/>
-        <v>23.247785636564469</v>
+        <v>23247.785636564469</v>
       </c>
       <c r="J19">
         <f t="shared" si="4"/>
-        <v>2.8867513459481289E-8</v>
+        <v>2.8867513459481293E-5</v>
       </c>
       <c r="K19">
         <f t="shared" si="5"/>
@@ -1705,11 +1707,11 @@
       </c>
       <c r="I20">
         <f t="shared" si="3"/>
-        <v>23.876104167282428</v>
+        <v>23876.104167282429</v>
       </c>
       <c r="J20">
         <f t="shared" si="4"/>
-        <v>2.8867513459481289E-8</v>
+        <v>2.8867513459481293E-5</v>
       </c>
       <c r="K20">
         <f t="shared" si="5"/>
@@ -1744,11 +1746,11 @@
       </c>
       <c r="I21">
         <f t="shared" si="3"/>
-        <v>24.504422698000386</v>
+        <v>24504.422698000388</v>
       </c>
       <c r="J21">
         <f t="shared" si="4"/>
-        <v>2.8867513459481289E-8</v>
+        <v>2.8867513459481293E-5</v>
       </c>
       <c r="K21">
         <f t="shared" si="5"/>
@@ -1783,11 +1785,11 @@
       </c>
       <c r="I22">
         <f t="shared" si="3"/>
-        <v>25.132741228718345</v>
+        <v>25132.741228718343</v>
       </c>
       <c r="J22">
         <f t="shared" si="4"/>
-        <v>2.8867513459481289E-8</v>
+        <v>2.8867513459481293E-5</v>
       </c>
       <c r="K22">
         <f t="shared" si="5"/>
@@ -1822,11 +1824,11 @@
       </c>
       <c r="I23">
         <f t="shared" si="3"/>
-        <v>26.389378290154262</v>
+        <v>26389.378290154262</v>
       </c>
       <c r="J23">
         <f t="shared" si="4"/>
-        <v>2.8867513459481289E-8</v>
+        <v>2.8867513459481293E-5</v>
       </c>
       <c r="K23">
         <f t="shared" si="5"/>
@@ -1861,11 +1863,11 @@
       </c>
       <c r="I24">
         <f t="shared" si="3"/>
-        <v>27.646015351590183</v>
+        <v>27646.015351590184</v>
       </c>
       <c r="J24">
         <f t="shared" si="4"/>
-        <v>2.8867513459481289E-8</v>
+        <v>2.8867513459481293E-5</v>
       </c>
       <c r="K24">
         <f t="shared" si="5"/>
@@ -1900,11 +1902,11 @@
       </c>
       <c r="I25">
         <f t="shared" si="3"/>
-        <v>29.530970943744055</v>
+        <v>29530.970943744054</v>
       </c>
       <c r="J25">
         <f t="shared" si="4"/>
-        <v>2.8867513459481289E-8</v>
+        <v>2.8867513459481293E-5</v>
       </c>
       <c r="K25">
         <f t="shared" si="5"/>
@@ -1939,11 +1941,11 @@
       </c>
       <c r="I26">
         <f t="shared" si="3"/>
-        <v>31.415926535897931</v>
+        <v>31415.926535897932</v>
       </c>
       <c r="J26">
         <f t="shared" si="4"/>
-        <v>2.8867513459481289E-8</v>
+        <v>2.8867513459481293E-5</v>
       </c>
       <c r="K26">
         <f t="shared" si="5"/>
@@ -1978,11 +1980,11 @@
       </c>
       <c r="I27">
         <f t="shared" si="3"/>
-        <v>33.300882128051803</v>
+        <v>33300.882128051802</v>
       </c>
       <c r="J27">
         <f t="shared" si="4"/>
-        <v>2.8867513459481289E-8</v>
+        <v>2.8867513459481293E-5</v>
       </c>
       <c r="K27">
         <f t="shared" si="5"/>
@@ -2017,11 +2019,11 @@
       </c>
       <c r="I28">
         <f t="shared" si="3"/>
-        <v>35.814156250923645</v>
+        <v>35814.156250923646</v>
       </c>
       <c r="J28">
         <f t="shared" si="4"/>
-        <v>2.8867513459481289E-8</v>
+        <v>2.8867513459481293E-5</v>
       </c>
       <c r="K28">
         <f t="shared" si="5"/>
@@ -2042,32 +2044,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E125A2F-187B-4CCF-8148-99C5C233E483}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection sqref="A1:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>38</v>
-      </c>
-      <c r="D1" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>10.681415022205297</v>
+        <v>10681.415022205296</v>
       </c>
       <c r="B2">
-        <v>2.8867513459481289E-8</v>
+        <v>2.8867513459481293E-5</v>
       </c>
       <c r="C2">
         <v>0.12621359223300971</v>
@@ -2078,10 +2080,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>13.194689145077131</v>
+        <v>13194.689145077131</v>
       </c>
       <c r="B3">
-        <v>2.8867513459481289E-8</v>
+        <v>2.8867513459481293E-5</v>
       </c>
       <c r="C3">
         <v>0.17475728155339804</v>
@@ -2092,10 +2094,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>15.079644737231007</v>
+        <v>15079.644737231007</v>
       </c>
       <c r="B4">
-        <v>2.8867513459481289E-8</v>
+        <v>2.8867513459481293E-5</v>
       </c>
       <c r="C4">
         <v>0.23300970873786406</v>
@@ -2106,10 +2108,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>16.964600329384883</v>
+        <v>16964.600329384884</v>
       </c>
       <c r="B5">
-        <v>2.8867513459481289E-8</v>
+        <v>2.8867513459481293E-5</v>
       </c>
       <c r="C5">
         <v>0.30097087378640774</v>
@@ -2120,10 +2122,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>18.2212373908208</v>
+        <v>18221.237390820799</v>
       </c>
       <c r="B6">
-        <v>2.8867513459481289E-8</v>
+        <v>2.8867513459481293E-5</v>
       </c>
       <c r="C6">
         <v>0.37864077669902912</v>
@@ -2134,10 +2136,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>19.477874452256717</v>
+        <v>19477.874452256718</v>
       </c>
       <c r="B7">
-        <v>2.8867513459481289E-8</v>
+        <v>2.8867513459481293E-5</v>
       </c>
       <c r="C7">
         <v>0.47572815533980578</v>
@@ -2148,10 +2150,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>20.106192982974676</v>
+        <v>20106.192982974677</v>
       </c>
       <c r="B8">
-        <v>2.8867513459481289E-8</v>
+        <v>2.8867513459481293E-5</v>
       </c>
       <c r="C8">
         <v>0.55339805825242716</v>
@@ -2162,10 +2164,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>20.734511513692635</v>
+        <v>20734.511513692636</v>
       </c>
       <c r="B9">
-        <v>2.8867513459481289E-8</v>
+        <v>2.8867513459481293E-5</v>
       </c>
       <c r="C9">
         <v>0.65048543689320393</v>
@@ -2176,10 +2178,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>21.362830044410593</v>
+        <v>21362.830044410592</v>
       </c>
       <c r="B10">
-        <v>2.8867513459481289E-8</v>
+        <v>2.8867513459481293E-5</v>
       </c>
       <c r="C10">
         <v>0.75728155339805825</v>
@@ -2190,10 +2192,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>21.991148575128552</v>
+        <v>21991.148575128551</v>
       </c>
       <c r="B11">
-        <v>2.8867513459481289E-8</v>
+        <v>2.8867513459481293E-5</v>
       </c>
       <c r="C11">
         <v>0.86407766990291257</v>
@@ -2204,10 +2206,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>22.368139693559328</v>
+        <v>22368.139693559329</v>
       </c>
       <c r="B12">
-        <v>2.8867513459481289E-8</v>
+        <v>2.8867513459481293E-5</v>
       </c>
       <c r="C12">
         <v>0.90291262135922334</v>
@@ -2218,10 +2220,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>22.493803399702919</v>
+        <v>22493.80339970292</v>
       </c>
       <c r="B13">
-        <v>2.8867513459481289E-8</v>
+        <v>2.8867513459481293E-5</v>
       </c>
       <c r="C13">
         <v>0.9126213592233009</v>
@@ -2232,10 +2234,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>22.556635252774715</v>
+        <v>22556.635252774715</v>
       </c>
       <c r="B14">
-        <v>2.8867513459481289E-8</v>
+        <v>2.8867513459481293E-5</v>
       </c>
       <c r="C14">
         <v>0.92233009708737856</v>
@@ -2246,10 +2248,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>22.61946710584651</v>
+        <v>22619.46710584651</v>
       </c>
       <c r="B15">
-        <v>2.8867513459481289E-8</v>
+        <v>2.8867513459481293E-5</v>
       </c>
       <c r="C15">
         <v>0.92233009708737856</v>
@@ -2260,10 +2262,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>22.682298958918306</v>
+        <v>22682.298958918305</v>
       </c>
       <c r="B16">
-        <v>2.8867513459481289E-8</v>
+        <v>2.8867513459481293E-5</v>
       </c>
       <c r="C16">
         <v>0.93203883495145623</v>
@@ -2274,10 +2276,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>22.745130811990101</v>
+        <v>22745.1308119901</v>
       </c>
       <c r="B17">
-        <v>2.8867513459481289E-8</v>
+        <v>2.8867513459481293E-5</v>
       </c>
       <c r="C17">
         <v>0.92233009708737856</v>
@@ -2288,10 +2290,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>22.870794518133696</v>
+        <v>22870.794518133695</v>
       </c>
       <c r="B18">
-        <v>2.8867513459481289E-8</v>
+        <v>2.8867513459481293E-5</v>
       </c>
       <c r="C18">
         <v>0.92233009708737856</v>
@@ -2302,10 +2304,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>23.247785636564469</v>
+        <v>23247.785636564469</v>
       </c>
       <c r="B19">
-        <v>2.8867513459481289E-8</v>
+        <v>2.8867513459481293E-5</v>
       </c>
       <c r="C19">
         <v>0.90291262135922334</v>
@@ -2316,10 +2318,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>23.876104167282428</v>
+        <v>23876.104167282429</v>
       </c>
       <c r="B20">
-        <v>2.8867513459481289E-8</v>
+        <v>2.8867513459481293E-5</v>
       </c>
       <c r="C20">
         <v>0.80582524271844658</v>
@@ -2330,10 +2332,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>24.504422698000386</v>
+        <v>24504.422698000388</v>
       </c>
       <c r="B21">
-        <v>2.8867513459481289E-8</v>
+        <v>2.8867513459481293E-5</v>
       </c>
       <c r="C21">
         <v>0.70873786407766992</v>
@@ -2344,10 +2346,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>25.132741228718345</v>
+        <v>25132.741228718343</v>
       </c>
       <c r="B22">
-        <v>2.8867513459481289E-8</v>
+        <v>2.8867513459481293E-5</v>
       </c>
       <c r="C22">
         <v>0.59223300970873782</v>
@@ -2358,10 +2360,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>26.389378290154262</v>
+        <v>26389.378290154262</v>
       </c>
       <c r="B23">
-        <v>2.8867513459481289E-8</v>
+        <v>2.8867513459481293E-5</v>
       </c>
       <c r="C23">
         <v>0.44660194174757284</v>
@@ -2372,10 +2374,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>27.646015351590183</v>
+        <v>27646.015351590184</v>
       </c>
       <c r="B24">
-        <v>2.8867513459481289E-8</v>
+        <v>2.8867513459481293E-5</v>
       </c>
       <c r="C24">
         <v>0.35922330097087379</v>
@@ -2386,10 +2388,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>29.530970943744055</v>
+        <v>29530.970943744054</v>
       </c>
       <c r="B25">
-        <v>2.8867513459481289E-8</v>
+        <v>2.8867513459481293E-5</v>
       </c>
       <c r="C25">
         <v>0.25242718446601942</v>
@@ -2400,10 +2402,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>31.415926535897931</v>
+        <v>31415.926535897932</v>
       </c>
       <c r="B26">
-        <v>2.8867513459481289E-8</v>
+        <v>2.8867513459481293E-5</v>
       </c>
       <c r="C26">
         <v>0.1941747572815534</v>
@@ -2414,10 +2416,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>33.300882128051803</v>
+        <v>33300.882128051802</v>
       </c>
       <c r="B27">
-        <v>2.8867513459481289E-8</v>
+        <v>2.8867513459481293E-5</v>
       </c>
       <c r="C27">
         <v>0.1650485436893204</v>
@@ -2428,10 +2430,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>35.814156250923645</v>
+        <v>35814.156250923646</v>
       </c>
       <c r="B28">
-        <v>2.8867513459481289E-8</v>
+        <v>2.8867513459481293E-5</v>
       </c>
       <c r="C28">
         <v>0.11650485436893203</v>
@@ -2449,7 +2451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B82B89C-9999-42C7-87E6-1991117A20CF}">
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B29"/>
     </sheetView>
   </sheetViews>
@@ -2698,8 +2700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F89B044B-855C-4DAA-BF0B-EA830A5C624F}">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K28"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2709,7 +2711,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
         <v>32</v>
@@ -2718,19 +2720,19 @@
         <v>24</v>
       </c>
       <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -2749,20 +2751,20 @@
         <v>0.11547005383792516</v>
       </c>
       <c r="H2">
-        <f>A2*2*PI()</f>
-        <v>10.681415022205297</v>
+        <f>A2*2*PI()*1000</f>
+        <v>10681.415022205296</v>
       </c>
       <c r="I2">
-        <f>10^(-7)/SQRT(12)</f>
-        <v>2.8867513459481289E-8</v>
+        <f>10^(-4)/SQRT(12)</f>
+        <v>2.8867513459481293E-5</v>
       </c>
       <c r="J2">
         <f>H2*C2*10^-3</f>
-        <v>1.4526724430199205</v>
+        <v>1452.6724430199204</v>
       </c>
       <c r="K2">
         <f>SQRT((H2*D2*10^-3)^2+(C2*I2*10^-3)^2)</f>
-        <v>1.2333835676855164E-3</v>
+        <v>1.2333835676855165</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -2781,20 +2783,20 @@
         <v>0.11547005383792516</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H28" si="2">A3*2*PI()</f>
-        <v>13.194689145077131</v>
+        <f t="shared" ref="H3:H28" si="2">A3*2*PI()*1000</f>
+        <v>13194.689145077131</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I28" si="3">10^(-7)/SQRT(12)</f>
-        <v>2.8867513459481289E-8</v>
+        <f t="shared" ref="I3:I28" si="3">10^(-4)/SQRT(12)</f>
+        <v>2.8867513459481293E-5</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J28" si="4">H3*C3*10^-3</f>
-        <v>1.3986370493781759</v>
+        <v>1398.637049378176</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K28" si="5">SQRT((H3*D3*10^-3)^2+(C3*I3*10^-3)^2)</f>
-        <v>1.523591465959816E-3</v>
+        <v>1.5235914659598158</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -2814,19 +2816,19 @@
       </c>
       <c r="H4">
         <f t="shared" si="2"/>
-        <v>15.079644737231007</v>
+        <v>15079.644737231007</v>
       </c>
       <c r="I4">
         <f t="shared" si="3"/>
-        <v>2.8867513459481289E-8</v>
+        <v>2.8867513459481293E-5</v>
       </c>
       <c r="J4">
         <f t="shared" si="4"/>
-        <v>1.3571680263507906</v>
+        <v>1357.1680263507906</v>
       </c>
       <c r="K4">
         <f t="shared" si="5"/>
-        <v>1.7412473896667876E-3</v>
+        <v>1.7412473896667875</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -2846,19 +2848,19 @@
       </c>
       <c r="H5">
         <f t="shared" si="2"/>
-        <v>16.964600329384883</v>
+        <v>16964.600329384884</v>
       </c>
       <c r="I5">
         <f t="shared" si="3"/>
-        <v>2.8867513459481289E-8</v>
+        <v>2.8867513459481293E-5</v>
       </c>
       <c r="J5">
         <f t="shared" si="4"/>
-        <v>1.289309625033251</v>
+        <v>1289.3096250332512</v>
       </c>
       <c r="K5">
         <f t="shared" si="5"/>
-        <v>1.9589033133741839E-3</v>
+        <v>1.9589033133741842</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -2878,19 +2880,19 @@
       </c>
       <c r="H6">
         <f t="shared" si="2"/>
-        <v>18.2212373908208</v>
+        <v>18221.237390820799</v>
       </c>
       <c r="I6">
         <f t="shared" si="3"/>
-        <v>2.8867513459481289E-8</v>
+        <v>2.8867513459481293E-5</v>
       </c>
       <c r="J6">
         <f t="shared" si="4"/>
-        <v>1.2390441425758145</v>
+        <v>1239.0441425758145</v>
       </c>
       <c r="K6">
         <f t="shared" si="5"/>
-        <v>2.1040072625126086E-3</v>
+        <v>2.1040072625126083</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -2910,19 +2912,19 @@
       </c>
       <c r="H7">
         <f t="shared" si="2"/>
-        <v>19.477874452256717</v>
+        <v>19477.874452256718</v>
       </c>
       <c r="I7">
         <f t="shared" si="3"/>
-        <v>2.8867513459481289E-8</v>
+        <v>2.8867513459481293E-5</v>
       </c>
       <c r="J7">
         <f t="shared" si="4"/>
-        <v>1.1297167182308898</v>
+        <v>1129.7167182308897</v>
       </c>
       <c r="K7">
         <f t="shared" si="5"/>
-        <v>2.2491112116510533E-3</v>
+        <v>2.2491112116510532</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -2942,19 +2944,19 @@
       </c>
       <c r="H8">
         <f t="shared" si="2"/>
-        <v>20.106192982974676</v>
+        <v>20106.192982974677</v>
       </c>
       <c r="I8">
         <f t="shared" si="3"/>
-        <v>2.8867513459481289E-8</v>
+        <v>2.8867513459481293E-5</v>
       </c>
       <c r="J8">
         <f t="shared" si="4"/>
-        <v>0.9248848772168351</v>
+        <v>924.88487721683521</v>
       </c>
       <c r="K8">
         <f t="shared" si="5"/>
-        <v>2.3216631862201793E-3</v>
+        <v>2.3216631862201789</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -2974,19 +2976,19 @@
       </c>
       <c r="H9">
         <f t="shared" si="2"/>
-        <v>20.734511513692635</v>
+        <v>20734.511513692636</v>
       </c>
       <c r="I9">
         <f t="shared" si="3"/>
-        <v>2.8867513459481289E-8</v>
+        <v>2.8867513459481293E-5</v>
       </c>
       <c r="J9">
         <f t="shared" si="4"/>
-        <v>0.78791143752032011</v>
+        <v>787.91143752032019</v>
       </c>
       <c r="K9">
         <f t="shared" si="5"/>
-        <v>2.394215160789419E-3</v>
+        <v>2.3942151607894191</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -3006,19 +3008,19 @@
       </c>
       <c r="H10">
         <f t="shared" si="2"/>
-        <v>21.362830044410593</v>
+        <v>21362.830044410592</v>
       </c>
       <c r="I10">
         <f t="shared" si="3"/>
-        <v>2.8867513459481289E-8</v>
+        <v>2.8867513459481293E-5</v>
       </c>
       <c r="J10">
         <f t="shared" si="4"/>
-        <v>0.64088490133231779</v>
+        <v>640.88490133231778</v>
       </c>
       <c r="K10">
         <f t="shared" si="5"/>
-        <v>2.4667671353586882E-3</v>
+        <v>2.4667671353586882</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -3038,19 +3040,19 @@
       </c>
       <c r="H11">
         <f t="shared" si="2"/>
-        <v>21.991148575128552</v>
+        <v>21991.148575128551</v>
       </c>
       <c r="I11">
         <f t="shared" si="3"/>
-        <v>2.8867513459481289E-8</v>
+        <v>2.8867513459481293E-5</v>
       </c>
       <c r="J11">
         <f t="shared" si="4"/>
-        <v>0.36945129606215971</v>
+        <v>369.45129606215966</v>
       </c>
       <c r="K11">
         <f t="shared" si="5"/>
-        <v>2.5393191099279517E-3</v>
+        <v>2.5393191099279515</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -3070,19 +3072,19 @@
       </c>
       <c r="H12">
         <f t="shared" si="2"/>
-        <v>22.368139693559328</v>
+        <v>22368.139693559329</v>
       </c>
       <c r="I12">
         <f t="shared" si="3"/>
-        <v>2.8867513459481289E-8</v>
+        <v>2.8867513459481293E-5</v>
       </c>
       <c r="J12">
         <f t="shared" si="4"/>
-        <v>0.18789237342589837</v>
+        <v>187.89237342589837</v>
       </c>
       <c r="K12">
         <f t="shared" si="5"/>
-        <v>2.5828502946695382E-3</v>
+        <v>2.5828502946695382</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -3102,19 +3104,19 @@
       </c>
       <c r="H13">
         <f t="shared" si="2"/>
-        <v>22.493803399702919</v>
+        <v>22493.80339970292</v>
       </c>
       <c r="I13">
         <f t="shared" si="3"/>
-        <v>2.8867513459481289E-8</v>
+        <v>2.8867513459481293E-5</v>
       </c>
       <c r="J13">
         <f t="shared" si="4"/>
-        <v>0.12146653835839577</v>
+        <v>121.46653835839578</v>
       </c>
       <c r="K13">
         <f t="shared" si="5"/>
-        <v>2.5973606895834051E-3</v>
+        <v>2.5973606895834052</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -3134,19 +3136,19 @@
       </c>
       <c r="H14">
         <f t="shared" si="2"/>
-        <v>22.556635252774715</v>
+        <v>22556.635252774715</v>
       </c>
       <c r="I14">
         <f t="shared" si="3"/>
-        <v>2.8867513459481289E-8</v>
+        <v>2.8867513459481293E-5</v>
       </c>
       <c r="J14">
         <f t="shared" si="4"/>
-        <v>9.0226541011098865E-2</v>
+        <v>90.22654101109886</v>
       </c>
       <c r="K14">
         <f t="shared" si="5"/>
-        <v>2.6046158870403398E-3</v>
+        <v>2.6046158870403398</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -3166,19 +3168,19 @@
       </c>
       <c r="H15">
         <f t="shared" si="2"/>
-        <v>22.61946710584651</v>
+        <v>22619.46710584651</v>
       </c>
       <c r="I15">
         <f t="shared" si="3"/>
-        <v>2.8867513459481289E-8</v>
+        <v>2.8867513459481293E-5</v>
       </c>
       <c r="J15">
         <f t="shared" si="4"/>
-        <v>6.7858401317539535E-2</v>
+        <v>67.858401317539546</v>
       </c>
       <c r="K15">
         <f t="shared" si="5"/>
-        <v>2.6118710844972755E-3</v>
+        <v>2.6118710844972752</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -3198,19 +3200,19 @@
       </c>
       <c r="H16">
         <f t="shared" si="2"/>
-        <v>22.682298958918306</v>
+        <v>22682.298958918305</v>
       </c>
       <c r="I16">
         <f t="shared" si="3"/>
-        <v>2.8867513459481289E-8</v>
+        <v>2.8867513459481293E-5</v>
       </c>
       <c r="J16">
         <f t="shared" si="4"/>
-        <v>2.7218758750701965E-2</v>
+        <v>27.218758750701969</v>
       </c>
       <c r="K16">
         <f t="shared" si="5"/>
-        <v>2.6191262819542107E-3</v>
+        <v>2.6191262819542107</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -3230,11 +3232,11 @@
       </c>
       <c r="H17">
         <f t="shared" si="2"/>
-        <v>22.745130811990101</v>
+        <v>22745.1308119901</v>
       </c>
       <c r="I17">
         <f t="shared" si="3"/>
-        <v>2.8867513459481289E-8</v>
+        <v>2.8867513459481293E-5</v>
       </c>
       <c r="J17">
         <f t="shared" si="4"/>
@@ -3242,7 +3244,7 @@
       </c>
       <c r="K17">
         <f t="shared" si="5"/>
-        <v>2.6263814794111476E-3</v>
+        <v>2.6263814794111471</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -3262,19 +3264,19 @@
       </c>
       <c r="H18">
         <f t="shared" si="2"/>
-        <v>22.870794518133696</v>
+        <v>22870.794518133695</v>
       </c>
       <c r="I18">
         <f t="shared" si="3"/>
-        <v>2.8867513459481289E-8</v>
+        <v>2.8867513459481293E-5</v>
       </c>
       <c r="J18">
         <f t="shared" si="4"/>
-        <v>6.4038224650774342E-2</v>
+        <v>64.038224650774339</v>
       </c>
       <c r="K18">
         <f t="shared" si="5"/>
-        <v>2.6408918743250228E-3</v>
+        <v>2.6408918743250229</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -3294,19 +3296,19 @@
       </c>
       <c r="H19">
         <f t="shared" si="2"/>
-        <v>23.247785636564469</v>
+        <v>23247.785636564469</v>
       </c>
       <c r="I19">
         <f t="shared" si="3"/>
-        <v>2.8867513459481289E-8</v>
+        <v>2.8867513459481293E-5</v>
       </c>
       <c r="J19">
         <f t="shared" si="4"/>
-        <v>0.2510760848748963</v>
+        <v>251.07608487489628</v>
       </c>
       <c r="K19">
         <f t="shared" si="5"/>
-        <v>2.6844230590666609E-3</v>
+        <v>2.6844230590666607</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -3326,19 +3328,19 @@
       </c>
       <c r="H20">
         <f t="shared" si="2"/>
-        <v>23.876104167282428</v>
+        <v>23876.104167282429</v>
       </c>
       <c r="I20">
         <f t="shared" si="3"/>
-        <v>2.8867513459481289E-8</v>
+        <v>2.8867513459481293E-5</v>
       </c>
       <c r="J20">
         <f t="shared" si="4"/>
-        <v>0.51572385001330046</v>
+        <v>515.72385001330053</v>
       </c>
       <c r="K20">
         <f t="shared" si="5"/>
-        <v>2.7569750336360818E-3</v>
+        <v>2.7569750336360817</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -3358,19 +3360,19 @@
       </c>
       <c r="H21">
         <f t="shared" si="2"/>
-        <v>24.504422698000386</v>
+        <v>24504.422698000388</v>
       </c>
       <c r="I21">
         <f t="shared" si="3"/>
-        <v>2.8867513459481289E-8</v>
+        <v>2.8867513459481293E-5</v>
       </c>
       <c r="J21">
         <f t="shared" si="4"/>
-        <v>0.73513268094001161</v>
+        <v>735.1326809400116</v>
       </c>
       <c r="K21">
         <f t="shared" si="5"/>
-        <v>2.8295270082055127E-3</v>
+        <v>2.8295270082055128</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -3390,19 +3392,19 @@
       </c>
       <c r="H22">
         <f t="shared" si="2"/>
-        <v>25.132741228718345</v>
+        <v>25132.741228718343</v>
       </c>
       <c r="I22">
         <f t="shared" si="3"/>
-        <v>2.8867513459481289E-8</v>
+        <v>2.8867513459481293E-5</v>
       </c>
       <c r="J22">
         <f t="shared" si="4"/>
-        <v>0.90477868423386043</v>
+        <v>904.77868423386042</v>
       </c>
       <c r="K22">
         <f t="shared" si="5"/>
-        <v>2.9020789827749346E-3</v>
+        <v>2.9020789827749347</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -3422,19 +3424,19 @@
       </c>
       <c r="H23">
         <f t="shared" si="2"/>
-        <v>26.389378290154262</v>
+        <v>26389.378290154262</v>
       </c>
       <c r="I23">
         <f t="shared" si="3"/>
-        <v>2.8867513459481289E-8</v>
+        <v>2.8867513459481293E-5</v>
       </c>
       <c r="J23">
         <f t="shared" si="4"/>
-        <v>1.108353888186479</v>
+        <v>1108.353888186479</v>
       </c>
       <c r="K23">
         <f t="shared" si="5"/>
-        <v>3.0471829319137275E-3</v>
+        <v>3.0471829319137274</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -3454,19 +3456,19 @@
       </c>
       <c r="H24">
         <f t="shared" si="2"/>
-        <v>27.646015351590183</v>
+        <v>27646.015351590184</v>
       </c>
       <c r="I24">
         <f t="shared" si="3"/>
-        <v>2.8867513459481289E-8</v>
+        <v>2.8867513459481293E-5</v>
       </c>
       <c r="J24">
         <f t="shared" si="4"/>
-        <v>1.2164246754699679</v>
+        <v>1216.424675469968</v>
       </c>
       <c r="K24">
         <f t="shared" si="5"/>
-        <v>3.1922868810524761E-3</v>
+        <v>3.1922868810524769</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -3486,19 +3488,19 @@
       </c>
       <c r="H25">
         <f t="shared" si="2"/>
-        <v>29.530970943744055</v>
+        <v>29530.970943744054</v>
       </c>
       <c r="I25">
         <f t="shared" si="3"/>
-        <v>2.8867513459481289E-8</v>
+        <v>2.8867513459481293E-5</v>
       </c>
       <c r="J25">
         <f t="shared" si="4"/>
-        <v>1.3584246634122266</v>
+        <v>1358.4246634122267</v>
       </c>
       <c r="K25">
         <f t="shared" si="5"/>
-        <v>3.409942804760588E-3</v>
+        <v>3.409942804760588</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -3518,19 +3520,19 @@
       </c>
       <c r="H26">
         <f t="shared" si="2"/>
-        <v>31.415926535897931</v>
+        <v>31415.926535897932</v>
       </c>
       <c r="I26">
         <f t="shared" si="3"/>
-        <v>2.8867513459481289E-8</v>
+        <v>2.8867513459481293E-5</v>
       </c>
       <c r="J26">
         <f t="shared" si="4"/>
-        <v>1.4451326206513049</v>
+        <v>1445.1326206513049</v>
       </c>
       <c r="K26">
         <f t="shared" si="5"/>
-        <v>3.6275987284686791E-3</v>
+        <v>3.6275987284686795</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -3550,19 +3552,19 @@
       </c>
       <c r="H27">
         <f t="shared" si="2"/>
-        <v>33.300882128051803</v>
+        <v>33300.882128051802</v>
       </c>
       <c r="I27">
         <f t="shared" si="3"/>
-        <v>2.8867513459481289E-8</v>
+        <v>2.8867513459481293E-5</v>
       </c>
       <c r="J27">
         <f t="shared" si="4"/>
-        <v>1.531840577890383</v>
+        <v>1531.840577890383</v>
       </c>
       <c r="K27">
         <f t="shared" si="5"/>
-        <v>3.8452546521767711E-3</v>
+        <v>3.845254652176771</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -3582,19 +3584,19 @@
       </c>
       <c r="H28">
         <f t="shared" si="2"/>
-        <v>35.814156250923645</v>
+        <v>35814.156250923646</v>
       </c>
       <c r="I28">
         <f t="shared" si="3"/>
-        <v>2.8867513459481289E-8</v>
+        <v>2.8867513459481293E-5</v>
       </c>
       <c r="J28">
         <f t="shared" si="4"/>
-        <v>1.7190795000443351</v>
+        <v>1719.0795000443352</v>
       </c>
       <c r="K28">
         <f t="shared" si="5"/>
-        <v>4.1354625504542494E-3</v>
+        <v>4.1354625504542488</v>
       </c>
     </row>
   </sheetData>
@@ -3604,6 +3606,413 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A1C7DEC-5114-4333-81D1-A7DCE4A57D7B}">
+  <dimension ref="A1:D28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>10681.415022205296</v>
+      </c>
+      <c r="B2">
+        <v>2.8867513459481293E-5</v>
+      </c>
+      <c r="C2">
+        <v>-1452.6724430199204</v>
+      </c>
+      <c r="D2">
+        <v>1.2333835676855165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>13194.689145077131</v>
+      </c>
+      <c r="B3">
+        <v>2.8867513459481293E-5</v>
+      </c>
+      <c r="C3">
+        <v>-1398.637049378176</v>
+      </c>
+      <c r="D3">
+        <v>1.5235914659598158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>15079.644737231007</v>
+      </c>
+      <c r="B4">
+        <v>2.8867513459481293E-5</v>
+      </c>
+      <c r="C4">
+        <v>-1357.1680263507906</v>
+      </c>
+      <c r="D4">
+        <v>1.7412473896667875</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>16964.600329384884</v>
+      </c>
+      <c r="B5">
+        <v>2.8867513459481293E-5</v>
+      </c>
+      <c r="C5">
+        <v>-1289.3096250332512</v>
+      </c>
+      <c r="D5">
+        <v>1.9589033133741842</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>18221.237390820799</v>
+      </c>
+      <c r="B6">
+        <v>2.8867513459481293E-5</v>
+      </c>
+      <c r="C6">
+        <v>-1239.0441425758145</v>
+      </c>
+      <c r="D6">
+        <v>2.1040072625126083</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>19477.874452256718</v>
+      </c>
+      <c r="B7">
+        <v>2.8867513459481293E-5</v>
+      </c>
+      <c r="C7">
+        <v>-1129.7167182308897</v>
+      </c>
+      <c r="D7">
+        <v>2.2491112116510532</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>20106.192982974677</v>
+      </c>
+      <c r="B8">
+        <v>2.8867513459481293E-5</v>
+      </c>
+      <c r="C8">
+        <v>-924.88487721683521</v>
+      </c>
+      <c r="D8">
+        <v>2.3216631862201789</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>20734.511513692636</v>
+      </c>
+      <c r="B9">
+        <v>2.8867513459481293E-5</v>
+      </c>
+      <c r="C9">
+        <v>-787.91143752032019</v>
+      </c>
+      <c r="D9">
+        <v>2.3942151607894191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>21362.830044410592</v>
+      </c>
+      <c r="B10">
+        <v>2.8867513459481293E-5</v>
+      </c>
+      <c r="C10">
+        <v>-640.88490133231778</v>
+      </c>
+      <c r="D10">
+        <v>2.4667671353586882</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>21991.148575128551</v>
+      </c>
+      <c r="B11">
+        <v>2.8867513459481293E-5</v>
+      </c>
+      <c r="C11">
+        <v>-369.45129606215966</v>
+      </c>
+      <c r="D11">
+        <v>2.5393191099279515</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>22368.139693559329</v>
+      </c>
+      <c r="B12">
+        <v>2.8867513459481293E-5</v>
+      </c>
+      <c r="C12">
+        <v>-187.89237342589837</v>
+      </c>
+      <c r="D12">
+        <v>2.5828502946695382</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>22493.80339970292</v>
+      </c>
+      <c r="B13">
+        <v>2.8867513459481293E-5</v>
+      </c>
+      <c r="C13">
+        <v>-121.46653835839578</v>
+      </c>
+      <c r="D13">
+        <v>2.5973606895834052</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>22556.635252774715</v>
+      </c>
+      <c r="B14">
+        <v>2.8867513459481293E-5</v>
+      </c>
+      <c r="C14">
+        <v>-90.22654101109886</v>
+      </c>
+      <c r="D14">
+        <v>2.6046158870403398</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>22619.46710584651</v>
+      </c>
+      <c r="B15">
+        <v>2.8867513459481293E-5</v>
+      </c>
+      <c r="C15">
+        <v>-67.858401317539546</v>
+      </c>
+      <c r="D15">
+        <v>2.6118710844972752</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>22682.298958918305</v>
+      </c>
+      <c r="B16">
+        <v>2.8867513459481293E-5</v>
+      </c>
+      <c r="C16">
+        <v>-27.218758750701969</v>
+      </c>
+      <c r="D16">
+        <v>2.6191262819542107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>22745.1308119901</v>
+      </c>
+      <c r="B17">
+        <v>2.8867513459481293E-5</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>2.6263814794111471</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>22870.794518133695</v>
+      </c>
+      <c r="B18">
+        <v>2.8867513459481293E-5</v>
+      </c>
+      <c r="C18">
+        <v>64.038224650774339</v>
+      </c>
+      <c r="D18">
+        <v>2.6408918743250229</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>23247.785636564469</v>
+      </c>
+      <c r="B19">
+        <v>2.8867513459481293E-5</v>
+      </c>
+      <c r="C19">
+        <v>251.07608487489628</v>
+      </c>
+      <c r="D19">
+        <v>2.6844230590666607</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>23876.104167282429</v>
+      </c>
+      <c r="B20">
+        <v>2.8867513459481293E-5</v>
+      </c>
+      <c r="C20">
+        <v>515.72385001330053</v>
+      </c>
+      <c r="D20">
+        <v>2.7569750336360817</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>24504.422698000388</v>
+      </c>
+      <c r="B21">
+        <v>2.8867513459481293E-5</v>
+      </c>
+      <c r="C21">
+        <v>735.1326809400116</v>
+      </c>
+      <c r="D21">
+        <v>2.8295270082055128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>25132.741228718343</v>
+      </c>
+      <c r="B22">
+        <v>2.8867513459481293E-5</v>
+      </c>
+      <c r="C22">
+        <v>904.77868423386042</v>
+      </c>
+      <c r="D22">
+        <v>2.9020789827749347</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>26389.378290154262</v>
+      </c>
+      <c r="B23">
+        <v>2.8867513459481293E-5</v>
+      </c>
+      <c r="C23">
+        <v>1108.353888186479</v>
+      </c>
+      <c r="D23">
+        <v>3.0471829319137274</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>27646.015351590184</v>
+      </c>
+      <c r="B24">
+        <v>2.8867513459481293E-5</v>
+      </c>
+      <c r="C24">
+        <v>1216.424675469968</v>
+      </c>
+      <c r="D24">
+        <v>3.1922868810524769</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>29530.970943744054</v>
+      </c>
+      <c r="B25">
+        <v>2.8867513459481293E-5</v>
+      </c>
+      <c r="C25">
+        <v>1358.4246634122267</v>
+      </c>
+      <c r="D25">
+        <v>3.409942804760588</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>31415.926535897932</v>
+      </c>
+      <c r="B26">
+        <v>2.8867513459481293E-5</v>
+      </c>
+      <c r="C26">
+        <v>1445.1326206513049</v>
+      </c>
+      <c r="D26">
+        <v>3.6275987284686795</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>33300.882128051802</v>
+      </c>
+      <c r="B27">
+        <v>2.8867513459481293E-5</v>
+      </c>
+      <c r="C27">
+        <v>1531.840577890383</v>
+      </c>
+      <c r="D27">
+        <v>3.845254652176771</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>35814.156250923646</v>
+      </c>
+      <c r="B28">
+        <v>2.8867513459481293E-5</v>
+      </c>
+      <c r="C28">
+        <v>1719.0795000443352</v>
+      </c>
+      <c r="D28">
+        <v>4.1354625504542488</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D0D33E-FD0C-46AE-AD34-04E877D3A333}">
   <dimension ref="A1:I28"/>
   <sheetViews>

--- a/היענות לתדר ותהודה/היענות לתדר ותהודה - אקסל.xlsx
+++ b/היענות לתדר ותהודה/היענות לתדר ותהודה - אקסל.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\מעבדה 2 א\laba\היענות לתדר ותהודה\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4DD54C8-A4E4-4DA5-B5BE-28FDE02E3087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7842FF0D-992D-4977-A61B-EEE14439904A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="6" xr2:uid="{302F7809-826E-4DEF-8391-6CA50C82BFBF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" xr2:uid="{302F7809-826E-4DEF-8391-6CA50C82BFBF}"/>
   </bookViews>
   <sheets>
     <sheet name="מדידות RCL" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,12 @@
     <sheet name="שגיאות קרסים" sheetId="8" r:id="rId6"/>
     <sheet name="eddington phi" sheetId="9" r:id="rId7"/>
     <sheet name="תתה בשיטת האליפסות" sheetId="4" r:id="rId8"/>
+    <sheet name="שגיאות אליפסה" sheetId="10" r:id="rId9"/>
+    <sheet name="Sheet7" sheetId="11" r:id="rId10"/>
+    <sheet name="Sheet8" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="51">
   <si>
     <t>מדידות</t>
   </si>
@@ -172,6 +176,30 @@
   </si>
   <si>
     <t>ω[Hz]</t>
+  </si>
+  <si>
+    <t>f[kHz]</t>
+  </si>
+  <si>
+    <t>B/A</t>
+  </si>
+  <si>
+    <t>dA</t>
+  </si>
+  <si>
+    <t>dB</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>dw</t>
+  </si>
+  <si>
+    <t>dfuck</t>
   </si>
 </sst>
 </file>
@@ -532,8 +560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E94006C9-943D-42BB-B10F-EA9536D21714}">
   <dimension ref="W3:AB12"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="AA17" sqref="AA17"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Z13" sqref="Z13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -602,6 +630,302 @@
     <row r="12" spans="23:28" x14ac:dyDescent="0.3">
       <c r="X12" t="s">
         <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87C2F455-B214-4489-82C6-5AE19CEE24B9}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>10681.415022205296</v>
+      </c>
+      <c r="B2">
+        <v>2.8867513459481293E-5</v>
+      </c>
+      <c r="C2">
+        <v>-1.5707963267948966</v>
+      </c>
+      <c r="D2">
+        <v>0.16329931618554522</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>20106.192982974677</v>
+      </c>
+      <c r="B3">
+        <v>2.8867513459481293E-5</v>
+      </c>
+      <c r="C3">
+        <v>-0.87137894639644309</v>
+      </c>
+      <c r="D3">
+        <v>4.7844471191824785E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>21991.148575128551</v>
+      </c>
+      <c r="B4">
+        <v>2.8867513459481293E-5</v>
+      </c>
+      <c r="C4">
+        <v>-0.41642589737418523</v>
+      </c>
+      <c r="D4">
+        <v>3.6082434280106032E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>22619.46710584651</v>
+      </c>
+      <c r="B5">
+        <v>2.8867513459481293E-5</v>
+      </c>
+      <c r="C5">
+        <v>-0.10435597258845379</v>
+      </c>
+      <c r="D5">
+        <v>3.5890200382127993E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>22745.1308119901</v>
+      </c>
+      <c r="B6">
+        <v>2.8867513459481293E-5</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>3.571238778492531E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>23247.785636564469</v>
+      </c>
+      <c r="B7">
+        <v>2.8867513459481293E-5</v>
+      </c>
+      <c r="C7">
+        <v>0.22653143165920933</v>
+      </c>
+      <c r="D7">
+        <v>3.6148678002064283E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>25132.741228718343</v>
+      </c>
+      <c r="B8">
+        <v>2.8867513459481293E-5</v>
+      </c>
+      <c r="C8">
+        <v>0.77978281098031366</v>
+      </c>
+      <c r="D8">
+        <v>4.4277127012425185E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>35814.156250923646</v>
+      </c>
+      <c r="B9">
+        <v>2.8867513459481293E-5</v>
+      </c>
+      <c r="C9">
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="D9">
+        <v>0.16329931618554522</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B294687A-6600-43FC-8E2D-50222F216CDC}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.1</v>
+      </c>
+      <c r="C2">
+        <v>-9.0676595627935299</v>
+      </c>
+      <c r="D2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.1</v>
+      </c>
+      <c r="C3">
+        <v>-7.96541828748098</v>
+      </c>
+      <c r="D3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.1</v>
+      </c>
+      <c r="C4">
+        <v>-4.6557601868672203</v>
+      </c>
+      <c r="D4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.1</v>
+      </c>
+      <c r="C5">
+        <v>3.7865009792130899</v>
+      </c>
+      <c r="D5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.1</v>
+      </c>
+      <c r="C6">
+        <v>6.8643220503233602</v>
+      </c>
+      <c r="D6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.1</v>
+      </c>
+      <c r="C7">
+        <v>7.8235666138011597</v>
+      </c>
+      <c r="D7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.1</v>
+      </c>
+      <c r="C8">
+        <v>8.2801645632396497</v>
+      </c>
+      <c r="D8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.1</v>
+      </c>
+      <c r="C9">
+        <v>8.5498507458107795</v>
+      </c>
+      <c r="D9">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.1</v>
+      </c>
+      <c r="C10">
+        <v>8.7296986432299395</v>
+      </c>
+      <c r="D10">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -2044,11 +2368,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E125A2F-187B-4CCF-8148-99C5C233E483}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection sqref="A1:B29"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -2700,8 +3027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F89B044B-855C-4DAA-BF0B-EA830A5C624F}">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:K28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2744,26 +3071,26 @@
         <v>2.8867513459481289E-8</v>
       </c>
       <c r="C2">
-        <v>136</v>
+        <v>-136</v>
       </c>
       <c r="D2">
         <f>0.4/SQRT(12)</f>
         <v>0.11547005383792516</v>
       </c>
       <c r="H2">
-        <f>A2*2*PI()*1000</f>
+        <f t="shared" ref="H2:H16" si="0">A2*2*PI()*1000</f>
         <v>10681.415022205296</v>
       </c>
       <c r="I2">
-        <f>10^(-4)/SQRT(12)</f>
+        <f>10^-4/SQRT(12)</f>
         <v>2.8867513459481293E-5</v>
       </c>
       <c r="J2">
-        <f>H2*C2*10^-3</f>
-        <v>1452.6724430199204</v>
+        <f t="shared" ref="J2:J16" si="1">H2*C2*10^-3</f>
+        <v>-1452.6724430199204</v>
       </c>
       <c r="K2">
-        <f>SQRT((H2*D2*10^-3)^2+(C2*I2*10^-3)^2)</f>
+        <f t="shared" ref="K2:K16" si="2">SQRT((H2*D2*10^-3)^2+(C2*I2*10^-3)^2)</f>
         <v>1.2333835676855165</v>
       </c>
     </row>
@@ -2772,30 +3099,30 @@
         <v>2.1</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B28" si="0">10^(-7)/SQRT(12)</f>
+        <f t="shared" ref="B3:B28" si="3">10^(-7)/SQRT(12)</f>
         <v>2.8867513459481289E-8</v>
       </c>
       <c r="C3">
-        <v>106</v>
+        <v>-106</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D28" si="1">0.4/SQRT(12)</f>
+        <f t="shared" ref="D3:D28" si="4">0.4/SQRT(12)</f>
         <v>0.11547005383792516</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H28" si="2">A3*2*PI()*1000</f>
+        <f t="shared" si="0"/>
         <v>13194.689145077131</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I28" si="3">10^(-4)/SQRT(12)</f>
+        <f t="shared" ref="I3:I28" si="5">10^-4/SQRT(12)</f>
         <v>2.8867513459481293E-5</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J28" si="4">H3*C3*10^-3</f>
-        <v>1398.637049378176</v>
+        <f t="shared" si="1"/>
+        <v>-1398.637049378176</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K28" si="5">SQRT((H3*D3*10^-3)^2+(C3*I3*10^-3)^2)</f>
+        <f t="shared" si="2"/>
         <v>1.5235914659598158</v>
       </c>
     </row>
@@ -2804,30 +3131,30 @@
         <v>2.4</v>
       </c>
       <c r="B4">
+        <f t="shared" si="3"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C4">
+        <v>-90</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="4"/>
+        <v>0.11547005383792516</v>
+      </c>
+      <c r="H4">
         <f t="shared" si="0"/>
-        <v>2.8867513459481289E-8</v>
-      </c>
-      <c r="C4">
-        <v>90</v>
-      </c>
-      <c r="D4">
+        <v>15079.644737231007</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="5"/>
+        <v>2.8867513459481293E-5</v>
+      </c>
+      <c r="J4">
         <f t="shared" si="1"/>
-        <v>0.11547005383792516</v>
-      </c>
-      <c r="H4">
+        <v>-1357.1680263507906</v>
+      </c>
+      <c r="K4">
         <f t="shared" si="2"/>
-        <v>15079.644737231007</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="3"/>
-        <v>2.8867513459481293E-5</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="4"/>
-        <v>1357.1680263507906</v>
-      </c>
-      <c r="K4">
-        <f t="shared" si="5"/>
         <v>1.7412473896667875</v>
       </c>
     </row>
@@ -2836,30 +3163,30 @@
         <v>2.7</v>
       </c>
       <c r="B5">
+        <f t="shared" si="3"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C5">
+        <v>-76</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="4"/>
+        <v>0.11547005383792516</v>
+      </c>
+      <c r="H5">
         <f t="shared" si="0"/>
-        <v>2.8867513459481289E-8</v>
-      </c>
-      <c r="C5">
-        <v>76</v>
-      </c>
-      <c r="D5">
+        <v>16964.600329384884</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="5"/>
+        <v>2.8867513459481293E-5</v>
+      </c>
+      <c r="J5">
         <f t="shared" si="1"/>
-        <v>0.11547005383792516</v>
-      </c>
-      <c r="H5">
+        <v>-1289.3096250332512</v>
+      </c>
+      <c r="K5">
         <f t="shared" si="2"/>
-        <v>16964.600329384884</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="3"/>
-        <v>2.8867513459481293E-5</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="4"/>
-        <v>1289.3096250332512</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="5"/>
         <v>1.9589033133741842</v>
       </c>
     </row>
@@ -2868,30 +3195,30 @@
         <v>2.9</v>
       </c>
       <c r="B6">
+        <f t="shared" si="3"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C6">
+        <v>-68</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="4"/>
+        <v>0.11547005383792516</v>
+      </c>
+      <c r="H6">
         <f t="shared" si="0"/>
-        <v>2.8867513459481289E-8</v>
-      </c>
-      <c r="C6">
-        <v>68</v>
-      </c>
-      <c r="D6">
+        <v>18221.237390820799</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="5"/>
+        <v>2.8867513459481293E-5</v>
+      </c>
+      <c r="J6">
         <f t="shared" si="1"/>
-        <v>0.11547005383792516</v>
-      </c>
-      <c r="H6">
+        <v>-1239.0441425758145</v>
+      </c>
+      <c r="K6">
         <f t="shared" si="2"/>
-        <v>18221.237390820799</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="3"/>
-        <v>2.8867513459481293E-5</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="4"/>
-        <v>1239.0441425758145</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="5"/>
         <v>2.1040072625126083</v>
       </c>
     </row>
@@ -2900,30 +3227,30 @@
         <v>3.1</v>
       </c>
       <c r="B7">
+        <f t="shared" si="3"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C7">
+        <v>-58</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="4"/>
+        <v>0.11547005383792516</v>
+      </c>
+      <c r="H7">
         <f t="shared" si="0"/>
-        <v>2.8867513459481289E-8</v>
-      </c>
-      <c r="C7">
-        <v>58</v>
-      </c>
-      <c r="D7">
+        <v>19477.874452256718</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="5"/>
+        <v>2.8867513459481293E-5</v>
+      </c>
+      <c r="J7">
         <f t="shared" si="1"/>
-        <v>0.11547005383792516</v>
-      </c>
-      <c r="H7">
+        <v>-1129.7167182308897</v>
+      </c>
+      <c r="K7">
         <f t="shared" si="2"/>
-        <v>19477.874452256718</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="3"/>
-        <v>2.8867513459481293E-5</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="4"/>
-        <v>1129.7167182308897</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="5"/>
         <v>2.2491112116510532</v>
       </c>
     </row>
@@ -2932,30 +3259,30 @@
         <v>3.2</v>
       </c>
       <c r="B8">
+        <f t="shared" si="3"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C8">
+        <v>-46</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="4"/>
+        <v>0.11547005383792516</v>
+      </c>
+      <c r="H8">
         <f t="shared" si="0"/>
-        <v>2.8867513459481289E-8</v>
-      </c>
-      <c r="C8">
-        <v>46</v>
-      </c>
-      <c r="D8">
+        <v>20106.192982974677</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="5"/>
+        <v>2.8867513459481293E-5</v>
+      </c>
+      <c r="J8">
         <f t="shared" si="1"/>
-        <v>0.11547005383792516</v>
-      </c>
-      <c r="H8">
+        <v>-924.88487721683521</v>
+      </c>
+      <c r="K8">
         <f t="shared" si="2"/>
-        <v>20106.192982974677</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="3"/>
-        <v>2.8867513459481293E-5</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="4"/>
-        <v>924.88487721683521</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="5"/>
         <v>2.3216631862201789</v>
       </c>
     </row>
@@ -2964,30 +3291,30 @@
         <v>3.3</v>
       </c>
       <c r="B9">
+        <f t="shared" si="3"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C9">
+        <v>-38</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="4"/>
+        <v>0.11547005383792516</v>
+      </c>
+      <c r="H9">
         <f t="shared" si="0"/>
-        <v>2.8867513459481289E-8</v>
-      </c>
-      <c r="C9">
-        <v>38</v>
-      </c>
-      <c r="D9">
+        <v>20734.511513692636</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="5"/>
+        <v>2.8867513459481293E-5</v>
+      </c>
+      <c r="J9">
         <f t="shared" si="1"/>
-        <v>0.11547005383792516</v>
-      </c>
-      <c r="H9">
+        <v>-787.91143752032019</v>
+      </c>
+      <c r="K9">
         <f t="shared" si="2"/>
-        <v>20734.511513692636</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="3"/>
-        <v>2.8867513459481293E-5</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="4"/>
-        <v>787.91143752032019</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="5"/>
         <v>2.3942151607894191</v>
       </c>
     </row>
@@ -2996,30 +3323,30 @@
         <v>3.4</v>
       </c>
       <c r="B10">
+        <f t="shared" si="3"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C10">
+        <v>-30</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="4"/>
+        <v>0.11547005383792516</v>
+      </c>
+      <c r="H10">
         <f t="shared" si="0"/>
-        <v>2.8867513459481289E-8</v>
-      </c>
-      <c r="C10">
-        <v>30</v>
-      </c>
-      <c r="D10">
+        <v>21362.830044410592</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="5"/>
+        <v>2.8867513459481293E-5</v>
+      </c>
+      <c r="J10">
         <f t="shared" si="1"/>
-        <v>0.11547005383792516</v>
-      </c>
-      <c r="H10">
+        <v>-640.88490133231778</v>
+      </c>
+      <c r="K10">
         <f t="shared" si="2"/>
-        <v>21362.830044410592</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="3"/>
-        <v>2.8867513459481293E-5</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="4"/>
-        <v>640.88490133231778</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="5"/>
         <v>2.4667671353586882</v>
       </c>
     </row>
@@ -3028,30 +3355,30 @@
         <v>3.5</v>
       </c>
       <c r="B11">
+        <f t="shared" si="3"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C11">
+        <v>-16.8</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="4"/>
+        <v>0.11547005383792516</v>
+      </c>
+      <c r="H11">
         <f t="shared" si="0"/>
-        <v>2.8867513459481289E-8</v>
-      </c>
-      <c r="C11">
-        <v>16.8</v>
-      </c>
-      <c r="D11">
+        <v>21991.148575128551</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="5"/>
+        <v>2.8867513459481293E-5</v>
+      </c>
+      <c r="J11">
         <f t="shared" si="1"/>
-        <v>0.11547005383792516</v>
-      </c>
-      <c r="H11">
+        <v>-369.45129606215966</v>
+      </c>
+      <c r="K11">
         <f t="shared" si="2"/>
-        <v>21991.148575128551</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="3"/>
-        <v>2.8867513459481293E-5</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="4"/>
-        <v>369.45129606215966</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="5"/>
         <v>2.5393191099279515</v>
       </c>
     </row>
@@ -3060,30 +3387,30 @@
         <v>3.56</v>
       </c>
       <c r="B12">
+        <f t="shared" si="3"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C12">
+        <v>-8.4</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="4"/>
+        <v>0.11547005383792516</v>
+      </c>
+      <c r="H12">
         <f t="shared" si="0"/>
-        <v>2.8867513459481289E-8</v>
-      </c>
-      <c r="C12">
-        <v>8.4</v>
-      </c>
-      <c r="D12">
+        <v>22368.139693559329</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="5"/>
+        <v>2.8867513459481293E-5</v>
+      </c>
+      <c r="J12">
         <f t="shared" si="1"/>
-        <v>0.11547005383792516</v>
-      </c>
-      <c r="H12">
+        <v>-187.89237342589837</v>
+      </c>
+      <c r="K12">
         <f t="shared" si="2"/>
-        <v>22368.139693559329</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="3"/>
-        <v>2.8867513459481293E-5</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="4"/>
-        <v>187.89237342589837</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="5"/>
         <v>2.5828502946695382</v>
       </c>
     </row>
@@ -3092,30 +3419,30 @@
         <v>3.58</v>
       </c>
       <c r="B13">
+        <f t="shared" si="3"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C13">
+        <v>-5.4</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="4"/>
+        <v>0.11547005383792516</v>
+      </c>
+      <c r="H13">
         <f t="shared" si="0"/>
-        <v>2.8867513459481289E-8</v>
-      </c>
-      <c r="C13">
-        <v>5.4</v>
-      </c>
-      <c r="D13">
+        <v>22493.80339970292</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="5"/>
+        <v>2.8867513459481293E-5</v>
+      </c>
+      <c r="J13">
         <f t="shared" si="1"/>
-        <v>0.11547005383792516</v>
-      </c>
-      <c r="H13">
+        <v>-121.46653835839578</v>
+      </c>
+      <c r="K13">
         <f t="shared" si="2"/>
-        <v>22493.80339970292</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="3"/>
-        <v>2.8867513459481293E-5</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="4"/>
-        <v>121.46653835839578</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="5"/>
         <v>2.5973606895834052</v>
       </c>
     </row>
@@ -3124,30 +3451,30 @@
         <v>3.59</v>
       </c>
       <c r="B14">
+        <f t="shared" si="3"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C14">
+        <v>-4</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="4"/>
+        <v>0.11547005383792516</v>
+      </c>
+      <c r="H14">
         <f t="shared" si="0"/>
-        <v>2.8867513459481289E-8</v>
-      </c>
-      <c r="C14">
-        <v>4</v>
-      </c>
-      <c r="D14">
+        <v>22556.635252774715</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="5"/>
+        <v>2.8867513459481293E-5</v>
+      </c>
+      <c r="J14">
         <f t="shared" si="1"/>
-        <v>0.11547005383792516</v>
-      </c>
-      <c r="H14">
+        <v>-90.22654101109886</v>
+      </c>
+      <c r="K14">
         <f t="shared" si="2"/>
-        <v>22556.635252774715</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="3"/>
-        <v>2.8867513459481293E-5</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="4"/>
-        <v>90.22654101109886</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="5"/>
         <v>2.6046158870403398</v>
       </c>
     </row>
@@ -3156,30 +3483,30 @@
         <v>3.6</v>
       </c>
       <c r="B15">
+        <f t="shared" si="3"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C15">
+        <v>-3</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="4"/>
+        <v>0.11547005383792516</v>
+      </c>
+      <c r="H15">
         <f t="shared" si="0"/>
-        <v>2.8867513459481289E-8</v>
-      </c>
-      <c r="C15">
-        <v>3</v>
-      </c>
-      <c r="D15">
+        <v>22619.46710584651</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="5"/>
+        <v>2.8867513459481293E-5</v>
+      </c>
+      <c r="J15">
         <f t="shared" si="1"/>
-        <v>0.11547005383792516</v>
-      </c>
-      <c r="H15">
+        <v>-67.858401317539546</v>
+      </c>
+      <c r="K15">
         <f t="shared" si="2"/>
-        <v>22619.46710584651</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="3"/>
-        <v>2.8867513459481293E-5</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="4"/>
-        <v>67.858401317539546</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="5"/>
         <v>2.6118710844972752</v>
       </c>
     </row>
@@ -3188,30 +3515,30 @@
         <v>3.61</v>
       </c>
       <c r="B16">
+        <f t="shared" si="3"/>
+        <v>2.8867513459481289E-8</v>
+      </c>
+      <c r="C16">
+        <v>-1.2</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="4"/>
+        <v>0.11547005383792516</v>
+      </c>
+      <c r="H16">
         <f t="shared" si="0"/>
-        <v>2.8867513459481289E-8</v>
-      </c>
-      <c r="C16">
-        <v>1.2</v>
-      </c>
-      <c r="D16">
+        <v>22682.298958918305</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="5"/>
+        <v>2.8867513459481293E-5</v>
+      </c>
+      <c r="J16">
         <f t="shared" si="1"/>
-        <v>0.11547005383792516</v>
-      </c>
-      <c r="H16">
+        <v>-27.218758750701969</v>
+      </c>
+      <c r="K16">
         <f t="shared" si="2"/>
-        <v>22682.298958918305</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="3"/>
-        <v>2.8867513459481293E-5</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="4"/>
-        <v>27.218758750701969</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="5"/>
         <v>2.6191262819542107</v>
       </c>
     </row>
@@ -3220,30 +3547,30 @@
         <v>3.62</v>
       </c>
       <c r="B17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2.8867513459481289E-8</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.11547005383792516</v>
       </c>
       <c r="H17">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="H17:H28" si="6">A17*2*PI()*1000</f>
         <v>22745.1308119901</v>
       </c>
       <c r="I17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.8867513459481293E-5</v>
       </c>
       <c r="J17">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="J17:J28" si="7">H17*C17*10^-3</f>
         <v>0</v>
       </c>
       <c r="K17">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="K17:K28" si="8">SQRT((H17*D17*10^-3)^2+(C17*I17*10^-3)^2)</f>
         <v>2.6263814794111471</v>
       </c>
     </row>
@@ -3252,30 +3579,30 @@
         <v>3.64</v>
       </c>
       <c r="B18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2.8867513459481289E-8</v>
       </c>
       <c r="C18">
         <v>2.8</v>
       </c>
       <c r="D18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.11547005383792516</v>
       </c>
       <c r="H18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>22870.794518133695</v>
       </c>
       <c r="I18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.8867513459481293E-5</v>
       </c>
       <c r="J18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>64.038224650774339</v>
       </c>
       <c r="K18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.6408918743250229</v>
       </c>
     </row>
@@ -3284,30 +3611,30 @@
         <v>3.7</v>
       </c>
       <c r="B19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2.8867513459481289E-8</v>
       </c>
       <c r="C19">
         <v>10.8</v>
       </c>
       <c r="D19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.11547005383792516</v>
       </c>
       <c r="H19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>23247.785636564469</v>
       </c>
       <c r="I19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.8867513459481293E-5</v>
       </c>
       <c r="J19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>251.07608487489628</v>
       </c>
       <c r="K19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.6844230590666607</v>
       </c>
     </row>
@@ -3316,30 +3643,30 @@
         <v>3.8</v>
       </c>
       <c r="B20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2.8867513459481289E-8</v>
       </c>
       <c r="C20">
         <v>21.6</v>
       </c>
       <c r="D20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.11547005383792516</v>
       </c>
       <c r="H20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>23876.104167282429</v>
       </c>
       <c r="I20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.8867513459481293E-5</v>
       </c>
       <c r="J20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>515.72385001330053</v>
       </c>
       <c r="K20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.7569750336360817</v>
       </c>
     </row>
@@ -3348,30 +3675,30 @@
         <v>3.9</v>
       </c>
       <c r="B21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2.8867513459481289E-8</v>
       </c>
       <c r="C21">
         <v>30</v>
       </c>
       <c r="D21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.11547005383792516</v>
       </c>
       <c r="H21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>24504.422698000388</v>
       </c>
       <c r="I21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.8867513459481293E-5</v>
       </c>
       <c r="J21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>735.1326809400116</v>
       </c>
       <c r="K21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.8295270082055128</v>
       </c>
     </row>
@@ -3380,30 +3707,30 @@
         <v>4</v>
       </c>
       <c r="B22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2.8867513459481289E-8</v>
       </c>
       <c r="C22">
         <v>36</v>
       </c>
       <c r="D22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.11547005383792516</v>
       </c>
       <c r="H22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>25132.741228718343</v>
       </c>
       <c r="I22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.8867513459481293E-5</v>
       </c>
       <c r="J22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>904.77868423386042</v>
       </c>
       <c r="K22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>2.9020789827749347</v>
       </c>
     </row>
@@ -3412,30 +3739,30 @@
         <v>4.2</v>
       </c>
       <c r="B23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2.8867513459481289E-8</v>
       </c>
       <c r="C23">
         <v>42</v>
       </c>
       <c r="D23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.11547005383792516</v>
       </c>
       <c r="H23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>26389.378290154262</v>
       </c>
       <c r="I23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.8867513459481293E-5</v>
       </c>
       <c r="J23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1108.353888186479</v>
       </c>
       <c r="K23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3.0471829319137274</v>
       </c>
     </row>
@@ -3444,30 +3771,30 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="B24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2.8867513459481289E-8</v>
       </c>
       <c r="C24">
         <v>44</v>
       </c>
       <c r="D24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.11547005383792516</v>
       </c>
       <c r="H24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>27646.015351590184</v>
       </c>
       <c r="I24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.8867513459481293E-5</v>
       </c>
       <c r="J24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1216.424675469968</v>
       </c>
       <c r="K24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3.1922868810524769</v>
       </c>
     </row>
@@ -3476,30 +3803,30 @@
         <v>4.7</v>
       </c>
       <c r="B25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2.8867513459481289E-8</v>
       </c>
       <c r="C25">
         <v>46</v>
       </c>
       <c r="D25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.11547005383792516</v>
       </c>
       <c r="H25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>29530.970943744054</v>
       </c>
       <c r="I25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.8867513459481293E-5</v>
       </c>
       <c r="J25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1358.4246634122267</v>
       </c>
       <c r="K25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3.409942804760588</v>
       </c>
     </row>
@@ -3508,30 +3835,30 @@
         <v>5</v>
       </c>
       <c r="B26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2.8867513459481289E-8</v>
       </c>
       <c r="C26">
         <v>46</v>
       </c>
       <c r="D26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.11547005383792516</v>
       </c>
       <c r="H26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>31415.926535897932</v>
       </c>
       <c r="I26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.8867513459481293E-5</v>
       </c>
       <c r="J26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1445.1326206513049</v>
       </c>
       <c r="K26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3.6275987284686795</v>
       </c>
     </row>
@@ -3540,30 +3867,30 @@
         <v>5.3</v>
       </c>
       <c r="B27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2.8867513459481289E-8</v>
       </c>
       <c r="C27">
         <v>46</v>
       </c>
       <c r="D27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.11547005383792516</v>
       </c>
       <c r="H27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>33300.882128051802</v>
       </c>
       <c r="I27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.8867513459481293E-5</v>
       </c>
       <c r="J27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1531.840577890383</v>
       </c>
       <c r="K27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>3.845254652176771</v>
       </c>
     </row>
@@ -3572,30 +3899,30 @@
         <v>5.7</v>
       </c>
       <c r="B28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2.8867513459481289E-8</v>
       </c>
       <c r="C28">
         <v>48</v>
       </c>
       <c r="D28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.11547005383792516</v>
       </c>
       <c r="H28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>35814.156250923646</v>
       </c>
       <c r="I28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.8867513459481293E-5</v>
       </c>
       <c r="J28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1719.0795000443352</v>
       </c>
       <c r="K28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>4.1354625504542488</v>
       </c>
     </row>
@@ -3609,8 +3936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A1C7DEC-5114-4333-81D1-A7DCE4A57D7B}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4017,7 +4344,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection sqref="A1:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4225,4 +4552,367 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1DE4F50-1AD2-49CA-9FB6-F1CF168A4AD7}">
+  <dimension ref="A1:L9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1.7</v>
+      </c>
+      <c r="B2">
+        <v>-0.6</v>
+      </c>
+      <c r="C2">
+        <f>0.04*SQRT(12)</f>
+        <v>0.13856406460551018</v>
+      </c>
+      <c r="D2">
+        <v>0.6</v>
+      </c>
+      <c r="E2">
+        <f>0.04*SQRT(12)</f>
+        <v>0.13856406460551018</v>
+      </c>
+      <c r="F2">
+        <f>D2/B2</f>
+        <v>-1</v>
+      </c>
+      <c r="I2">
+        <f>A2*2*PI()*1000</f>
+        <v>10681.415022205296</v>
+      </c>
+      <c r="J2">
+        <f>10^-4/SQRT(12)</f>
+        <v>2.8867513459481293E-5</v>
+      </c>
+      <c r="K2">
+        <f>ASIN(D2/B2)</f>
+        <v>-1.5707963267948966</v>
+      </c>
+      <c r="L2">
+        <f>SQRT(((1/(1+F2^2))*D2/B2^2)^2+((1/(1+F2^2))*1/B2)^2)*E2</f>
+        <v>0.16329931618554522</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>3.2</v>
+      </c>
+      <c r="B3">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C9" si="0">0.04*SQRT(12)</f>
+        <v>0.13856406460551018</v>
+      </c>
+      <c r="D3">
+        <v>1.76</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E9" si="1">0.04*SQRT(12)</f>
+        <v>0.13856406460551018</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F9" si="2">D3/B3</f>
+        <v>-0.76521739130434785</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I9" si="3">A3*2*PI()*1000</f>
+        <v>20106.192982974677</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J9" si="4">10^-4/SQRT(12)</f>
+        <v>2.8867513459481293E-5</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K9" si="5">ASIN(D3/B3)</f>
+        <v>-0.87137894639644309</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L9" si="6">SQRT(((1/(1+F3^2))*D3/B3^2)^2+((1/(1+F3^2))*1/B3)^2)*E3</f>
+        <v>4.7844471191824785E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3.5</v>
+      </c>
+      <c r="B4">
+        <v>-3.56</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>0.13856406460551018</v>
+      </c>
+      <c r="D4">
+        <v>1.44</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>0.13856406460551018</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="2"/>
+        <v>-0.4044943820224719</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="3"/>
+        <v>21991.148575128551</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="4"/>
+        <v>2.8867513459481293E-5</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="5"/>
+        <v>-0.41642589737418523</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="6"/>
+        <v>3.6082434280106032E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3.6</v>
+      </c>
+      <c r="B5">
+        <v>-3.84</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>0.13856406460551018</v>
+      </c>
+      <c r="D5">
+        <v>0.4</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>0.13856406460551018</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>-0.10416666666666667</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>22619.46710584651</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="4"/>
+        <v>2.8867513459481293E-5</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="5"/>
+        <v>-0.10435597258845379</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="6"/>
+        <v>3.5890200382127993E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3.62</v>
+      </c>
+      <c r="B6">
+        <v>3.88</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0.13856406460551018</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>0.13856406460551018</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>22745.1308119901</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="4"/>
+        <v>2.8867513459481293E-5</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="6"/>
+        <v>3.571238778492531E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>3.7</v>
+      </c>
+      <c r="B7">
+        <v>3.74</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>0.13856406460551018</v>
+      </c>
+      <c r="D7">
+        <v>0.84</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>0.13856406460551018</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>0.2245989304812834</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>23247.785636564469</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="4"/>
+        <v>2.8867513459481293E-5</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="5"/>
+        <v>0.22653143165920933</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="6"/>
+        <v>3.6148678002064283E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>2.56</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>0.13856406460551018</v>
+      </c>
+      <c r="D8">
+        <v>1.8</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>0.13856406460551018</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>0.703125</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>25132.741228718343</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="4"/>
+        <v>2.8867513459481293E-5</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="5"/>
+        <v>0.77978281098031366</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="6"/>
+        <v>4.4277127012425185E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>5.7</v>
+      </c>
+      <c r="B9">
+        <v>0.6</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0.13856406460551018</v>
+      </c>
+      <c r="D9">
+        <v>0.6</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>0.13856406460551018</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>35814.156250923646</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="4"/>
+        <v>2.8867513459481293E-5</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="5"/>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="6"/>
+        <v>0.16329931618554522</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/היענות לתדר ותהודה/היענות לתדר ותהודה - אקסל.xlsx
+++ b/היענות לתדר ותהודה/היענות לתדר ותהודה - אקסל.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\מעבדה 2 א\laba\היענות לתדר ותהודה\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7842FF0D-992D-4977-A61B-EEE14439904A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72DCE12D-B47A-4882-B0F3-13787C3D8253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" xr2:uid="{302F7809-826E-4DEF-8391-6CA50C82BFBF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="6" xr2:uid="{302F7809-826E-4DEF-8391-6CA50C82BFBF}"/>
   </bookViews>
   <sheets>
-    <sheet name="מדידות RCL" sheetId="1" r:id="rId1"/>
+    <sheet name="RCL מדידות" sheetId="13" r:id="rId1"/>
     <sheet name="יחסי מתחים" sheetId="2" r:id="rId2"/>
     <sheet name="שגיאות יחסי מתחים" sheetId="5" r:id="rId3"/>
     <sheet name="eddington v_r" sheetId="6" r:id="rId4"/>
@@ -26,7 +26,6 @@
     <sheet name="Sheet8" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -47,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="50">
   <si>
     <t>מדידות</t>
   </si>
@@ -58,19 +57,7 @@
     <t>קבל</t>
   </si>
   <si>
-    <t>התנגדות</t>
-  </si>
-  <si>
-    <t>השראה</t>
-  </si>
-  <si>
-    <t>קיבול</t>
-  </si>
-  <si>
     <t>נגד</t>
-  </si>
-  <si>
-    <t>841.9mH</t>
   </si>
   <si>
     <t xml:space="preserve">ריצד גם ריצד </t>
@@ -79,22 +66,13 @@
     <t>במדידת התנגדות</t>
   </si>
   <si>
-    <t>1.85nf</t>
-  </si>
-  <si>
     <t>eror p to n</t>
-  </si>
-  <si>
-    <t>4.812kohm</t>
   </si>
   <si>
     <t>אמפליתודה 1 וולט</t>
   </si>
   <si>
     <t>VPP</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>דיוק 7 ספרות אחרי הנקודה</t>
@@ -201,12 +179,51 @@
   <si>
     <t>dfuck</t>
   </si>
+  <si>
+    <t>a[2]</t>
+  </si>
+  <si>
+    <t>כולל</t>
+  </si>
+  <si>
+    <t>קיבול(F)</t>
+  </si>
+  <si>
+    <t>השראה(H)</t>
+  </si>
+  <si>
+    <r>
+      <t>התנגדות (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Ω</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="177"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>a[3]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,6 +236,21 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="177"/>
     </font>
   </fonts>
   <fills count="2">
@@ -238,15 +270,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{D71BF822-ADE4-47CD-BFD5-084114833570}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -557,83 +592,112 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E94006C9-943D-42BB-B10F-EA9536D21714}">
-  <dimension ref="W3:AB12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D14B6D69-4FC4-4845-86CB-2409EA140A7E}">
+  <dimension ref="X4:AJ10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="Z13" sqref="Z13"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="23" width="8.88671875" style="2"/>
+    <col min="24" max="24" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.88671875" style="2"/>
+    <col min="26" max="26" width="9.21875" style="2" customWidth="1"/>
+    <col min="27" max="16384" width="8.88671875" style="2"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="23:28" x14ac:dyDescent="0.3">
-      <c r="Y3" t="s">
+    <row r="4" spans="24:36" x14ac:dyDescent="0.3">
+      <c r="X4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ4" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="24:36" x14ac:dyDescent="0.3">
+      <c r="X5" s="2">
+        <f>AI8*AG6</f>
+        <v>9.0544550000000014E-6</v>
+      </c>
+      <c r="Y5" s="2">
+        <f>AH5/AI8</f>
+        <v>1.7201642727254153E-4</v>
+      </c>
+      <c r="AE5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AF5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AH5" s="2">
+        <f>841.9*10^-3</f>
+        <v>0.84189999999999998</v>
+      </c>
+      <c r="AI5" s="2">
+        <v>82.3</v>
+      </c>
+      <c r="AJ5" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="24:36" x14ac:dyDescent="0.3">
+      <c r="AF6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG6" s="2">
+        <f>1.85*10^-9</f>
+        <v>1.8500000000000002E-9</v>
+      </c>
+      <c r="AJ6" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="24:36" x14ac:dyDescent="0.3">
+      <c r="AI7" s="2">
+        <f>4.812*10^3</f>
+        <v>4812</v>
+      </c>
+      <c r="AJ7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="AB3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="23:28" x14ac:dyDescent="0.3">
-      <c r="W4" t="s">
-        <v>9</v>
-      </c>
-      <c r="X4" t="s">
+    </row>
+    <row r="8" spans="24:36" x14ac:dyDescent="0.3">
+      <c r="AI8" s="2">
+        <f>AI5+AI7</f>
+        <v>4894.3</v>
+      </c>
+      <c r="AJ8" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="24:36" x14ac:dyDescent="0.3">
+      <c r="AF10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AG10" s="2">
+        <v>2</v>
+      </c>
+      <c r="AJ10" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="AA4">
-        <v>82.3</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="23:28" x14ac:dyDescent="0.3">
-      <c r="X5" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="23:28" x14ac:dyDescent="0.3">
-      <c r="AA6" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="23:28" x14ac:dyDescent="0.3">
-      <c r="X9" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y9">
-        <v>2</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="23:28" x14ac:dyDescent="0.3">
-      <c r="X12" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -649,16 +713,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -790,16 +854,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -945,13 +1009,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1069,7 +1133,7 @@
         <v>3.56</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -1235,20 +1299,20 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D37" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1275,34 +1339,34 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="L1" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="F1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -2369,7 +2433,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D28"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2379,16 +2443,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -2779,17 +2843,17 @@
   <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B29"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -3010,12 +3074,12 @@
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -3027,39 +3091,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F89B044B-855C-4DAA-BF0B-EA830A5C624F}">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="I1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -3086,12 +3151,12 @@
         <v>2.8867513459481293E-5</v>
       </c>
       <c r="J2">
-        <f t="shared" ref="J2:J16" si="1">H2*C2*10^-3</f>
-        <v>-1452.6724430199204</v>
+        <f>H2*C2*10^-6</f>
+        <v>-1.4526724430199203</v>
       </c>
       <c r="K2">
-        <f t="shared" ref="K2:K16" si="2">SQRT((H2*D2*10^-3)^2+(C2*I2*10^-3)^2)</f>
-        <v>1.2333835676855165</v>
+        <f>SQRT((H2*D2*10^-6)^2+(C2*I2*10^-6)^2)</f>
+        <v>1.2333835676855162E-3</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -3099,14 +3164,14 @@
         <v>2.1</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B28" si="3">10^(-7)/SQRT(12)</f>
+        <f t="shared" ref="B3:B28" si="1">10^(-7)/SQRT(12)</f>
         <v>2.8867513459481289E-8</v>
       </c>
       <c r="C3">
         <v>-106</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D28" si="4">0.4/SQRT(12)</f>
+        <f t="shared" ref="D3:D28" si="2">0.4/SQRT(12)</f>
         <v>0.11547005383792516</v>
       </c>
       <c r="H3">
@@ -3114,16 +3179,16 @@
         <v>13194.689145077131</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I28" si="5">10^-4/SQRT(12)</f>
+        <f t="shared" ref="I3:I28" si="3">10^-4/SQRT(12)</f>
         <v>2.8867513459481293E-5</v>
       </c>
       <c r="J3">
-        <f t="shared" si="1"/>
-        <v>-1398.637049378176</v>
+        <f t="shared" ref="J3:J28" si="4">H3*C3*10^-6</f>
+        <v>-1.3986370493781759</v>
       </c>
       <c r="K3">
-        <f t="shared" si="2"/>
-        <v>1.5235914659598158</v>
+        <f t="shared" ref="K3:K28" si="5">SQRT((H3*D3*10^-6)^2+(C3*I3*10^-6)^2)</f>
+        <v>1.523591465959816E-3</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -3131,14 +3196,14 @@
         <v>2.4</v>
       </c>
       <c r="B4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2.8867513459481289E-8</v>
       </c>
       <c r="C4">
         <v>-90</v>
       </c>
       <c r="D4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.11547005383792516</v>
       </c>
       <c r="H4">
@@ -3146,16 +3211,16 @@
         <v>15079.644737231007</v>
       </c>
       <c r="I4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2.8867513459481293E-5</v>
       </c>
       <c r="J4">
-        <f t="shared" si="1"/>
-        <v>-1357.1680263507906</v>
+        <f t="shared" si="4"/>
+        <v>-1.3571680263507906</v>
       </c>
       <c r="K4">
-        <f t="shared" si="2"/>
-        <v>1.7412473896667875</v>
+        <f t="shared" si="5"/>
+        <v>1.7412473896667874E-3</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -3163,14 +3228,14 @@
         <v>2.7</v>
       </c>
       <c r="B5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2.8867513459481289E-8</v>
       </c>
       <c r="C5">
         <v>-76</v>
       </c>
       <c r="D5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.11547005383792516</v>
       </c>
       <c r="H5">
@@ -3178,16 +3243,16 @@
         <v>16964.600329384884</v>
       </c>
       <c r="I5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2.8867513459481293E-5</v>
       </c>
       <c r="J5">
-        <f t="shared" si="1"/>
-        <v>-1289.3096250332512</v>
+        <f t="shared" si="4"/>
+        <v>-1.2893096250332512</v>
       </c>
       <c r="K5">
-        <f t="shared" si="2"/>
-        <v>1.9589033133741842</v>
+        <f t="shared" si="5"/>
+        <v>1.9589033133741839E-3</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -3195,14 +3260,14 @@
         <v>2.9</v>
       </c>
       <c r="B6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2.8867513459481289E-8</v>
       </c>
       <c r="C6">
         <v>-68</v>
       </c>
       <c r="D6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.11547005383792516</v>
       </c>
       <c r="H6">
@@ -3210,16 +3275,16 @@
         <v>18221.237390820799</v>
       </c>
       <c r="I6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2.8867513459481293E-5</v>
       </c>
       <c r="J6">
-        <f t="shared" si="1"/>
-        <v>-1239.0441425758145</v>
+        <f t="shared" si="4"/>
+        <v>-1.2390441425758143</v>
       </c>
       <c r="K6">
-        <f t="shared" si="2"/>
-        <v>2.1040072625126083</v>
+        <f t="shared" si="5"/>
+        <v>2.1040072625126086E-3</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -3227,14 +3292,14 @@
         <v>3.1</v>
       </c>
       <c r="B7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2.8867513459481289E-8</v>
       </c>
       <c r="C7">
         <v>-58</v>
       </c>
       <c r="D7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.11547005383792516</v>
       </c>
       <c r="H7">
@@ -3242,16 +3307,16 @@
         <v>19477.874452256718</v>
       </c>
       <c r="I7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2.8867513459481293E-5</v>
       </c>
       <c r="J7">
-        <f t="shared" si="1"/>
-        <v>-1129.7167182308897</v>
+        <f t="shared" si="4"/>
+        <v>-1.1297167182308896</v>
       </c>
       <c r="K7">
-        <f t="shared" si="2"/>
-        <v>2.2491112116510532</v>
+        <f t="shared" si="5"/>
+        <v>2.2491112116510533E-3</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -3259,14 +3324,14 @@
         <v>3.2</v>
       </c>
       <c r="B8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2.8867513459481289E-8</v>
       </c>
       <c r="C8">
         <v>-46</v>
       </c>
       <c r="D8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.11547005383792516</v>
       </c>
       <c r="H8">
@@ -3274,16 +3339,16 @@
         <v>20106.192982974677</v>
       </c>
       <c r="I8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2.8867513459481293E-5</v>
       </c>
       <c r="J8">
-        <f t="shared" si="1"/>
-        <v>-924.88487721683521</v>
+        <f t="shared" si="4"/>
+        <v>-0.9248848772168351</v>
       </c>
       <c r="K8">
-        <f t="shared" si="2"/>
-        <v>2.3216631862201789</v>
+        <f t="shared" si="5"/>
+        <v>2.3216631862201789E-3</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -3291,14 +3356,14 @@
         <v>3.3</v>
       </c>
       <c r="B9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2.8867513459481289E-8</v>
       </c>
       <c r="C9">
         <v>-38</v>
       </c>
       <c r="D9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.11547005383792516</v>
       </c>
       <c r="H9">
@@ -3306,16 +3371,16 @@
         <v>20734.511513692636</v>
       </c>
       <c r="I9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2.8867513459481293E-5</v>
       </c>
       <c r="J9">
-        <f t="shared" si="1"/>
-        <v>-787.91143752032019</v>
+        <f t="shared" si="4"/>
+        <v>-0.78791143752032011</v>
       </c>
       <c r="K9">
-        <f t="shared" si="2"/>
-        <v>2.3942151607894191</v>
+        <f t="shared" si="5"/>
+        <v>2.394215160789419E-3</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -3323,14 +3388,14 @@
         <v>3.4</v>
       </c>
       <c r="B10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2.8867513459481289E-8</v>
       </c>
       <c r="C10">
         <v>-30</v>
       </c>
       <c r="D10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.11547005383792516</v>
       </c>
       <c r="H10">
@@ -3338,16 +3403,16 @@
         <v>21362.830044410592</v>
       </c>
       <c r="I10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2.8867513459481293E-5</v>
       </c>
       <c r="J10">
-        <f t="shared" si="1"/>
-        <v>-640.88490133231778</v>
+        <f t="shared" si="4"/>
+        <v>-0.64088490133231768</v>
       </c>
       <c r="K10">
-        <f t="shared" si="2"/>
-        <v>2.4667671353586882</v>
+        <f t="shared" si="5"/>
+        <v>2.4667671353586877E-3</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -3355,14 +3420,14 @@
         <v>3.5</v>
       </c>
       <c r="B11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2.8867513459481289E-8</v>
       </c>
       <c r="C11">
         <v>-16.8</v>
       </c>
       <c r="D11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.11547005383792516</v>
       </c>
       <c r="H11">
@@ -3370,16 +3435,16 @@
         <v>21991.148575128551</v>
       </c>
       <c r="I11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2.8867513459481293E-5</v>
       </c>
       <c r="J11">
-        <f t="shared" si="1"/>
-        <v>-369.45129606215966</v>
+        <f t="shared" si="4"/>
+        <v>-0.36945129606215965</v>
       </c>
       <c r="K11">
-        <f t="shared" si="2"/>
-        <v>2.5393191099279515</v>
+        <f t="shared" si="5"/>
+        <v>2.5393191099279517E-3</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -3387,14 +3452,14 @@
         <v>3.56</v>
       </c>
       <c r="B12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2.8867513459481289E-8</v>
       </c>
       <c r="C12">
         <v>-8.4</v>
       </c>
       <c r="D12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.11547005383792516</v>
       </c>
       <c r="H12">
@@ -3402,16 +3467,16 @@
         <v>22368.139693559329</v>
       </c>
       <c r="I12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2.8867513459481293E-5</v>
       </c>
       <c r="J12">
-        <f t="shared" si="1"/>
-        <v>-187.89237342589837</v>
+        <f t="shared" si="4"/>
+        <v>-0.18789237342589837</v>
       </c>
       <c r="K12">
-        <f t="shared" si="2"/>
-        <v>2.5828502946695382</v>
+        <f t="shared" si="5"/>
+        <v>2.5828502946695377E-3</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -3419,14 +3484,14 @@
         <v>3.58</v>
       </c>
       <c r="B13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2.8867513459481289E-8</v>
       </c>
       <c r="C13">
         <v>-5.4</v>
       </c>
       <c r="D13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.11547005383792516</v>
       </c>
       <c r="H13">
@@ -3434,16 +3499,16 @@
         <v>22493.80339970292</v>
       </c>
       <c r="I13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2.8867513459481293E-5</v>
       </c>
       <c r="J13">
-        <f t="shared" si="1"/>
-        <v>-121.46653835839578</v>
+        <f t="shared" si="4"/>
+        <v>-0.12146653835839577</v>
       </c>
       <c r="K13">
-        <f t="shared" si="2"/>
-        <v>2.5973606895834052</v>
+        <f t="shared" si="5"/>
+        <v>2.5973606895834046E-3</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -3451,14 +3516,14 @@
         <v>3.59</v>
       </c>
       <c r="B14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2.8867513459481289E-8</v>
       </c>
       <c r="C14">
         <v>-4</v>
       </c>
       <c r="D14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.11547005383792516</v>
       </c>
       <c r="H14">
@@ -3466,16 +3531,16 @@
         <v>22556.635252774715</v>
       </c>
       <c r="I14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2.8867513459481293E-5</v>
       </c>
       <c r="J14">
-        <f t="shared" si="1"/>
-        <v>-90.22654101109886</v>
+        <f t="shared" si="4"/>
+        <v>-9.0226541011098851E-2</v>
       </c>
       <c r="K14">
-        <f t="shared" si="2"/>
-        <v>2.6046158870403398</v>
+        <f t="shared" si="5"/>
+        <v>2.6046158870403394E-3</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -3483,14 +3548,14 @@
         <v>3.6</v>
       </c>
       <c r="B15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2.8867513459481289E-8</v>
       </c>
       <c r="C15">
         <v>-3</v>
       </c>
       <c r="D15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.11547005383792516</v>
       </c>
       <c r="H15">
@@ -3498,16 +3563,16 @@
         <v>22619.46710584651</v>
       </c>
       <c r="I15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2.8867513459481293E-5</v>
       </c>
       <c r="J15">
-        <f t="shared" si="1"/>
-        <v>-67.858401317539546</v>
+        <f t="shared" si="4"/>
+        <v>-6.7858401317539535E-2</v>
       </c>
       <c r="K15">
-        <f t="shared" si="2"/>
-        <v>2.6118710844972752</v>
+        <f t="shared" si="5"/>
+        <v>2.6118710844972755E-3</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -3515,14 +3580,14 @@
         <v>3.61</v>
       </c>
       <c r="B16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2.8867513459481289E-8</v>
       </c>
       <c r="C16">
         <v>-1.2</v>
       </c>
       <c r="D16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.11547005383792516</v>
       </c>
       <c r="H16">
@@ -3530,16 +3595,16 @@
         <v>22682.298958918305</v>
       </c>
       <c r="I16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2.8867513459481293E-5</v>
       </c>
       <c r="J16">
-        <f t="shared" si="1"/>
-        <v>-27.218758750701969</v>
+        <f t="shared" si="4"/>
+        <v>-2.7218758750701965E-2</v>
       </c>
       <c r="K16">
-        <f t="shared" si="2"/>
-        <v>2.6191262819542107</v>
+        <f t="shared" si="5"/>
+        <v>2.6191262819542107E-3</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -3547,14 +3612,14 @@
         <v>3.62</v>
       </c>
       <c r="B17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2.8867513459481289E-8</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.11547005383792516</v>
       </c>
       <c r="H17">
@@ -3562,16 +3627,16 @@
         <v>22745.1308119901</v>
       </c>
       <c r="I17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2.8867513459481293E-5</v>
       </c>
       <c r="J17">
-        <f t="shared" ref="J17:J28" si="7">H17*C17*10^-3</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K17">
-        <f t="shared" ref="K17:K28" si="8">SQRT((H17*D17*10^-3)^2+(C17*I17*10^-3)^2)</f>
-        <v>2.6263814794111471</v>
+        <f t="shared" si="5"/>
+        <v>2.6263814794111472E-3</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -3579,14 +3644,14 @@
         <v>3.64</v>
       </c>
       <c r="B18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2.8867513459481289E-8</v>
       </c>
       <c r="C18">
         <v>2.8</v>
       </c>
       <c r="D18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.11547005383792516</v>
       </c>
       <c r="H18">
@@ -3594,16 +3659,16 @@
         <v>22870.794518133695</v>
       </c>
       <c r="I18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2.8867513459481293E-5</v>
       </c>
       <c r="J18">
-        <f t="shared" si="7"/>
-        <v>64.038224650774339</v>
+        <f t="shared" si="4"/>
+        <v>6.4038224650774342E-2</v>
       </c>
       <c r="K18">
-        <f t="shared" si="8"/>
-        <v>2.6408918743250229</v>
+        <f t="shared" si="5"/>
+        <v>2.6408918743250228E-3</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -3611,14 +3676,14 @@
         <v>3.7</v>
       </c>
       <c r="B19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2.8867513459481289E-8</v>
       </c>
       <c r="C19">
         <v>10.8</v>
       </c>
       <c r="D19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.11547005383792516</v>
       </c>
       <c r="H19">
@@ -3626,16 +3691,16 @@
         <v>23247.785636564469</v>
       </c>
       <c r="I19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2.8867513459481293E-5</v>
       </c>
       <c r="J19">
-        <f t="shared" si="7"/>
-        <v>251.07608487489628</v>
+        <f t="shared" si="4"/>
+        <v>0.25107608487489624</v>
       </c>
       <c r="K19">
-        <f t="shared" si="8"/>
-        <v>2.6844230590666607</v>
+        <f t="shared" si="5"/>
+        <v>2.6844230590666604E-3</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -3643,14 +3708,14 @@
         <v>3.8</v>
       </c>
       <c r="B20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2.8867513459481289E-8</v>
       </c>
       <c r="C20">
         <v>21.6</v>
       </c>
       <c r="D20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.11547005383792516</v>
       </c>
       <c r="H20">
@@ -3658,16 +3723,16 @@
         <v>23876.104167282429</v>
       </c>
       <c r="I20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2.8867513459481293E-5</v>
       </c>
       <c r="J20">
-        <f t="shared" si="7"/>
-        <v>515.72385001330053</v>
+        <f t="shared" si="4"/>
+        <v>0.51572385001330046</v>
       </c>
       <c r="K20">
-        <f t="shared" si="8"/>
-        <v>2.7569750336360817</v>
+        <f t="shared" si="5"/>
+        <v>2.7569750336360818E-3</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -3675,14 +3740,14 @@
         <v>3.9</v>
       </c>
       <c r="B21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2.8867513459481289E-8</v>
       </c>
       <c r="C21">
         <v>30</v>
       </c>
       <c r="D21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.11547005383792516</v>
       </c>
       <c r="H21">
@@ -3690,16 +3755,16 @@
         <v>24504.422698000388</v>
       </c>
       <c r="I21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2.8867513459481293E-5</v>
       </c>
       <c r="J21">
-        <f t="shared" si="7"/>
-        <v>735.1326809400116</v>
+        <f t="shared" si="4"/>
+        <v>0.73513268094001161</v>
       </c>
       <c r="K21">
-        <f t="shared" si="8"/>
-        <v>2.8295270082055128</v>
+        <f t="shared" si="5"/>
+        <v>2.8295270082055127E-3</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -3707,14 +3772,14 @@
         <v>4</v>
       </c>
       <c r="B22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2.8867513459481289E-8</v>
       </c>
       <c r="C22">
         <v>36</v>
       </c>
       <c r="D22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.11547005383792516</v>
       </c>
       <c r="H22">
@@ -3722,16 +3787,16 @@
         <v>25132.741228718343</v>
       </c>
       <c r="I22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2.8867513459481293E-5</v>
       </c>
       <c r="J22">
-        <f t="shared" si="7"/>
-        <v>904.77868423386042</v>
+        <f t="shared" si="4"/>
+        <v>0.90477868423386032</v>
       </c>
       <c r="K22">
-        <f t="shared" si="8"/>
-        <v>2.9020789827749347</v>
+        <f t="shared" si="5"/>
+        <v>2.9020789827749346E-3</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -3739,14 +3804,14 @@
         <v>4.2</v>
       </c>
       <c r="B23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2.8867513459481289E-8</v>
       </c>
       <c r="C23">
         <v>42</v>
       </c>
       <c r="D23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.11547005383792516</v>
       </c>
       <c r="H23">
@@ -3754,16 +3819,16 @@
         <v>26389.378290154262</v>
       </c>
       <c r="I23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2.8867513459481293E-5</v>
       </c>
       <c r="J23">
-        <f t="shared" si="7"/>
-        <v>1108.353888186479</v>
+        <f t="shared" si="4"/>
+        <v>1.108353888186479</v>
       </c>
       <c r="K23">
-        <f t="shared" si="8"/>
-        <v>3.0471829319137274</v>
+        <f t="shared" si="5"/>
+        <v>3.0471829319137275E-3</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -3771,14 +3836,14 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="B24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2.8867513459481289E-8</v>
       </c>
       <c r="C24">
         <v>44</v>
       </c>
       <c r="D24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.11547005383792516</v>
       </c>
       <c r="H24">
@@ -3786,16 +3851,16 @@
         <v>27646.015351590184</v>
       </c>
       <c r="I24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2.8867513459481293E-5</v>
       </c>
       <c r="J24">
-        <f t="shared" si="7"/>
-        <v>1216.424675469968</v>
+        <f t="shared" si="4"/>
+        <v>1.2164246754699679</v>
       </c>
       <c r="K24">
-        <f t="shared" si="8"/>
-        <v>3.1922868810524769</v>
+        <f t="shared" si="5"/>
+        <v>3.192286881052477E-3</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -3803,14 +3868,14 @@
         <v>4.7</v>
       </c>
       <c r="B25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2.8867513459481289E-8</v>
       </c>
       <c r="C25">
         <v>46</v>
       </c>
       <c r="D25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.11547005383792516</v>
       </c>
       <c r="H25">
@@ -3818,16 +3883,16 @@
         <v>29530.970943744054</v>
       </c>
       <c r="I25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2.8867513459481293E-5</v>
       </c>
       <c r="J25">
-        <f t="shared" si="7"/>
-        <v>1358.4246634122267</v>
+        <f t="shared" si="4"/>
+        <v>1.3584246634122266</v>
       </c>
       <c r="K25">
-        <f t="shared" si="8"/>
-        <v>3.409942804760588</v>
+        <f t="shared" si="5"/>
+        <v>3.409942804760588E-3</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -3835,14 +3900,14 @@
         <v>5</v>
       </c>
       <c r="B26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2.8867513459481289E-8</v>
       </c>
       <c r="C26">
         <v>46</v>
       </c>
       <c r="D26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.11547005383792516</v>
       </c>
       <c r="H26">
@@ -3850,16 +3915,16 @@
         <v>31415.926535897932</v>
       </c>
       <c r="I26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2.8867513459481293E-5</v>
       </c>
       <c r="J26">
-        <f t="shared" si="7"/>
-        <v>1445.1326206513049</v>
+        <f t="shared" si="4"/>
+        <v>1.4451326206513049</v>
       </c>
       <c r="K26">
-        <f t="shared" si="8"/>
-        <v>3.6275987284686795</v>
+        <f t="shared" si="5"/>
+        <v>3.6275987284686791E-3</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -3867,14 +3932,14 @@
         <v>5.3</v>
       </c>
       <c r="B27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2.8867513459481289E-8</v>
       </c>
       <c r="C27">
         <v>46</v>
       </c>
       <c r="D27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.11547005383792516</v>
       </c>
       <c r="H27">
@@ -3882,16 +3947,16 @@
         <v>33300.882128051802</v>
       </c>
       <c r="I27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2.8867513459481293E-5</v>
       </c>
       <c r="J27">
-        <f t="shared" si="7"/>
-        <v>1531.840577890383</v>
+        <f t="shared" si="4"/>
+        <v>1.5318405778903827</v>
       </c>
       <c r="K27">
-        <f t="shared" si="8"/>
-        <v>3.845254652176771</v>
+        <f t="shared" si="5"/>
+        <v>3.8452546521767707E-3</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -3899,14 +3964,14 @@
         <v>5.7</v>
       </c>
       <c r="B28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2.8867513459481289E-8</v>
       </c>
       <c r="C28">
         <v>48</v>
       </c>
       <c r="D28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.11547005383792516</v>
       </c>
       <c r="H28">
@@ -3914,16 +3979,16 @@
         <v>35814.156250923646</v>
       </c>
       <c r="I28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2.8867513459481293E-5</v>
       </c>
       <c r="J28">
-        <f t="shared" si="7"/>
-        <v>1719.0795000443352</v>
+        <f t="shared" si="4"/>
+        <v>1.7190795000443351</v>
       </c>
       <c r="K28">
-        <f t="shared" si="8"/>
-        <v>4.1354625504542488</v>
+        <f t="shared" si="5"/>
+        <v>4.1354625504542494E-3</v>
       </c>
     </row>
   </sheetData>
@@ -3936,24 +4001,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A1C7DEC-5114-4333-81D1-A7DCE4A57D7B}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -3964,10 +4029,10 @@
         <v>2.8867513459481293E-5</v>
       </c>
       <c r="C2">
-        <v>-1452.6724430199204</v>
+        <v>-1.4526724430199203</v>
       </c>
       <c r="D2">
-        <v>1.2333835676855165</v>
+        <v>1.2333835676855162E-3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -3978,10 +4043,10 @@
         <v>2.8867513459481293E-5</v>
       </c>
       <c r="C3">
-        <v>-1398.637049378176</v>
+        <v>-1.3986370493781759</v>
       </c>
       <c r="D3">
-        <v>1.5235914659598158</v>
+        <v>1.523591465959816E-3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -3992,10 +4057,10 @@
         <v>2.8867513459481293E-5</v>
       </c>
       <c r="C4">
-        <v>-1357.1680263507906</v>
+        <v>-1.3571680263507906</v>
       </c>
       <c r="D4">
-        <v>1.7412473896667875</v>
+        <v>1.7412473896667874E-3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -4006,10 +4071,10 @@
         <v>2.8867513459481293E-5</v>
       </c>
       <c r="C5">
-        <v>-1289.3096250332512</v>
+        <v>-1.2893096250332512</v>
       </c>
       <c r="D5">
-        <v>1.9589033133741842</v>
+        <v>1.9589033133741839E-3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -4020,10 +4085,10 @@
         <v>2.8867513459481293E-5</v>
       </c>
       <c r="C6">
-        <v>-1239.0441425758145</v>
+        <v>-1.2390441425758143</v>
       </c>
       <c r="D6">
-        <v>2.1040072625126083</v>
+        <v>2.1040072625126086E-3</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -4034,10 +4099,10 @@
         <v>2.8867513459481293E-5</v>
       </c>
       <c r="C7">
-        <v>-1129.7167182308897</v>
+        <v>-1.1297167182308896</v>
       </c>
       <c r="D7">
-        <v>2.2491112116510532</v>
+        <v>2.2491112116510533E-3</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -4048,10 +4113,10 @@
         <v>2.8867513459481293E-5</v>
       </c>
       <c r="C8">
-        <v>-924.88487721683521</v>
+        <v>-0.9248848772168351</v>
       </c>
       <c r="D8">
-        <v>2.3216631862201789</v>
+        <v>2.3216631862201789E-3</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -4062,10 +4127,10 @@
         <v>2.8867513459481293E-5</v>
       </c>
       <c r="C9">
-        <v>-787.91143752032019</v>
+        <v>-0.78791143752032011</v>
       </c>
       <c r="D9">
-        <v>2.3942151607894191</v>
+        <v>2.394215160789419E-3</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -4076,10 +4141,10 @@
         <v>2.8867513459481293E-5</v>
       </c>
       <c r="C10">
-        <v>-640.88490133231778</v>
+        <v>-0.64088490133231768</v>
       </c>
       <c r="D10">
-        <v>2.4667671353586882</v>
+        <v>2.4667671353586877E-3</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -4090,10 +4155,10 @@
         <v>2.8867513459481293E-5</v>
       </c>
       <c r="C11">
-        <v>-369.45129606215966</v>
+        <v>-0.36945129606215965</v>
       </c>
       <c r="D11">
-        <v>2.5393191099279515</v>
+        <v>2.5393191099279517E-3</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -4104,10 +4169,10 @@
         <v>2.8867513459481293E-5</v>
       </c>
       <c r="C12">
-        <v>-187.89237342589837</v>
+        <v>-0.18789237342589837</v>
       </c>
       <c r="D12">
-        <v>2.5828502946695382</v>
+        <v>2.5828502946695377E-3</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -4118,10 +4183,10 @@
         <v>2.8867513459481293E-5</v>
       </c>
       <c r="C13">
-        <v>-121.46653835839578</v>
+        <v>-0.12146653835839577</v>
       </c>
       <c r="D13">
-        <v>2.5973606895834052</v>
+        <v>2.5973606895834046E-3</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -4132,10 +4197,10 @@
         <v>2.8867513459481293E-5</v>
       </c>
       <c r="C14">
-        <v>-90.22654101109886</v>
+        <v>-9.0226541011098851E-2</v>
       </c>
       <c r="D14">
-        <v>2.6046158870403398</v>
+        <v>2.6046158870403394E-3</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -4146,10 +4211,10 @@
         <v>2.8867513459481293E-5</v>
       </c>
       <c r="C15">
-        <v>-67.858401317539546</v>
+        <v>-6.7858401317539535E-2</v>
       </c>
       <c r="D15">
-        <v>2.6118710844972752</v>
+        <v>2.6118710844972755E-3</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -4160,10 +4225,10 @@
         <v>2.8867513459481293E-5</v>
       </c>
       <c r="C16">
-        <v>-27.218758750701969</v>
+        <v>-2.7218758750701965E-2</v>
       </c>
       <c r="D16">
-        <v>2.6191262819542107</v>
+        <v>2.6191262819542107E-3</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -4177,7 +4242,7 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>2.6263814794111471</v>
+        <v>2.6263814794111472E-3</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -4188,10 +4253,10 @@
         <v>2.8867513459481293E-5</v>
       </c>
       <c r="C18">
-        <v>64.038224650774339</v>
+        <v>6.4038224650774342E-2</v>
       </c>
       <c r="D18">
-        <v>2.6408918743250229</v>
+        <v>2.6408918743250228E-3</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -4202,10 +4267,10 @@
         <v>2.8867513459481293E-5</v>
       </c>
       <c r="C19">
-        <v>251.07608487489628</v>
+        <v>0.25107608487489624</v>
       </c>
       <c r="D19">
-        <v>2.6844230590666607</v>
+        <v>2.6844230590666604E-3</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -4216,10 +4281,10 @@
         <v>2.8867513459481293E-5</v>
       </c>
       <c r="C20">
-        <v>515.72385001330053</v>
+        <v>0.51572385001330046</v>
       </c>
       <c r="D20">
-        <v>2.7569750336360817</v>
+        <v>2.7569750336360818E-3</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -4230,10 +4295,10 @@
         <v>2.8867513459481293E-5</v>
       </c>
       <c r="C21">
-        <v>735.1326809400116</v>
+        <v>0.73513268094001161</v>
       </c>
       <c r="D21">
-        <v>2.8295270082055128</v>
+        <v>2.8295270082055127E-3</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -4244,10 +4309,10 @@
         <v>2.8867513459481293E-5</v>
       </c>
       <c r="C22">
-        <v>904.77868423386042</v>
+        <v>0.90477868423386032</v>
       </c>
       <c r="D22">
-        <v>2.9020789827749347</v>
+        <v>2.9020789827749346E-3</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -4258,10 +4323,10 @@
         <v>2.8867513459481293E-5</v>
       </c>
       <c r="C23">
-        <v>1108.353888186479</v>
+        <v>1.108353888186479</v>
       </c>
       <c r="D23">
-        <v>3.0471829319137274</v>
+        <v>3.0471829319137275E-3</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -4272,10 +4337,10 @@
         <v>2.8867513459481293E-5</v>
       </c>
       <c r="C24">
-        <v>1216.424675469968</v>
+        <v>1.2164246754699679</v>
       </c>
       <c r="D24">
-        <v>3.1922868810524769</v>
+        <v>3.192286881052477E-3</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -4286,10 +4351,10 @@
         <v>2.8867513459481293E-5</v>
       </c>
       <c r="C25">
-        <v>1358.4246634122267</v>
+        <v>1.3584246634122266</v>
       </c>
       <c r="D25">
-        <v>3.409942804760588</v>
+        <v>3.409942804760588E-3</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -4300,10 +4365,10 @@
         <v>2.8867513459481293E-5</v>
       </c>
       <c r="C26">
-        <v>1445.1326206513049</v>
+        <v>1.4451326206513049</v>
       </c>
       <c r="D26">
-        <v>3.6275987284686795</v>
+        <v>3.6275987284686791E-3</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -4314,10 +4379,10 @@
         <v>2.8867513459481293E-5</v>
       </c>
       <c r="C27">
-        <v>1531.840577890383</v>
+        <v>1.5318405778903827</v>
       </c>
       <c r="D27">
-        <v>3.845254652176771</v>
+        <v>3.8452546521767707E-3</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -4328,10 +4393,10 @@
         <v>2.8867513459481293E-5</v>
       </c>
       <c r="C28">
-        <v>1719.0795000443352</v>
+        <v>1.7190795000443351</v>
       </c>
       <c r="D28">
-        <v>4.1354625504542488</v>
+        <v>4.1354625504542494E-3</v>
       </c>
     </row>
   </sheetData>
@@ -4351,16 +4416,16 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
-        <v>27</v>
-      </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -4569,34 +4634,34 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" t="s">
-        <v>36</v>
-      </c>
       <c r="K1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="L1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">

--- a/היענות לתדר ותהודה/היענות לתדר ותהודה - אקסל.xlsx
+++ b/היענות לתדר ותהודה/היענות לתדר ותהודה - אקסל.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\מעבדה 2 א\laba\היענות לתדר ותהודה\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72DCE12D-B47A-4882-B0F3-13787C3D8253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800438EC-8323-437F-BF85-34E1EDE3412E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="6" xr2:uid="{302F7809-826E-4DEF-8391-6CA50C82BFBF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="9" xr2:uid="{302F7809-826E-4DEF-8391-6CA50C82BFBF}"/>
   </bookViews>
   <sheets>
     <sheet name="RCL מדידות" sheetId="13" r:id="rId1"/>
@@ -22,8 +22,7 @@
     <sheet name="eddington phi" sheetId="9" r:id="rId7"/>
     <sheet name="תתה בשיטת האליפסות" sheetId="4" r:id="rId8"/>
     <sheet name="שגיאות אליפסה" sheetId="10" r:id="rId9"/>
-    <sheet name="Sheet7" sheetId="11" r:id="rId10"/>
-    <sheet name="Sheet8" sheetId="12" r:id="rId11"/>
+    <sheet name="eddington elipse phi" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="46">
   <si>
     <t>מדידות</t>
   </si>
@@ -166,18 +165,6 @@
   </si>
   <si>
     <t>dB</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>dw</t>
-  </si>
-  <si>
-    <t>dfuck</t>
   </si>
   <si>
     <t>a[2]</t>
@@ -595,8 +582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D14B6D69-4FC4-4845-86CB-2409EA140A7E}">
   <dimension ref="X4:AJ10"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="Y5" sqref="Y5"/>
+    <sheetView topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AA10" sqref="AA10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -610,19 +597,19 @@
   <sheetData>
     <row r="4" spans="24:36" x14ac:dyDescent="0.3">
       <c r="X4" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="Y4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI4" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="AG4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI4" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="AJ4" s="2" t="s">
         <v>0</v>
@@ -681,7 +668,7 @@
         <v>4894.3</v>
       </c>
       <c r="AJ8" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="24:36" x14ac:dyDescent="0.3">
@@ -705,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87C2F455-B214-4489-82C6-5AE19CEE24B9}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -750,7 +737,7 @@
         <v>-0.87137894639644309</v>
       </c>
       <c r="D3">
-        <v>4.7844471191824785E-2</v>
+        <v>0.11783701623338079</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -764,7 +751,7 @@
         <v>-0.41642589737418523</v>
       </c>
       <c r="D4">
-        <v>3.6082434280106032E-2</v>
+        <v>4.5909490055325811E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -778,7 +765,7 @@
         <v>-0.10435597258845379</v>
       </c>
       <c r="D5">
-        <v>3.5890200382127993E-2</v>
+        <v>3.6478080017711433E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -792,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.571238778492531E-2</v>
+        <v>3.5712387784925304E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -806,7 +793,7 @@
         <v>0.22653143165920933</v>
       </c>
       <c r="D7">
-        <v>3.6148678002064283E-2</v>
+        <v>3.8967762466627177E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -820,7 +807,7 @@
         <v>0.77978281098031366</v>
       </c>
       <c r="D8">
-        <v>4.4277127012425185E-2</v>
+        <v>9.3053302138452407E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -835,161 +822,6 @@
       </c>
       <c r="D9">
         <v>0.16329931618554522</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B294687A-6600-43FC-8E2D-50222F216CDC}">
-  <dimension ref="A1:D10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>0.1</v>
-      </c>
-      <c r="C2">
-        <v>-9.0676595627935299</v>
-      </c>
-      <c r="D2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>0.1</v>
-      </c>
-      <c r="C3">
-        <v>-7.96541828748098</v>
-      </c>
-      <c r="D3">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>0.1</v>
-      </c>
-      <c r="C4">
-        <v>-4.6557601868672203</v>
-      </c>
-      <c r="D4">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>0.1</v>
-      </c>
-      <c r="C5">
-        <v>3.7865009792130899</v>
-      </c>
-      <c r="D5">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>0.1</v>
-      </c>
-      <c r="C6">
-        <v>6.8643220503233602</v>
-      </c>
-      <c r="D6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>0.1</v>
-      </c>
-      <c r="C7">
-        <v>7.8235666138011597</v>
-      </c>
-      <c r="D7">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>0.1</v>
-      </c>
-      <c r="C8">
-        <v>8.2801645632396497</v>
-      </c>
-      <c r="D8">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>0.1</v>
-      </c>
-      <c r="C9">
-        <v>8.5498507458107795</v>
-      </c>
-      <c r="D9">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0.1</v>
-      </c>
-      <c r="C10">
-        <v>8.7296986432299395</v>
-      </c>
-      <c r="D10">
-        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -1328,7 +1160,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:L28"/>
+      <selection activeCell="C2" sqref="C2:C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3091,8 +2923,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F89B044B-855C-4DAA-BF0B-EA830A5C624F}">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:K28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3139,8 +2971,8 @@
         <v>-136</v>
       </c>
       <c r="D2">
-        <f>0.4/SQRT(12)</f>
-        <v>0.11547005383792516</v>
+        <f>1.2/SQRT(12)</f>
+        <v>0.34641016151377546</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H16" si="0">A2*2*PI()*1000</f>
@@ -3156,7 +2988,7 @@
       </c>
       <c r="K2">
         <f>SQRT((H2*D2*10^-6)^2+(C2*I2*10^-6)^2)</f>
-        <v>1.2333835676855162E-3</v>
+        <v>3.7001507030398864E-3</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -3171,8 +3003,8 @@
         <v>-106</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D28" si="2">0.4/SQRT(12)</f>
-        <v>0.11547005383792516</v>
+        <f t="shared" ref="D3:D28" si="2">1.2/SQRT(12)</f>
+        <v>0.34641016151377546</v>
       </c>
       <c r="H3">
         <f t="shared" si="0"/>
@@ -3188,7 +3020,7 @@
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K28" si="5">SQRT((H3*D3*10^-6)^2+(C3*I3*10^-6)^2)</f>
-        <v>1.523591465959816E-3</v>
+        <v>4.5707743978712521E-3</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -3204,7 +3036,7 @@
       </c>
       <c r="D4">
         <f t="shared" si="2"/>
-        <v>0.11547005383792516</v>
+        <v>0.34641016151377546</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
@@ -3220,7 +3052,7 @@
       </c>
       <c r="K4">
         <f t="shared" si="5"/>
-        <v>1.7412473896667874E-3</v>
+        <v>5.2237421689951928E-3</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -3236,7 +3068,7 @@
       </c>
       <c r="D5">
         <f t="shared" si="2"/>
-        <v>0.11547005383792516</v>
+        <v>0.34641016151377546</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
@@ -3252,7 +3084,7 @@
       </c>
       <c r="K5">
         <f t="shared" si="5"/>
-        <v>1.9589033133741839E-3</v>
+        <v>5.8767099401192749E-3</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -3268,7 +3100,7 @@
       </c>
       <c r="D6">
         <f t="shared" si="2"/>
-        <v>0.11547005383792516</v>
+        <v>0.34641016151377546</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
@@ -3284,7 +3116,7 @@
       </c>
       <c r="K6">
         <f t="shared" si="5"/>
-        <v>2.1040072625126086E-3</v>
+        <v>6.3120217875353825E-3</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -3300,7 +3132,7 @@
       </c>
       <c r="D7">
         <f t="shared" si="2"/>
-        <v>0.11547005383792516</v>
+        <v>0.34641016151377546</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
@@ -3316,7 +3148,7 @@
       </c>
       <c r="K7">
         <f t="shared" si="5"/>
-        <v>2.2491112116510533E-3</v>
+        <v>6.747333634951498E-3</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -3332,7 +3164,7 @@
       </c>
       <c r="D8">
         <f t="shared" si="2"/>
-        <v>0.11547005383792516</v>
+        <v>0.34641016151377546</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
@@ -3348,7 +3180,7 @@
       </c>
       <c r="K8">
         <f t="shared" si="5"/>
-        <v>2.3216631862201789E-3</v>
+        <v>6.9649895586595227E-3</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -3364,7 +3196,7 @@
       </c>
       <c r="D9">
         <f t="shared" si="2"/>
-        <v>0.11547005383792516</v>
+        <v>0.34641016151377546</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
@@ -3380,7 +3212,7 @@
       </c>
       <c r="K9">
         <f t="shared" si="5"/>
-        <v>2.394215160789419E-3</v>
+        <v>7.1826454823675865E-3</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -3396,7 +3228,7 @@
       </c>
       <c r="D10">
         <f t="shared" si="2"/>
-        <v>0.11547005383792516</v>
+        <v>0.34641016151377546</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
@@ -3412,7 +3244,7 @@
       </c>
       <c r="K10">
         <f t="shared" si="5"/>
-        <v>2.4667671353586877E-3</v>
+        <v>7.4003014060756581E-3</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -3428,7 +3260,7 @@
       </c>
       <c r="D11">
         <f t="shared" si="2"/>
-        <v>0.11547005383792516</v>
+        <v>0.34641016151377546</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
@@ -3444,7 +3276,7 @@
       </c>
       <c r="K11">
         <f t="shared" si="5"/>
-        <v>2.5393191099279517E-3</v>
+        <v>7.6179573297837297E-3</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -3460,7 +3292,7 @@
       </c>
       <c r="D12">
         <f t="shared" si="2"/>
-        <v>0.11547005383792516</v>
+        <v>0.34641016151377546</v>
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
@@ -3476,7 +3308,7 @@
       </c>
       <c r="K12">
         <f t="shared" si="5"/>
-        <v>2.5828502946695377E-3</v>
+        <v>7.7485508840085832E-3</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -3492,7 +3324,7 @@
       </c>
       <c r="D13">
         <f t="shared" si="2"/>
-        <v>0.11547005383792516</v>
+        <v>0.34641016151377546</v>
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
@@ -3508,7 +3340,7 @@
       </c>
       <c r="K13">
         <f t="shared" si="5"/>
-        <v>2.5973606895834046E-3</v>
+        <v>7.7920820687502014E-3</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -3524,7 +3356,7 @@
       </c>
       <c r="D14">
         <f t="shared" si="2"/>
-        <v>0.11547005383792516</v>
+        <v>0.34641016151377546</v>
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
@@ -3540,7 +3372,7 @@
       </c>
       <c r="K14">
         <f t="shared" si="5"/>
-        <v>2.6046158870403394E-3</v>
+        <v>7.8138476611210109E-3</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -3556,7 +3388,7 @@
       </c>
       <c r="D15">
         <f t="shared" si="2"/>
-        <v>0.11547005383792516</v>
+        <v>0.34641016151377546</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
@@ -3572,7 +3404,7 @@
       </c>
       <c r="K15">
         <f t="shared" si="5"/>
-        <v>2.6118710844972755E-3</v>
+        <v>7.8356132534918212E-3</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -3588,7 +3420,7 @@
       </c>
       <c r="D16">
         <f t="shared" si="2"/>
-        <v>0.11547005383792516</v>
+        <v>0.34641016151377546</v>
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
@@ -3604,7 +3436,7 @@
       </c>
       <c r="K16">
         <f t="shared" si="5"/>
-        <v>2.6191262819542107E-3</v>
+        <v>7.8573788458626316E-3</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -3620,7 +3452,7 @@
       </c>
       <c r="D17">
         <f t="shared" si="2"/>
-        <v>0.11547005383792516</v>
+        <v>0.34641016151377546</v>
       </c>
       <c r="H17">
         <f t="shared" ref="H17:H28" si="6">A17*2*PI()*1000</f>
@@ -3636,7 +3468,7 @@
       </c>
       <c r="K17">
         <f t="shared" si="5"/>
-        <v>2.6263814794111472E-3</v>
+        <v>7.8791444382334402E-3</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -3652,7 +3484,7 @@
       </c>
       <c r="D18">
         <f t="shared" si="2"/>
-        <v>0.11547005383792516</v>
+        <v>0.34641016151377546</v>
       </c>
       <c r="H18">
         <f t="shared" si="6"/>
@@ -3668,7 +3500,7 @@
       </c>
       <c r="K18">
         <f t="shared" si="5"/>
-        <v>2.6408918743250228E-3</v>
+        <v>7.9226756229750627E-3</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -3684,7 +3516,7 @@
       </c>
       <c r="D19">
         <f t="shared" si="2"/>
-        <v>0.11547005383792516</v>
+        <v>0.34641016151377546</v>
       </c>
       <c r="H19">
         <f t="shared" si="6"/>
@@ -3700,7 +3532,7 @@
       </c>
       <c r="K19">
         <f t="shared" si="5"/>
-        <v>2.6844230590666604E-3</v>
+        <v>8.0532691771999319E-3</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
@@ -3716,7 +3548,7 @@
       </c>
       <c r="D20">
         <f t="shared" si="2"/>
-        <v>0.11547005383792516</v>
+        <v>0.34641016151377546</v>
       </c>
       <c r="H20">
         <f t="shared" si="6"/>
@@ -3732,7 +3564,7 @@
       </c>
       <c r="K20">
         <f t="shared" si="5"/>
-        <v>2.7569750336360818E-3</v>
+        <v>8.2709251009080564E-3</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
@@ -3748,7 +3580,7 @@
       </c>
       <c r="D21">
         <f t="shared" si="2"/>
-        <v>0.11547005383792516</v>
+        <v>0.34641016151377546</v>
       </c>
       <c r="H21">
         <f t="shared" si="6"/>
@@ -3764,7 +3596,7 @@
       </c>
       <c r="K21">
         <f t="shared" si="5"/>
-        <v>2.8295270082055127E-3</v>
+        <v>8.4885810246161826E-3</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
@@ -3780,7 +3612,7 @@
       </c>
       <c r="D22">
         <f t="shared" si="2"/>
-        <v>0.11547005383792516</v>
+        <v>0.34641016151377546</v>
       </c>
       <c r="H22">
         <f t="shared" si="6"/>
@@ -3796,7 +3628,7 @@
       </c>
       <c r="K22">
         <f t="shared" si="5"/>
-        <v>2.9020789827749346E-3</v>
+        <v>8.7062369483243071E-3</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
@@ -3812,7 +3644,7 @@
       </c>
       <c r="D23">
         <f t="shared" si="2"/>
-        <v>0.11547005383792516</v>
+        <v>0.34641016151377546</v>
       </c>
       <c r="H23">
         <f t="shared" si="6"/>
@@ -3828,7 +3660,7 @@
       </c>
       <c r="K23">
         <f t="shared" si="5"/>
-        <v>3.0471829319137275E-3</v>
+        <v>9.1415487957405353E-3</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
@@ -3844,7 +3676,7 @@
       </c>
       <c r="D24">
         <f t="shared" si="2"/>
-        <v>0.11547005383792516</v>
+        <v>0.34641016151377546</v>
       </c>
       <c r="H24">
         <f t="shared" si="6"/>
@@ -3860,7 +3692,7 @@
       </c>
       <c r="K24">
         <f t="shared" si="5"/>
-        <v>3.192286881052477E-3</v>
+        <v>9.5768606431567548E-3</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
@@ -3876,7 +3708,7 @@
       </c>
       <c r="D25">
         <f t="shared" si="2"/>
-        <v>0.11547005383792516</v>
+        <v>0.34641016151377546</v>
       </c>
       <c r="H25">
         <f t="shared" si="6"/>
@@ -3892,7 +3724,7 @@
       </c>
       <c r="K25">
         <f t="shared" si="5"/>
-        <v>3.409942804760588E-3</v>
+        <v>1.0229828414281075E-2</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
@@ -3908,7 +3740,7 @@
       </c>
       <c r="D26">
         <f t="shared" si="2"/>
-        <v>0.11547005383792516</v>
+        <v>0.34641016151377546</v>
       </c>
       <c r="H26">
         <f t="shared" si="6"/>
@@ -3924,7 +3756,7 @@
       </c>
       <c r="K26">
         <f t="shared" si="5"/>
-        <v>3.6275987284686791E-3</v>
+        <v>1.0882796185405387E-2</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
@@ -3940,7 +3772,7 @@
       </c>
       <c r="D27">
         <f t="shared" si="2"/>
-        <v>0.11547005383792516</v>
+        <v>0.34641016151377546</v>
       </c>
       <c r="H27">
         <f t="shared" si="6"/>
@@ -3956,7 +3788,7 @@
       </c>
       <c r="K27">
         <f t="shared" si="5"/>
-        <v>3.8452546521767707E-3</v>
+        <v>1.1535763956529698E-2</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
@@ -3972,7 +3804,7 @@
       </c>
       <c r="D28">
         <f t="shared" si="2"/>
-        <v>0.11547005383792516</v>
+        <v>0.34641016151377546</v>
       </c>
       <c r="H28">
         <f t="shared" si="6"/>
@@ -3988,7 +3820,7 @@
       </c>
       <c r="K28">
         <f t="shared" si="5"/>
-        <v>4.1354625504542494E-3</v>
+        <v>1.2406387651362129E-2</v>
       </c>
     </row>
   </sheetData>
@@ -4001,8 +3833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A1C7DEC-5114-4333-81D1-A7DCE4A57D7B}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4032,7 +3864,7 @@
         <v>-1.4526724430199203</v>
       </c>
       <c r="D2">
-        <v>1.2333835676855162E-3</v>
+        <v>3.7001507030398864E-3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -4046,7 +3878,7 @@
         <v>-1.3986370493781759</v>
       </c>
       <c r="D3">
-        <v>1.523591465959816E-3</v>
+        <v>4.5707743978712521E-3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -4060,7 +3892,7 @@
         <v>-1.3571680263507906</v>
       </c>
       <c r="D4">
-        <v>1.7412473896667874E-3</v>
+        <v>5.2237421689951928E-3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -4074,7 +3906,7 @@
         <v>-1.2893096250332512</v>
       </c>
       <c r="D5">
-        <v>1.9589033133741839E-3</v>
+        <v>5.8767099401192749E-3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -4088,7 +3920,7 @@
         <v>-1.2390441425758143</v>
       </c>
       <c r="D6">
-        <v>2.1040072625126086E-3</v>
+        <v>6.3120217875353825E-3</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -4102,7 +3934,7 @@
         <v>-1.1297167182308896</v>
       </c>
       <c r="D7">
-        <v>2.2491112116510533E-3</v>
+        <v>6.747333634951498E-3</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -4116,7 +3948,7 @@
         <v>-0.9248848772168351</v>
       </c>
       <c r="D8">
-        <v>2.3216631862201789E-3</v>
+        <v>6.9649895586595227E-3</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -4130,7 +3962,7 @@
         <v>-0.78791143752032011</v>
       </c>
       <c r="D9">
-        <v>2.394215160789419E-3</v>
+        <v>7.1826454823675865E-3</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -4144,7 +3976,7 @@
         <v>-0.64088490133231768</v>
       </c>
       <c r="D10">
-        <v>2.4667671353586877E-3</v>
+        <v>7.4003014060756581E-3</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -4158,7 +3990,7 @@
         <v>-0.36945129606215965</v>
       </c>
       <c r="D11">
-        <v>2.5393191099279517E-3</v>
+        <v>7.6179573297837297E-3</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -4172,7 +4004,7 @@
         <v>-0.18789237342589837</v>
       </c>
       <c r="D12">
-        <v>2.5828502946695377E-3</v>
+        <v>7.7485508840085832E-3</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -4186,7 +4018,7 @@
         <v>-0.12146653835839577</v>
       </c>
       <c r="D13">
-        <v>2.5973606895834046E-3</v>
+        <v>7.7920820687502014E-3</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -4200,7 +4032,7 @@
         <v>-9.0226541011098851E-2</v>
       </c>
       <c r="D14">
-        <v>2.6046158870403394E-3</v>
+        <v>7.8138476611210109E-3</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -4214,7 +4046,7 @@
         <v>-6.7858401317539535E-2</v>
       </c>
       <c r="D15">
-        <v>2.6118710844972755E-3</v>
+        <v>7.8356132534918212E-3</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -4228,7 +4060,7 @@
         <v>-2.7218758750701965E-2</v>
       </c>
       <c r="D16">
-        <v>2.6191262819542107E-3</v>
+        <v>7.8573788458626316E-3</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -4242,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>2.6263814794111472E-3</v>
+        <v>7.8791444382334402E-3</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -4256,7 +4088,7 @@
         <v>6.4038224650774342E-2</v>
       </c>
       <c r="D18">
-        <v>2.6408918743250228E-3</v>
+        <v>7.9226756229750627E-3</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -4270,7 +4102,7 @@
         <v>0.25107608487489624</v>
       </c>
       <c r="D19">
-        <v>2.6844230590666604E-3</v>
+        <v>8.0532691771999319E-3</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -4284,7 +4116,7 @@
         <v>0.51572385001330046</v>
       </c>
       <c r="D20">
-        <v>2.7569750336360818E-3</v>
+        <v>8.2709251009080564E-3</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -4298,7 +4130,7 @@
         <v>0.73513268094001161</v>
       </c>
       <c r="D21">
-        <v>2.8295270082055127E-3</v>
+        <v>8.4885810246161826E-3</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -4312,7 +4144,7 @@
         <v>0.90477868423386032</v>
       </c>
       <c r="D22">
-        <v>2.9020789827749346E-3</v>
+        <v>8.7062369483243071E-3</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -4326,7 +4158,7 @@
         <v>1.108353888186479</v>
       </c>
       <c r="D23">
-        <v>3.0471829319137275E-3</v>
+        <v>9.1415487957405353E-3</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -4340,7 +4172,7 @@
         <v>1.2164246754699679</v>
       </c>
       <c r="D24">
-        <v>3.192286881052477E-3</v>
+        <v>9.5768606431567548E-3</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -4354,7 +4186,7 @@
         <v>1.3584246634122266</v>
       </c>
       <c r="D25">
-        <v>3.409942804760588E-3</v>
+        <v>1.0229828414281075E-2</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -4368,7 +4200,7 @@
         <v>1.4451326206513049</v>
       </c>
       <c r="D26">
-        <v>3.6275987284686791E-3</v>
+        <v>1.0882796185405387E-2</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -4382,7 +4214,7 @@
         <v>1.5318405778903827</v>
       </c>
       <c r="D27">
-        <v>3.8452546521767707E-3</v>
+        <v>1.1535763956529698E-2</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -4396,7 +4228,7 @@
         <v>1.7190795000443351</v>
       </c>
       <c r="D28">
-        <v>4.1354625504542494E-3</v>
+        <v>1.2406387651362129E-2</v>
       </c>
     </row>
   </sheetData>
@@ -4409,7 +4241,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E28"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4624,7 +4456,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:L9"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4695,12 +4527,12 @@
         <v>2.8867513459481293E-5</v>
       </c>
       <c r="K2">
-        <f>ASIN(D2/B2)</f>
+        <f>ASIN(F2)</f>
         <v>-1.5707963267948966</v>
       </c>
-      <c r="L2">
-        <f>SQRT(((1/(1+F2^2))*D2/B2^2)^2+((1/(1+F2^2))*1/B2)^2)*E2</f>
-        <v>0.16329931618554522</v>
+      <c r="L2" t="e">
+        <f>SQRT(((E2/B2)^2+((D2*C2)/(B2^2))^2)/(1-(F2)^2))</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -4734,12 +4566,12 @@
         <v>2.8867513459481293E-5</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K9" si="5">ASIN(D3/B3)</f>
+        <f t="shared" ref="K3:K9" si="5">ASIN(F3)</f>
         <v>-0.87137894639644309</v>
       </c>
       <c r="L3">
-        <f t="shared" ref="L3:L9" si="6">SQRT(((1/(1+F3^2))*D3/B3^2)^2+((1/(1+F3^2))*1/B3)^2)*E3</f>
-        <v>4.7844471191824785E-2</v>
+        <f>SQRT(((E3/B3)^2+((D3*C3)/(B3^2))^2)/(1-(F3)^2))</f>
+        <v>0.11783701623338079</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -4777,8 +4609,8 @@
         <v>-0.41642589737418523</v>
       </c>
       <c r="L4">
-        <f t="shared" si="6"/>
-        <v>3.6082434280106032E-2</v>
+        <f t="shared" ref="L3:L9" si="6">SQRT(((E4/B4)^2+((D4*C4)/(B4^2))^2)/(1-(F4)^2))</f>
+        <v>4.5909490055325811E-2</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -4817,7 +4649,7 @@
       </c>
       <c r="L5">
         <f t="shared" si="6"/>
-        <v>3.5890200382127993E-2</v>
+        <v>3.6478080017711433E-2</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -4856,7 +4688,7 @@
       </c>
       <c r="L6">
         <f t="shared" si="6"/>
-        <v>3.571238778492531E-2</v>
+        <v>3.5712387784925304E-2</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -4895,7 +4727,7 @@
       </c>
       <c r="L7">
         <f t="shared" si="6"/>
-        <v>3.6148678002064283E-2</v>
+        <v>3.8967762466627177E-2</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -4934,7 +4766,7 @@
       </c>
       <c r="L8">
         <f t="shared" si="6"/>
-        <v>4.4277127012425185E-2</v>
+        <v>9.3053302138452407E-2</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -4971,9 +4803,9 @@
         <f t="shared" si="5"/>
         <v>1.5707963267948966</v>
       </c>
-      <c r="L9">
+      <c r="L9" t="e">
         <f t="shared" si="6"/>
-        <v>0.16329931618554522</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>

--- a/היענות לתדר ותהודה/היענות לתדר ותהודה - אקסל.xlsx
+++ b/היענות לתדר ותהודה/היענות לתדר ותהודה - אקסל.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\מעבדה 2 א\laba\היענות לתדר ותהודה\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\laba\היענות לתדר ותהודה\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800438EC-8323-437F-BF85-34E1EDE3412E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="9" xr2:uid="{302F7809-826E-4DEF-8391-6CA50C82BFBF}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="RCL מדידות" sheetId="13" r:id="rId1"/>
@@ -209,19 +208,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -268,7 +267,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{D71BF822-ADE4-47CD-BFD5-084114833570}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -579,23 +578,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D14B6D69-4FC4-4845-86CB-2409EA140A7E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="X4:AJ10"/>
   <sheetViews>
     <sheetView topLeftCell="W1" workbookViewId="0">
       <selection activeCell="AA10" sqref="AA10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="23" width="8.88671875" style="2"/>
+    <col min="1" max="23" width="8.875" style="2"/>
     <col min="24" max="24" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.88671875" style="2"/>
-    <col min="26" max="26" width="9.21875" style="2" customWidth="1"/>
-    <col min="27" max="16384" width="8.88671875" style="2"/>
+    <col min="25" max="25" width="8.875" style="2"/>
+    <col min="26" max="26" width="9.25" style="2" customWidth="1"/>
+    <col min="27" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="4" spans="24:36" x14ac:dyDescent="0.3">
+    <row r="4" spans="24:36" ht="15" x14ac:dyDescent="0.25">
       <c r="X4" s="2" t="s">
         <v>45</v>
       </c>
@@ -615,7 +614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="24:36" x14ac:dyDescent="0.3">
+    <row r="5" spans="24:36" x14ac:dyDescent="0.2">
       <c r="X5" s="2">
         <f>AI8*AG6</f>
         <v>9.0544550000000014E-6</v>
@@ -641,7 +640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="24:36" x14ac:dyDescent="0.3">
+    <row r="6" spans="24:36" x14ac:dyDescent="0.2">
       <c r="AF6" s="2" t="s">
         <v>6</v>
       </c>
@@ -653,7 +652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="24:36" x14ac:dyDescent="0.3">
+    <row r="7" spans="24:36" x14ac:dyDescent="0.2">
       <c r="AI7" s="2">
         <f>4.812*10^3</f>
         <v>4812</v>
@@ -662,7 +661,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="24:36" x14ac:dyDescent="0.3">
+    <row r="8" spans="24:36" x14ac:dyDescent="0.2">
       <c r="AI8" s="2">
         <f>AI5+AI7</f>
         <v>4894.3</v>
@@ -671,7 +670,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="24:36" x14ac:dyDescent="0.3">
+    <row r="10" spans="24:36" x14ac:dyDescent="0.2">
       <c r="AF10" s="2" t="s">
         <v>8</v>
       </c>
@@ -689,16 +688,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87C2F455-B214-4489-82C6-5AE19CEE24B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -712,7 +711,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>10681.415022205296</v>
       </c>
@@ -726,7 +725,7 @@
         <v>0.16329931618554522</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>20106.192982974677</v>
       </c>
@@ -740,7 +739,7 @@
         <v>0.11783701623338079</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>21991.148575128551</v>
       </c>
@@ -754,7 +753,7 @@
         <v>4.5909490055325811E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>22619.46710584651</v>
       </c>
@@ -768,7 +767,7 @@
         <v>3.6478080017711433E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>22745.1308119901</v>
       </c>
@@ -782,7 +781,7 @@
         <v>3.5712387784925304E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>23247.785636564469</v>
       </c>
@@ -796,7 +795,7 @@
         <v>3.8967762466627177E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>25132.741228718343</v>
       </c>
@@ -810,7 +809,7 @@
         <v>9.3053302138452407E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>35814.156250923646</v>
       </c>
@@ -830,16 +829,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EC7C659-EA60-4E10-956A-C41EE8C7247E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -850,7 +849,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1.7</v>
       </c>
@@ -861,7 +860,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2.1</v>
       </c>
@@ -872,7 +871,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2.4</v>
       </c>
@@ -883,7 +882,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2.7</v>
       </c>
@@ -894,7 +893,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2.9</v>
       </c>
@@ -905,7 +904,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3.1</v>
       </c>
@@ -916,7 +915,7 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3.2</v>
       </c>
@@ -927,7 +926,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>3.3</v>
       </c>
@@ -938,7 +937,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3.4</v>
       </c>
@@ -949,7 +948,7 @@
         <v>3.12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3.5</v>
       </c>
@@ -960,7 +959,7 @@
         <v>3.56</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3.56</v>
       </c>
@@ -968,7 +967,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3.58</v>
       </c>
@@ -976,7 +975,7 @@
         <v>3.76</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3.59</v>
       </c>
@@ -984,7 +983,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3.6</v>
       </c>
@@ -995,7 +994,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3.61</v>
       </c>
@@ -1003,7 +1002,7 @@
         <v>3.84</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3.62</v>
       </c>
@@ -1011,7 +1010,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3.64</v>
       </c>
@@ -1019,7 +1018,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3.7</v>
       </c>
@@ -1030,7 +1029,7 @@
         <v>3.72</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3.8</v>
       </c>
@@ -1041,7 +1040,7 @@
         <v>3.32</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3.9</v>
       </c>
@@ -1052,7 +1051,7 @@
         <v>2.92</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>4</v>
       </c>
@@ -1063,7 +1062,7 @@
         <v>2.44</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>4.2</v>
       </c>
@@ -1074,7 +1073,7 @@
         <v>1.84</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>4.4000000000000004</v>
       </c>
@@ -1085,7 +1084,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>4.7</v>
       </c>
@@ -1096,7 +1095,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>5</v>
       </c>
@@ -1107,7 +1106,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>5.3</v>
       </c>
@@ -1118,7 +1117,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>5.7</v>
       </c>
@@ -1129,12 +1128,12 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>9</v>
       </c>
@@ -1142,13 +1141,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D37" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C28">
+  <sortState ref="A2:C28">
     <sortCondition ref="A2:A28"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1156,20 +1155,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DFC0B75-D2CC-4D18-9206-B3571EB1D673}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -1201,7 +1200,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1.7</v>
       </c>
@@ -1240,7 +1239,7 @@
         <v>2.8249061049934764E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2.1</v>
       </c>
@@ -1279,7 +1278,7 @@
         <v>2.8451462901554272E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2.4</v>
       </c>
@@ -1318,7 +1317,7 @@
         <v>2.8777490669701354E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2.7</v>
       </c>
@@ -1357,7 +1356,7 @@
         <v>2.9268576927575021E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2.9</v>
       </c>
@@ -1396,7 +1395,7 @@
         <v>2.9968522223628394E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3.1</v>
       </c>
@@ -1435,7 +1434,7 @@
         <v>3.1036559749999023E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3.2</v>
       </c>
@@ -1474,7 +1473,7 @@
         <v>3.203208483954749E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>3.3</v>
       </c>
@@ -1513,7 +1512,7 @@
         <v>3.3434485003549694E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3.4</v>
       </c>
@@ -1552,7 +1551,7 @@
         <v>3.5156216011369167E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3.5</v>
       </c>
@@ -1591,7 +1590,7 @@
         <v>3.7040141511021207E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3.56</v>
       </c>
@@ -1630,7 +1629,7 @@
         <v>3.7760741925047347E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3.58</v>
       </c>
@@ -1669,7 +1668,7 @@
         <v>3.7943632147700987E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3.59</v>
       </c>
@@ -1708,7 +1707,7 @@
         <v>3.8127587014715734E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3.6</v>
       </c>
@@ -1747,7 +1746,7 @@
         <v>3.8127587014715734E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3.61</v>
       </c>
@@ -1786,7 +1785,7 @@
         <v>3.8312591190678355E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3.62</v>
       </c>
@@ -1825,7 +1824,7 @@
         <v>3.8127587014715734E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3.64</v>
       </c>
@@ -1864,7 +1863,7 @@
         <v>3.8127587014715734E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3.7</v>
       </c>
@@ -1903,7 +1902,7 @@
         <v>3.7760741925047347E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3.8</v>
       </c>
@@ -1942,7 +1941,7 @@
         <v>3.5993918889664226E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3.9</v>
       </c>
@@ -1981,7 +1980,7 @@
         <v>3.4351985107220332E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>4</v>
       </c>
@@ -2020,7 +2019,7 @@
         <v>3.2573019761544756E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>4.2</v>
       </c>
@@ -2059,7 +2058,7 @@
         <v>3.0694730390203166E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>4.4000000000000004</v>
       </c>
@@ -2098,7 +2097,7 @@
         <v>2.9780163783876511E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>4.7</v>
       </c>
@@ -2137,7 +2136,7 @@
         <v>2.8905847643294932E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>5</v>
       </c>
@@ -2176,7 +2175,7 @@
         <v>2.8550180837874188E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>5.3</v>
       </c>
@@ -2215,7 +2214,7 @@
         <v>2.8405885317696021E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>5.7</v>
       </c>
@@ -2261,19 +2260,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E125A2F-187B-4CCF-8148-99C5C233E483}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -2287,7 +2286,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>10681.415022205296</v>
       </c>
@@ -2301,7 +2300,7 @@
         <v>2.8249061049934764E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>13194.689145077131</v>
       </c>
@@ -2315,7 +2314,7 @@
         <v>2.8451462901554272E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>15079.644737231007</v>
       </c>
@@ -2329,7 +2328,7 @@
         <v>2.8777490669701354E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>16964.600329384884</v>
       </c>
@@ -2343,7 +2342,7 @@
         <v>2.9268576927575021E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>18221.237390820799</v>
       </c>
@@ -2357,7 +2356,7 @@
         <v>2.9968522223628394E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>19477.874452256718</v>
       </c>
@@ -2371,7 +2370,7 @@
         <v>3.1036559749999023E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>20106.192982974677</v>
       </c>
@@ -2385,7 +2384,7 @@
         <v>3.203208483954749E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>20734.511513692636</v>
       </c>
@@ -2399,7 +2398,7 @@
         <v>3.3434485003549694E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>21362.830044410592</v>
       </c>
@@ -2413,7 +2412,7 @@
         <v>3.5156216011369167E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>21991.148575128551</v>
       </c>
@@ -2427,7 +2426,7 @@
         <v>3.7040141511021207E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>22368.139693559329</v>
       </c>
@@ -2441,7 +2440,7 @@
         <v>3.7760741925047347E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>22493.80339970292</v>
       </c>
@@ -2455,7 +2454,7 @@
         <v>3.7943632147700987E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>22556.635252774715</v>
       </c>
@@ -2469,7 +2468,7 @@
         <v>3.8127587014715734E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>22619.46710584651</v>
       </c>
@@ -2483,7 +2482,7 @@
         <v>3.8127587014715734E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>22682.298958918305</v>
       </c>
@@ -2497,7 +2496,7 @@
         <v>3.8312591190678355E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>22745.1308119901</v>
       </c>
@@ -2511,7 +2510,7 @@
         <v>3.8127587014715734E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>22870.794518133695</v>
       </c>
@@ -2525,7 +2524,7 @@
         <v>3.8127587014715734E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>23247.785636564469</v>
       </c>
@@ -2539,7 +2538,7 @@
         <v>3.7760741925047347E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>23876.104167282429</v>
       </c>
@@ -2553,7 +2552,7 @@
         <v>3.5993918889664226E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>24504.422698000388</v>
       </c>
@@ -2567,7 +2566,7 @@
         <v>3.4351985107220332E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>25132.741228718343</v>
       </c>
@@ -2581,7 +2580,7 @@
         <v>3.2573019761544756E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>26389.378290154262</v>
       </c>
@@ -2595,7 +2594,7 @@
         <v>3.0694730390203166E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>27646.015351590184</v>
       </c>
@@ -2609,7 +2608,7 @@
         <v>2.9780163783876511E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>29530.970943744054</v>
       </c>
@@ -2623,7 +2622,7 @@
         <v>2.8905847643294932E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>31415.926535897932</v>
       </c>
@@ -2637,7 +2636,7 @@
         <v>2.8550180837874188E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>33300.882128051802</v>
       </c>
@@ -2651,7 +2650,7 @@
         <v>2.8405885317696021E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>35814.156250923646</v>
       </c>
@@ -2671,16 +2670,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B82B89C-9999-42C7-87E6-1991117A20CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -2688,7 +2687,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1.7</v>
       </c>
@@ -2696,7 +2695,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2.1</v>
       </c>
@@ -2704,7 +2703,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2.4</v>
       </c>
@@ -2712,7 +2711,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2.7</v>
       </c>
@@ -2720,7 +2719,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2.9</v>
       </c>
@@ -2728,7 +2727,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3.1</v>
       </c>
@@ -2736,7 +2735,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3.2</v>
       </c>
@@ -2744,7 +2743,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>3.3</v>
       </c>
@@ -2752,7 +2751,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3.4</v>
       </c>
@@ -2760,7 +2759,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3.5</v>
       </c>
@@ -2768,7 +2767,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3.56</v>
       </c>
@@ -2776,7 +2775,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3.58</v>
       </c>
@@ -2784,7 +2783,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3.59</v>
       </c>
@@ -2792,7 +2791,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3.6</v>
       </c>
@@ -2800,7 +2799,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3.61</v>
       </c>
@@ -2808,7 +2807,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3.62</v>
       </c>
@@ -2816,7 +2815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3.64</v>
       </c>
@@ -2824,7 +2823,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3.7</v>
       </c>
@@ -2832,7 +2831,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3.8</v>
       </c>
@@ -2840,7 +2839,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3.9</v>
       </c>
@@ -2848,7 +2847,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>4</v>
       </c>
@@ -2856,7 +2855,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>4.2</v>
       </c>
@@ -2864,7 +2863,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>4.4000000000000004</v>
       </c>
@@ -2872,7 +2871,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>4.7</v>
       </c>
@@ -2880,7 +2879,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>5</v>
       </c>
@@ -2888,7 +2887,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>5.3</v>
       </c>
@@ -2896,7 +2895,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>5.7</v>
       </c>
@@ -2904,12 +2903,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>19</v>
       </c>
@@ -2920,20 +2919,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F89B044B-855C-4DAA-BF0B-EA830A5C624F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -2959,7 +2958,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1.7</v>
       </c>
@@ -2991,7 +2990,7 @@
         <v>3.7001507030398864E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2.1</v>
       </c>
@@ -3023,7 +3022,7 @@
         <v>4.5707743978712521E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2.4</v>
       </c>
@@ -3055,7 +3054,7 @@
         <v>5.2237421689951928E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2.7</v>
       </c>
@@ -3087,7 +3086,7 @@
         <v>5.8767099401192749E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2.9</v>
       </c>
@@ -3119,7 +3118,7 @@
         <v>6.3120217875353825E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3.1</v>
       </c>
@@ -3151,7 +3150,7 @@
         <v>6.747333634951498E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3.2</v>
       </c>
@@ -3183,7 +3182,7 @@
         <v>6.9649895586595227E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>3.3</v>
       </c>
@@ -3215,7 +3214,7 @@
         <v>7.1826454823675865E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3.4</v>
       </c>
@@ -3247,7 +3246,7 @@
         <v>7.4003014060756581E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3.5</v>
       </c>
@@ -3279,7 +3278,7 @@
         <v>7.6179573297837297E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3.56</v>
       </c>
@@ -3311,7 +3310,7 @@
         <v>7.7485508840085832E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3.58</v>
       </c>
@@ -3343,7 +3342,7 @@
         <v>7.7920820687502014E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3.59</v>
       </c>
@@ -3375,7 +3374,7 @@
         <v>7.8138476611210109E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3.6</v>
       </c>
@@ -3407,7 +3406,7 @@
         <v>7.8356132534918212E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3.61</v>
       </c>
@@ -3439,7 +3438,7 @@
         <v>7.8573788458626316E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3.62</v>
       </c>
@@ -3471,7 +3470,7 @@
         <v>7.8791444382334402E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3.64</v>
       </c>
@@ -3503,7 +3502,7 @@
         <v>7.9226756229750627E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3.7</v>
       </c>
@@ -3535,7 +3534,7 @@
         <v>8.0532691771999319E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3.8</v>
       </c>
@@ -3567,7 +3566,7 @@
         <v>8.2709251009080564E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3.9</v>
       </c>
@@ -3599,7 +3598,7 @@
         <v>8.4885810246161826E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>4</v>
       </c>
@@ -3631,7 +3630,7 @@
         <v>8.7062369483243071E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>4.2</v>
       </c>
@@ -3663,7 +3662,7 @@
         <v>9.1415487957405353E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>4.4000000000000004</v>
       </c>
@@ -3695,7 +3694,7 @@
         <v>9.5768606431567548E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>4.7</v>
       </c>
@@ -3727,7 +3726,7 @@
         <v>1.0229828414281075E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>5</v>
       </c>
@@ -3759,7 +3758,7 @@
         <v>1.0882796185405387E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>5.3</v>
       </c>
@@ -3791,7 +3790,7 @@
         <v>1.1535763956529698E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>5.7</v>
       </c>
@@ -3830,16 +3829,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A1C7DEC-5114-4333-81D1-A7DCE4A57D7B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -3853,7 +3852,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>10681.415022205296</v>
       </c>
@@ -3867,7 +3866,7 @@
         <v>3.7001507030398864E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>13194.689145077131</v>
       </c>
@@ -3881,7 +3880,7 @@
         <v>4.5707743978712521E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>15079.644737231007</v>
       </c>
@@ -3895,7 +3894,7 @@
         <v>5.2237421689951928E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>16964.600329384884</v>
       </c>
@@ -3909,7 +3908,7 @@
         <v>5.8767099401192749E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>18221.237390820799</v>
       </c>
@@ -3923,7 +3922,7 @@
         <v>6.3120217875353825E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>19477.874452256718</v>
       </c>
@@ -3937,7 +3936,7 @@
         <v>6.747333634951498E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>20106.192982974677</v>
       </c>
@@ -3951,7 +3950,7 @@
         <v>6.9649895586595227E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>20734.511513692636</v>
       </c>
@@ -3965,7 +3964,7 @@
         <v>7.1826454823675865E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>21362.830044410592</v>
       </c>
@@ -3979,7 +3978,7 @@
         <v>7.4003014060756581E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>21991.148575128551</v>
       </c>
@@ -3993,7 +3992,7 @@
         <v>7.6179573297837297E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>22368.139693559329</v>
       </c>
@@ -4007,7 +4006,7 @@
         <v>7.7485508840085832E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>22493.80339970292</v>
       </c>
@@ -4021,7 +4020,7 @@
         <v>7.7920820687502014E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>22556.635252774715</v>
       </c>
@@ -4035,7 +4034,7 @@
         <v>7.8138476611210109E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>22619.46710584651</v>
       </c>
@@ -4049,7 +4048,7 @@
         <v>7.8356132534918212E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>22682.298958918305</v>
       </c>
@@ -4063,7 +4062,7 @@
         <v>7.8573788458626316E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>22745.1308119901</v>
       </c>
@@ -4077,7 +4076,7 @@
         <v>7.8791444382334402E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>22870.794518133695</v>
       </c>
@@ -4091,7 +4090,7 @@
         <v>7.9226756229750627E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>23247.785636564469</v>
       </c>
@@ -4105,7 +4104,7 @@
         <v>8.0532691771999319E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>23876.104167282429</v>
       </c>
@@ -4119,7 +4118,7 @@
         <v>8.2709251009080564E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>24504.422698000388</v>
       </c>
@@ -4133,7 +4132,7 @@
         <v>8.4885810246161826E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>25132.741228718343</v>
       </c>
@@ -4147,7 +4146,7 @@
         <v>8.7062369483243071E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>26389.378290154262</v>
       </c>
@@ -4161,7 +4160,7 @@
         <v>9.1415487957405353E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>27646.015351590184</v>
       </c>
@@ -4175,7 +4174,7 @@
         <v>9.5768606431567548E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>29530.970943744054</v>
       </c>
@@ -4189,7 +4188,7 @@
         <v>1.0229828414281075E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>31415.926535897932</v>
       </c>
@@ -4203,7 +4202,7 @@
         <v>1.0882796185405387E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>33300.882128051802</v>
       </c>
@@ -4217,7 +4216,7 @@
         <v>1.1535763956529698E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>35814.156250923646</v>
       </c>
@@ -4237,16 +4236,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D0D33E-FD0C-46AE-AD34-04E877D3A333}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -4260,7 +4259,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1.7</v>
       </c>
@@ -4271,12 +4270,12 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2.1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2.4</v>
       </c>
@@ -4284,22 +4283,22 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2.7</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2.9</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3.1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3.2</v>
       </c>
@@ -4310,17 +4309,17 @@
         <v>1.76</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>3.3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3.4</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3.5</v>
       </c>
@@ -4331,22 +4330,22 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3.56</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3.58</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3.59</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3.6</v>
       </c>
@@ -4357,12 +4356,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3.61</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3.62</v>
       </c>
@@ -4373,12 +4372,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3.64</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3.7</v>
       </c>
@@ -4389,17 +4388,17 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3.8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3.9</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>4</v>
       </c>
@@ -4410,32 +4409,32 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>4.2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>4.7</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>5.3</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>5.7</v>
       </c>
@@ -4452,19 +4451,19 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1DE4F50-1AD2-49CA-9FB6-F1CF168A4AD7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -4496,7 +4495,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1.7</v>
       </c>
@@ -4535,7 +4534,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3.2</v>
       </c>
@@ -4574,7 +4573,7 @@
         <v>0.11783701623338079</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3.5</v>
       </c>
@@ -4609,11 +4608,11 @@
         <v>-0.41642589737418523</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L3:L9" si="6">SQRT(((E4/B4)^2+((D4*C4)/(B4^2))^2)/(1-(F4)^2))</f>
+        <f t="shared" ref="L4:L9" si="6">SQRT(((E4/B4)^2+((D4*C4)/(B4^2))^2)/(1-(F4)^2))</f>
         <v>4.5909490055325811E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3.6</v>
       </c>
@@ -4652,7 +4651,7 @@
         <v>3.6478080017711433E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3.62</v>
       </c>
@@ -4691,7 +4690,7 @@
         <v>3.5712387784925304E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3.7</v>
       </c>
@@ -4730,7 +4729,7 @@
         <v>3.8967762466627177E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
@@ -4769,7 +4768,7 @@
         <v>9.3053302138452407E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5.7</v>
       </c>

--- a/היענות לתדר ותהודה/היענות לתדר ותהודה - אקסל.xlsx
+++ b/היענות לתדר ותהודה/היענות לתדר ותהודה - אקסל.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
     <sheet name="RCL מדידות" sheetId="13" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="שגיאות אליפסה" sheetId="10" r:id="rId9"/>
     <sheet name="eddington elipse phi" sheetId="11" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
   <si>
     <t>מדידות</t>
   </si>
@@ -204,23 +204,34 @@
   <si>
     <t>a[3]</t>
   </si>
+  <si>
+    <t>שגיאות</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -258,12 +269,13 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -579,22 +591,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="X4:AJ10"/>
+  <dimension ref="X4:AJ13"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AA10" sqref="AA10"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AH13" sqref="AH13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="23" width="8.875" style="2"/>
+    <col min="1" max="23" width="8.88671875" style="2"/>
     <col min="24" max="24" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.875" style="2"/>
-    <col min="26" max="26" width="9.25" style="2" customWidth="1"/>
-    <col min="27" max="16384" width="8.875" style="2"/>
+    <col min="25" max="25" width="8.88671875" style="2"/>
+    <col min="26" max="26" width="9.21875" style="2" customWidth="1"/>
+    <col min="27" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="4" spans="24:36" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="24:36" x14ac:dyDescent="0.3">
       <c r="X4" s="2" t="s">
         <v>45</v>
       </c>
@@ -614,7 +626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="24:36" x14ac:dyDescent="0.2">
+    <row r="5" spans="24:36" x14ac:dyDescent="0.3">
       <c r="X5" s="2">
         <f>AI8*AG6</f>
         <v>9.0544550000000014E-6</v>
@@ -640,7 +652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="24:36" x14ac:dyDescent="0.2">
+    <row r="6" spans="24:36" x14ac:dyDescent="0.3">
       <c r="AF6" s="2" t="s">
         <v>6</v>
       </c>
@@ -652,7 +664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="24:36" x14ac:dyDescent="0.2">
+    <row r="7" spans="24:36" x14ac:dyDescent="0.3">
       <c r="AI7" s="2">
         <f>4.812*10^3</f>
         <v>4812</v>
@@ -661,7 +673,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="24:36" x14ac:dyDescent="0.2">
+    <row r="8" spans="24:36" x14ac:dyDescent="0.3">
       <c r="AI8" s="2">
         <f>AI5+AI7</f>
         <v>4894.3</v>
@@ -670,7 +682,20 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="24:36" x14ac:dyDescent="0.2">
+    <row r="9" spans="24:36" x14ac:dyDescent="0.3">
+      <c r="AG9" s="2">
+        <f>AG6*0.01+5*10^-11</f>
+        <v>6.8499999999999996E-11</v>
+      </c>
+      <c r="AH9" s="2">
+        <f>AH5*0.01+0.0005</f>
+        <v>8.9189999999999998E-3</v>
+      </c>
+      <c r="AJ9" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="24:36" x14ac:dyDescent="0.3">
       <c r="AF10" s="2" t="s">
         <v>8</v>
       </c>
@@ -679,6 +704,22 @@
       </c>
       <c r="AJ10" s="2" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="24:36" x14ac:dyDescent="0.3">
+      <c r="AE12" s="2">
+        <f>1/SQRT(AH5*AG6)</f>
+        <v>25338.673824556088</v>
+      </c>
+      <c r="AH12" s="2">
+        <f>AE13/AE12*100</f>
+        <v>1.9256371261775307</v>
+      </c>
+    </row>
+    <row r="13" spans="24:36" x14ac:dyDescent="0.3">
+      <c r="AE13" s="3">
+        <f>SQRT((AH9/(2*(AH5^1.5)*SQRT(AG6)))^2+(AG9/(2*(AG6^1.5)*SQRT(AH5)))^2)</f>
+        <v>487.93091044668006</v>
       </c>
     </row>
   </sheetData>
@@ -695,9 +736,9 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -711,7 +752,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10681.415022205296</v>
       </c>
@@ -725,7 +766,7 @@
         <v>0.16329931618554522</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>20106.192982974677</v>
       </c>
@@ -739,7 +780,7 @@
         <v>0.11783701623338079</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>21991.148575128551</v>
       </c>
@@ -753,7 +794,7 @@
         <v>4.5909490055325811E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>22619.46710584651</v>
       </c>
@@ -767,7 +808,7 @@
         <v>3.6478080017711433E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>22745.1308119901</v>
       </c>
@@ -781,7 +822,7 @@
         <v>3.5712387784925304E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>23247.785636564469</v>
       </c>
@@ -795,7 +836,7 @@
         <v>3.8967762466627177E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>25132.741228718343</v>
       </c>
@@ -809,7 +850,7 @@
         <v>9.3053302138452407E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>35814.156250923646</v>
       </c>
@@ -836,9 +877,9 @@
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -849,7 +890,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1.7</v>
       </c>
@@ -860,7 +901,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2.1</v>
       </c>
@@ -871,7 +912,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2.4</v>
       </c>
@@ -882,7 +923,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2.7</v>
       </c>
@@ -893,7 +934,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2.9</v>
       </c>
@@ -904,7 +945,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3.1</v>
       </c>
@@ -915,7 +956,7 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3.2</v>
       </c>
@@ -926,7 +967,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3.3</v>
       </c>
@@ -937,7 +978,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3.4</v>
       </c>
@@ -948,7 +989,7 @@
         <v>3.12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>3.5</v>
       </c>
@@ -959,7 +1000,7 @@
         <v>3.56</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3.56</v>
       </c>
@@ -967,7 +1008,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>3.58</v>
       </c>
@@ -975,7 +1016,7 @@
         <v>3.76</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3.59</v>
       </c>
@@ -983,7 +1024,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>3.6</v>
       </c>
@@ -994,7 +1035,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3.61</v>
       </c>
@@ -1002,7 +1043,7 @@
         <v>3.84</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>3.62</v>
       </c>
@@ -1010,7 +1051,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>3.64</v>
       </c>
@@ -1018,7 +1059,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>3.7</v>
       </c>
@@ -1029,7 +1070,7 @@
         <v>3.72</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>3.8</v>
       </c>
@@ -1040,7 +1081,7 @@
         <v>3.32</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>3.9</v>
       </c>
@@ -1051,7 +1092,7 @@
         <v>2.92</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>4</v>
       </c>
@@ -1062,7 +1103,7 @@
         <v>2.44</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>4.2</v>
       </c>
@@ -1073,7 +1114,7 @@
         <v>1.84</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>4.4000000000000004</v>
       </c>
@@ -1084,7 +1125,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>4.7</v>
       </c>
@@ -1095,7 +1136,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>5</v>
       </c>
@@ -1106,7 +1147,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>5.3</v>
       </c>
@@ -1117,7 +1158,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>5.7</v>
       </c>
@@ -1128,12 +1169,12 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
         <v>9</v>
       </c>
@@ -1141,7 +1182,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D37" t="s">
         <v>15</v>
       </c>
@@ -1162,13 +1203,13 @@
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -1200,7 +1241,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1.7</v>
       </c>
@@ -1239,7 +1280,7 @@
         <v>2.8249061049934764E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2.1</v>
       </c>
@@ -1278,7 +1319,7 @@
         <v>2.8451462901554272E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2.4</v>
       </c>
@@ -1317,7 +1358,7 @@
         <v>2.8777490669701354E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2.7</v>
       </c>
@@ -1356,7 +1397,7 @@
         <v>2.9268576927575021E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2.9</v>
       </c>
@@ -1395,7 +1436,7 @@
         <v>2.9968522223628394E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3.1</v>
       </c>
@@ -1434,7 +1475,7 @@
         <v>3.1036559749999023E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3.2</v>
       </c>
@@ -1473,7 +1514,7 @@
         <v>3.203208483954749E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3.3</v>
       </c>
@@ -1512,7 +1553,7 @@
         <v>3.3434485003549694E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3.4</v>
       </c>
@@ -1551,7 +1592,7 @@
         <v>3.5156216011369167E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>3.5</v>
       </c>
@@ -1590,7 +1631,7 @@
         <v>3.7040141511021207E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3.56</v>
       </c>
@@ -1629,7 +1670,7 @@
         <v>3.7760741925047347E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>3.58</v>
       </c>
@@ -1668,7 +1709,7 @@
         <v>3.7943632147700987E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3.59</v>
       </c>
@@ -1707,7 +1748,7 @@
         <v>3.8127587014715734E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>3.6</v>
       </c>
@@ -1746,7 +1787,7 @@
         <v>3.8127587014715734E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3.61</v>
       </c>
@@ -1785,7 +1826,7 @@
         <v>3.8312591190678355E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>3.62</v>
       </c>
@@ -1824,7 +1865,7 @@
         <v>3.8127587014715734E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>3.64</v>
       </c>
@@ -1863,7 +1904,7 @@
         <v>3.8127587014715734E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>3.7</v>
       </c>
@@ -1902,7 +1943,7 @@
         <v>3.7760741925047347E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>3.8</v>
       </c>
@@ -1941,7 +1982,7 @@
         <v>3.5993918889664226E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>3.9</v>
       </c>
@@ -1980,7 +2021,7 @@
         <v>3.4351985107220332E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>4</v>
       </c>
@@ -2019,7 +2060,7 @@
         <v>3.2573019761544756E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>4.2</v>
       </c>
@@ -2058,7 +2099,7 @@
         <v>3.0694730390203166E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>4.4000000000000004</v>
       </c>
@@ -2097,7 +2138,7 @@
         <v>2.9780163783876511E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>4.7</v>
       </c>
@@ -2136,7 +2177,7 @@
         <v>2.8905847643294932E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>5</v>
       </c>
@@ -2175,7 +2216,7 @@
         <v>2.8550180837874188E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>5.3</v>
       </c>
@@ -2214,7 +2255,7 @@
         <v>2.8405885317696021E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>5.7</v>
       </c>
@@ -2267,12 +2308,12 @@
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -2286,7 +2327,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10681.415022205296</v>
       </c>
@@ -2300,7 +2341,7 @@
         <v>2.8249061049934764E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>13194.689145077131</v>
       </c>
@@ -2314,7 +2355,7 @@
         <v>2.8451462901554272E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>15079.644737231007</v>
       </c>
@@ -2328,7 +2369,7 @@
         <v>2.8777490669701354E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>16964.600329384884</v>
       </c>
@@ -2342,7 +2383,7 @@
         <v>2.9268576927575021E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>18221.237390820799</v>
       </c>
@@ -2356,7 +2397,7 @@
         <v>2.9968522223628394E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>19477.874452256718</v>
       </c>
@@ -2370,7 +2411,7 @@
         <v>3.1036559749999023E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>20106.192982974677</v>
       </c>
@@ -2384,7 +2425,7 @@
         <v>3.203208483954749E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>20734.511513692636</v>
       </c>
@@ -2398,7 +2439,7 @@
         <v>3.3434485003549694E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>21362.830044410592</v>
       </c>
@@ -2412,7 +2453,7 @@
         <v>3.5156216011369167E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21991.148575128551</v>
       </c>
@@ -2426,7 +2467,7 @@
         <v>3.7040141511021207E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22368.139693559329</v>
       </c>
@@ -2440,7 +2481,7 @@
         <v>3.7760741925047347E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>22493.80339970292</v>
       </c>
@@ -2454,7 +2495,7 @@
         <v>3.7943632147700987E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>22556.635252774715</v>
       </c>
@@ -2468,7 +2509,7 @@
         <v>3.8127587014715734E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>22619.46710584651</v>
       </c>
@@ -2482,7 +2523,7 @@
         <v>3.8127587014715734E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>22682.298958918305</v>
       </c>
@@ -2496,7 +2537,7 @@
         <v>3.8312591190678355E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>22745.1308119901</v>
       </c>
@@ -2510,7 +2551,7 @@
         <v>3.8127587014715734E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>22870.794518133695</v>
       </c>
@@ -2524,7 +2565,7 @@
         <v>3.8127587014715734E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>23247.785636564469</v>
       </c>
@@ -2538,7 +2579,7 @@
         <v>3.7760741925047347E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>23876.104167282429</v>
       </c>
@@ -2552,7 +2593,7 @@
         <v>3.5993918889664226E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>24504.422698000388</v>
       </c>
@@ -2566,7 +2607,7 @@
         <v>3.4351985107220332E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>25132.741228718343</v>
       </c>
@@ -2580,7 +2621,7 @@
         <v>3.2573019761544756E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>26389.378290154262</v>
       </c>
@@ -2594,7 +2635,7 @@
         <v>3.0694730390203166E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>27646.015351590184</v>
       </c>
@@ -2608,7 +2649,7 @@
         <v>2.9780163783876511E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>29530.970943744054</v>
       </c>
@@ -2622,7 +2663,7 @@
         <v>2.8905847643294932E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>31415.926535897932</v>
       </c>
@@ -2636,7 +2677,7 @@
         <v>2.8550180837874188E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>33300.882128051802</v>
       </c>
@@ -2650,7 +2691,7 @@
         <v>2.8405885317696021E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>35814.156250923646</v>
       </c>
@@ -2677,9 +2718,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -2687,7 +2728,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1.7</v>
       </c>
@@ -2695,7 +2736,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2.1</v>
       </c>
@@ -2703,7 +2744,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2.4</v>
       </c>
@@ -2711,7 +2752,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2.7</v>
       </c>
@@ -2719,7 +2760,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2.9</v>
       </c>
@@ -2727,7 +2768,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3.1</v>
       </c>
@@ -2735,7 +2776,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3.2</v>
       </c>
@@ -2743,7 +2784,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3.3</v>
       </c>
@@ -2751,7 +2792,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3.4</v>
       </c>
@@ -2759,7 +2800,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>3.5</v>
       </c>
@@ -2767,7 +2808,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3.56</v>
       </c>
@@ -2775,7 +2816,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>3.58</v>
       </c>
@@ -2783,7 +2824,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3.59</v>
       </c>
@@ -2791,7 +2832,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>3.6</v>
       </c>
@@ -2799,7 +2840,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3.61</v>
       </c>
@@ -2807,7 +2848,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>3.62</v>
       </c>
@@ -2815,7 +2856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>3.64</v>
       </c>
@@ -2823,7 +2864,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>3.7</v>
       </c>
@@ -2831,7 +2872,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>3.8</v>
       </c>
@@ -2839,7 +2880,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>3.9</v>
       </c>
@@ -2847,7 +2888,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>4</v>
       </c>
@@ -2855,7 +2896,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>4.2</v>
       </c>
@@ -2863,7 +2904,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>4.4000000000000004</v>
       </c>
@@ -2871,7 +2912,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>4.7</v>
       </c>
@@ -2879,7 +2920,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>5</v>
       </c>
@@ -2887,7 +2928,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>5.3</v>
       </c>
@@ -2895,7 +2936,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>5.7</v>
       </c>
@@ -2903,12 +2944,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
         <v>19</v>
       </c>
@@ -2926,13 +2967,13 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -2958,7 +2999,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1.7</v>
       </c>
@@ -2990,7 +3031,7 @@
         <v>3.7001507030398864E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2.1</v>
       </c>
@@ -3022,7 +3063,7 @@
         <v>4.5707743978712521E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2.4</v>
       </c>
@@ -3054,7 +3095,7 @@
         <v>5.2237421689951928E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2.7</v>
       </c>
@@ -3086,7 +3127,7 @@
         <v>5.8767099401192749E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2.9</v>
       </c>
@@ -3118,7 +3159,7 @@
         <v>6.3120217875353825E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3.1</v>
       </c>
@@ -3150,7 +3191,7 @@
         <v>6.747333634951498E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3.2</v>
       </c>
@@ -3182,7 +3223,7 @@
         <v>6.9649895586595227E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3.3</v>
       </c>
@@ -3214,7 +3255,7 @@
         <v>7.1826454823675865E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3.4</v>
       </c>
@@ -3246,7 +3287,7 @@
         <v>7.4003014060756581E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>3.5</v>
       </c>
@@ -3278,7 +3319,7 @@
         <v>7.6179573297837297E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3.56</v>
       </c>
@@ -3310,7 +3351,7 @@
         <v>7.7485508840085832E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>3.58</v>
       </c>
@@ -3342,7 +3383,7 @@
         <v>7.7920820687502014E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3.59</v>
       </c>
@@ -3374,7 +3415,7 @@
         <v>7.8138476611210109E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>3.6</v>
       </c>
@@ -3406,7 +3447,7 @@
         <v>7.8356132534918212E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3.61</v>
       </c>
@@ -3438,7 +3479,7 @@
         <v>7.8573788458626316E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>3.62</v>
       </c>
@@ -3470,7 +3511,7 @@
         <v>7.8791444382334402E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>3.64</v>
       </c>
@@ -3502,7 +3543,7 @@
         <v>7.9226756229750627E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>3.7</v>
       </c>
@@ -3534,7 +3575,7 @@
         <v>8.0532691771999319E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>3.8</v>
       </c>
@@ -3566,7 +3607,7 @@
         <v>8.2709251009080564E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>3.9</v>
       </c>
@@ -3598,7 +3639,7 @@
         <v>8.4885810246161826E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>4</v>
       </c>
@@ -3630,7 +3671,7 @@
         <v>8.7062369483243071E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>4.2</v>
       </c>
@@ -3662,7 +3703,7 @@
         <v>9.1415487957405353E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>4.4000000000000004</v>
       </c>
@@ -3694,7 +3735,7 @@
         <v>9.5768606431567548E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>4.7</v>
       </c>
@@ -3726,7 +3767,7 @@
         <v>1.0229828414281075E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>5</v>
       </c>
@@ -3758,7 +3799,7 @@
         <v>1.0882796185405387E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>5.3</v>
       </c>
@@ -3790,7 +3831,7 @@
         <v>1.1535763956529698E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>5.7</v>
       </c>
@@ -3836,9 +3877,9 @@
       <selection activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -3852,7 +3893,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10681.415022205296</v>
       </c>
@@ -3866,7 +3907,7 @@
         <v>3.7001507030398864E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>13194.689145077131</v>
       </c>
@@ -3880,7 +3921,7 @@
         <v>4.5707743978712521E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>15079.644737231007</v>
       </c>
@@ -3894,7 +3935,7 @@
         <v>5.2237421689951928E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>16964.600329384884</v>
       </c>
@@ -3908,7 +3949,7 @@
         <v>5.8767099401192749E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>18221.237390820799</v>
       </c>
@@ -3922,7 +3963,7 @@
         <v>6.3120217875353825E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>19477.874452256718</v>
       </c>
@@ -3936,7 +3977,7 @@
         <v>6.747333634951498E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>20106.192982974677</v>
       </c>
@@ -3950,7 +3991,7 @@
         <v>6.9649895586595227E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>20734.511513692636</v>
       </c>
@@ -3964,7 +4005,7 @@
         <v>7.1826454823675865E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>21362.830044410592</v>
       </c>
@@ -3978,7 +4019,7 @@
         <v>7.4003014060756581E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>21991.148575128551</v>
       </c>
@@ -3992,7 +4033,7 @@
         <v>7.6179573297837297E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>22368.139693559329</v>
       </c>
@@ -4006,7 +4047,7 @@
         <v>7.7485508840085832E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>22493.80339970292</v>
       </c>
@@ -4020,7 +4061,7 @@
         <v>7.7920820687502014E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>22556.635252774715</v>
       </c>
@@ -4034,7 +4075,7 @@
         <v>7.8138476611210109E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>22619.46710584651</v>
       </c>
@@ -4048,7 +4089,7 @@
         <v>7.8356132534918212E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>22682.298958918305</v>
       </c>
@@ -4062,7 +4103,7 @@
         <v>7.8573788458626316E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>22745.1308119901</v>
       </c>
@@ -4076,7 +4117,7 @@
         <v>7.8791444382334402E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>22870.794518133695</v>
       </c>
@@ -4090,7 +4131,7 @@
         <v>7.9226756229750627E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>23247.785636564469</v>
       </c>
@@ -4104,7 +4145,7 @@
         <v>8.0532691771999319E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>23876.104167282429</v>
       </c>
@@ -4118,7 +4159,7 @@
         <v>8.2709251009080564E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>24504.422698000388</v>
       </c>
@@ -4132,7 +4173,7 @@
         <v>8.4885810246161826E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>25132.741228718343</v>
       </c>
@@ -4146,7 +4187,7 @@
         <v>8.7062369483243071E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>26389.378290154262</v>
       </c>
@@ -4160,7 +4201,7 @@
         <v>9.1415487957405353E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>27646.015351590184</v>
       </c>
@@ -4174,7 +4215,7 @@
         <v>9.5768606431567548E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>29530.970943744054</v>
       </c>
@@ -4188,7 +4229,7 @@
         <v>1.0229828414281075E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>31415.926535897932</v>
       </c>
@@ -4202,7 +4243,7 @@
         <v>1.0882796185405387E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>33300.882128051802</v>
       </c>
@@ -4216,7 +4257,7 @@
         <v>1.1535763956529698E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>35814.156250923646</v>
       </c>
@@ -4243,9 +4284,9 @@
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -4259,7 +4300,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1.7</v>
       </c>
@@ -4270,12 +4311,12 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2.1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2.4</v>
       </c>
@@ -4283,22 +4324,22 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2.7</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2.9</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3.1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3.2</v>
       </c>
@@ -4309,17 +4350,17 @@
         <v>1.76</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3.3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3.4</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>3.5</v>
       </c>
@@ -4330,22 +4371,22 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3.56</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>3.58</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3.59</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>3.6</v>
       </c>
@@ -4356,12 +4397,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3.61</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>3.62</v>
       </c>
@@ -4372,12 +4413,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>3.64</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>3.7</v>
       </c>
@@ -4388,17 +4429,17 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>3.8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>3.9</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>4</v>
       </c>
@@ -4409,32 +4450,32 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>4.2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>4.7</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>5.3</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>5.7</v>
       </c>
@@ -4454,16 +4495,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -4495,7 +4536,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1.7</v>
       </c>
@@ -4534,7 +4575,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3.2</v>
       </c>
@@ -4573,7 +4614,7 @@
         <v>0.11783701623338079</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3.5</v>
       </c>
@@ -4612,7 +4653,7 @@
         <v>4.5909490055325811E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3.6</v>
       </c>
@@ -4651,7 +4692,7 @@
         <v>3.6478080017711433E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3.62</v>
       </c>
@@ -4690,7 +4731,7 @@
         <v>3.5712387784925304E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3.7</v>
       </c>
@@ -4729,7 +4770,7 @@
         <v>3.8967762466627177E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4</v>
       </c>
@@ -4768,7 +4809,7 @@
         <v>9.3053302138452407E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>5.7</v>
       </c>

--- a/היענות לתדר ותהודה/היענות לתדר ותהודה - אקסל.xlsx
+++ b/היענות לתדר ותהודה/היענות לתדר ותהודה - אקסל.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\laba\היענות לתדר ותהודה\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\מעבדה 2 א\laba\היענות לתדר ותהודה\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5504C14D-3C91-4308-A98C-0D568C7836C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RCL מדידות" sheetId="13" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <sheet name="שגיאות אליפסה" sheetId="10" r:id="rId9"/>
     <sheet name="eddington elipse phi" sheetId="11" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="49">
   <si>
     <t>מדידות</t>
   </si>
@@ -166,9 +167,6 @@
     <t>dB</t>
   </si>
   <si>
-    <t>a[2]</t>
-  </si>
-  <si>
     <t>כולל</t>
   </si>
   <si>
@@ -202,22 +200,39 @@
     </r>
   </si>
   <si>
-    <t>a[3]</t>
+    <t>שגיאות</t>
   </si>
   <si>
-    <t>שגיאות</t>
+    <t>a[0]</t>
+  </si>
+  <si>
+    <t>a[1]</t>
+  </si>
+  <si>
+    <t>da[0]</t>
+  </si>
+  <si>
+    <t>da[1]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="177"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -269,17 +284,18 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -590,37 +606,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="X4:AJ13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AH13" sqref="AH13"/>
+      <selection activeCell="AC17" sqref="AC17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="23" width="8.88671875" style="2"/>
     <col min="24" max="24" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.88671875" style="2"/>
+    <col min="25" max="25" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="9.21875" style="2" customWidth="1"/>
-    <col min="27" max="16384" width="8.88671875" style="2"/>
+    <col min="27" max="27" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="4" spans="24:36" x14ac:dyDescent="0.3">
-      <c r="X4" s="2" t="s">
+      <c r="X4" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="Y4" s="2" t="s">
-        <v>40</v>
+      <c r="Y4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA4" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="AG4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AH4" s="2" t="s">
+      <c r="AI4" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="AI4" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="AJ4" s="2" t="s">
         <v>0</v>
@@ -628,12 +651,20 @@
     </row>
     <row r="5" spans="24:36" x14ac:dyDescent="0.3">
       <c r="X5" s="2">
-        <f>AI8*AG6</f>
-        <v>9.0544550000000014E-6</v>
+        <f>0.000242619</f>
+        <v>2.4261899999999999E-4</v>
       </c>
       <c r="Y5" s="2">
-        <f>AH5/AI8</f>
-        <v>1.7201642727254153E-4</v>
+        <f>0.00000785</f>
+        <v>7.8499999999999994E-6</v>
+      </c>
+      <c r="Z5" s="4">
+        <f>0.000009321</f>
+        <v>9.3209999999999994E-6</v>
+      </c>
+      <c r="AA5" s="2">
+        <f>0.0000002889</f>
+        <v>2.889E-7</v>
       </c>
       <c r="AE5" s="2" t="s">
         <v>5</v>
@@ -674,15 +705,23 @@
       </c>
     </row>
     <row r="8" spans="24:36" x14ac:dyDescent="0.3">
+      <c r="X8" s="2">
+        <f>SQRT((Z5/(2*(X5^1.5)*SQRT(Y5)))^2+(AA5/(2*(Y5^1.5)*SQRT(X5)))^2)</f>
+        <v>609.53119036713053</v>
+      </c>
       <c r="AI8" s="2">
         <f>AI5+AI7</f>
         <v>4894.3</v>
       </c>
       <c r="AJ8" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="24:36" x14ac:dyDescent="0.3">
+      <c r="X9" s="2">
+        <f>1/SQRT(X5*Y5)</f>
+        <v>22914.098067141014</v>
+      </c>
       <c r="AG9" s="2">
         <f>AG6*0.01+5*10^-11</f>
         <v>6.8499999999999996E-11</v>
@@ -692,7 +731,7 @@
         <v>8.9189999999999998E-3</v>
       </c>
       <c r="AJ9" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="24:36" x14ac:dyDescent="0.3">
@@ -707,6 +746,12 @@
       </c>
     </row>
     <row r="12" spans="24:36" x14ac:dyDescent="0.3">
+      <c r="Z12" s="2">
+        <v>481.5268188</v>
+      </c>
+      <c r="AB12" s="2">
+        <v>609.53119040000001</v>
+      </c>
       <c r="AE12" s="2">
         <f>1/SQRT(AH5*AG6)</f>
         <v>25338.673824556088</v>
@@ -717,6 +762,12 @@
       </c>
     </row>
     <row r="13" spans="24:36" x14ac:dyDescent="0.3">
+      <c r="Z13" s="2">
+        <v>22620.81826</v>
+      </c>
+      <c r="AB13" s="2">
+        <v>22914.09807</v>
+      </c>
       <c r="AE13" s="3">
         <f>SQRT((AH9/(2*(AH5^1.5)*SQRT(AG6)))^2+(AG9/(2*(AG6^1.5)*SQRT(AH5)))^2)</f>
         <v>487.93091044668006</v>
@@ -729,7 +780,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -870,7 +921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -1188,7 +1239,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C28">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C28">
     <sortCondition ref="A2:A28"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1196,7 +1247,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2301,7 +2352,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2711,7 +2762,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2960,11 +3011,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3870,11 +3921,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W6" sqref="W6"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4277,7 +4328,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4492,7 +4543,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/היענות לתדר ותהודה/היענות לתדר ותהודה - אקסל.xlsx
+++ b/היענות לתדר ותהודה/היענות לתדר ותהודה - אקסל.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\מעבדה 2 א\laba\היענות לתדר ותהודה\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\אוניברסיטת תל אביב\laba\היענות לתדר ותהודה\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5504C14D-3C91-4308-A98C-0D568C7836C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="RCL מדידות" sheetId="13" r:id="rId1"/>
-    <sheet name="יחסי מתחים" sheetId="2" r:id="rId2"/>
-    <sheet name="שגיאות יחסי מתחים" sheetId="5" r:id="rId3"/>
-    <sheet name="eddington v_r" sheetId="6" r:id="rId4"/>
-    <sheet name="תתה בשיטת הקרסים" sheetId="3" r:id="rId5"/>
-    <sheet name="שגיאות קרסים" sheetId="8" r:id="rId6"/>
-    <sheet name="eddington phi" sheetId="9" r:id="rId7"/>
-    <sheet name="תתה בשיטת האליפסות" sheetId="4" r:id="rId8"/>
-    <sheet name="שגיאות אליפסה" sheetId="10" r:id="rId9"/>
-    <sheet name="eddington elipse phi" sheetId="11" r:id="rId10"/>
+    <sheet name="גיליון1" sheetId="14" r:id="rId2"/>
+    <sheet name="יחסי מתחים" sheetId="2" r:id="rId3"/>
+    <sheet name="שגיאות יחסי מתחים" sheetId="5" r:id="rId4"/>
+    <sheet name="eddington v_r" sheetId="6" r:id="rId5"/>
+    <sheet name="תתה בשיטת הקרסים" sheetId="3" r:id="rId6"/>
+    <sheet name="שגיאות קרסים" sheetId="8" r:id="rId7"/>
+    <sheet name="eddington phi" sheetId="9" r:id="rId8"/>
+    <sheet name="תתה בשיטת האליפסות" sheetId="4" r:id="rId9"/>
+    <sheet name="שגיאות אליפסה" sheetId="10" r:id="rId10"/>
+    <sheet name="eddington elipse phi" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -218,19 +218,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -238,7 +238,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -246,7 +246,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -295,7 +295,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -606,24 +606,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="X4:AJ13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="X4:AJ18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AC17" sqref="AC17"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AE13" sqref="AE13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="23" width="8.88671875" style="2"/>
+    <col min="1" max="23" width="8.875" style="2"/>
     <col min="24" max="24" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.21875" style="2" customWidth="1"/>
-    <col min="27" max="27" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.88671875" style="2"/>
+    <col min="25" max="25" width="11.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.25" style="2" customWidth="1"/>
+    <col min="27" max="27" width="10.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="32" width="8.875" style="2"/>
+    <col min="33" max="33" width="9.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="4" spans="24:36" x14ac:dyDescent="0.3">
+    <row r="4" spans="24:36" ht="15" x14ac:dyDescent="0.25">
       <c r="X4" s="4" t="s">
         <v>45</v>
       </c>
@@ -649,22 +651,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="24:36" x14ac:dyDescent="0.3">
+    <row r="5" spans="24:36" x14ac:dyDescent="0.2">
       <c r="X5" s="2">
-        <f>0.000242619</f>
-        <v>2.4261899999999999E-4</v>
+        <f>0.00022868</f>
+        <v>2.2868000000000001E-4</v>
       </c>
       <c r="Y5" s="2">
-        <f>0.00000785</f>
-        <v>7.8499999999999994E-6</v>
+        <f>0.0000084141</f>
+        <v>8.4140999999999996E-6</v>
       </c>
       <c r="Z5" s="4">
-        <f>0.000009321</f>
-        <v>9.3209999999999994E-6</v>
+        <f>0.00002671</f>
+        <v>2.671E-5</v>
       </c>
       <c r="AA5" s="2">
-        <f>0.0000002889</f>
-        <v>2.889E-7</v>
+        <f>0.0000009801</f>
+        <v>9.8009999999999994E-7</v>
       </c>
       <c r="AE5" s="2" t="s">
         <v>5</v>
@@ -683,7 +685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="24:36" x14ac:dyDescent="0.3">
+    <row r="6" spans="24:36" x14ac:dyDescent="0.2">
       <c r="AF6" s="2" t="s">
         <v>6</v>
       </c>
@@ -695,7 +697,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="24:36" x14ac:dyDescent="0.3">
+    <row r="7" spans="24:36" x14ac:dyDescent="0.2">
       <c r="AI7" s="2">
         <f>4.812*10^3</f>
         <v>4812</v>
@@ -704,10 +706,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="24:36" x14ac:dyDescent="0.3">
+    <row r="8" spans="24:36" x14ac:dyDescent="0.2">
       <c r="X8" s="2">
         <f>SQRT((Z5/(2*(X5^1.5)*SQRT(Y5)))^2+(AA5/(2*(Y5^1.5)*SQRT(X5)))^2)</f>
-        <v>609.53119036713053</v>
+        <v>1880.2781253174478</v>
       </c>
       <c r="AI8" s="2">
         <f>AI5+AI7</f>
@@ -717,14 +719,14 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="24:36" x14ac:dyDescent="0.3">
+    <row r="9" spans="24:36" x14ac:dyDescent="0.2">
       <c r="X9" s="2">
         <f>1/SQRT(X5*Y5)</f>
-        <v>22914.098067141014</v>
+        <v>22797.229621723465</v>
       </c>
       <c r="AG9" s="2">
-        <f>AG6*0.01+5*10^-11</f>
-        <v>6.8499999999999996E-11</v>
+        <f>AG6*0.012+5*10^-11</f>
+        <v>7.2199999999999994E-11</v>
       </c>
       <c r="AH9" s="2">
         <f>AH5*0.01+0.0005</f>
@@ -734,7 +736,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="24:36" x14ac:dyDescent="0.3">
+    <row r="10" spans="24:36" x14ac:dyDescent="0.2">
       <c r="AF10" s="2" t="s">
         <v>8</v>
       </c>
@@ -745,7 +747,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="24:36" x14ac:dyDescent="0.3">
+    <row r="12" spans="24:36" x14ac:dyDescent="0.2">
+      <c r="X12" s="2">
+        <f>100*X8/X9</f>
+        <v>8.2478360595435323</v>
+      </c>
       <c r="Z12" s="2">
         <v>481.5268188</v>
       </c>
@@ -756,12 +762,8 @@
         <f>1/SQRT(AH5*AG6)</f>
         <v>25338.673824556088</v>
       </c>
-      <c r="AH12" s="2">
-        <f>AE13/AE12*100</f>
-        <v>1.9256371261775307</v>
-      </c>
-    </row>
-    <row r="13" spans="24:36" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="24:36" x14ac:dyDescent="0.2">
       <c r="Z13" s="2">
         <v>22620.81826</v>
       </c>
@@ -770,7 +772,49 @@
       </c>
       <c r="AE13" s="3">
         <f>SQRT((AH9/(2*(AH5^1.5)*SQRT(AG6)))^2+(AG9/(2*(AG6^1.5)*SQRT(AH5)))^2)</f>
-        <v>487.93091044668006</v>
+        <v>512.33950159407254</v>
+      </c>
+    </row>
+    <row r="14" spans="24:36" x14ac:dyDescent="0.2">
+      <c r="Z14" s="2">
+        <f>100*Z12/Z13</f>
+        <v>2.1286887736129136</v>
+      </c>
+      <c r="AB14" s="2">
+        <f>100*AB12/AB13</f>
+        <v>2.6600706191356545</v>
+      </c>
+      <c r="AE14" s="2">
+        <f>AE13/AE12*100</f>
+        <v>2.0219665209848379</v>
+      </c>
+      <c r="AI14" s="2">
+        <f>AI5*0.012+0.05</f>
+        <v>1.0376000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="24:36" x14ac:dyDescent="0.2">
+      <c r="AI15" s="2">
+        <f>AI7*0.012+5</f>
+        <v>62.744</v>
+      </c>
+    </row>
+    <row r="18" spans="24:35" x14ac:dyDescent="0.2">
+      <c r="X18" s="2">
+        <f>ABS(AE12-X9)/SQRT(X8^2+AE13^2)</f>
+        <v>1.3040873048379582</v>
+      </c>
+      <c r="Z18" s="2">
+        <f>ABS(AE12-Z13)/SQRT(Z12^2+AE13^2)</f>
+        <v>3.8654920178005638</v>
+      </c>
+      <c r="AB18" s="2">
+        <f>ABS(AE12-AB13)/SQRT(AB12^2+AE13^2)</f>
+        <v>3.0449787516007811</v>
+      </c>
+      <c r="AI18" s="2">
+        <f>SQRT(AI14^2+AI15^2)</f>
+        <v>62.752578829558864</v>
       </c>
     </row>
   </sheetData>
@@ -780,16 +824,379 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1.7</v>
+      </c>
+      <c r="B2">
+        <v>-0.6</v>
+      </c>
+      <c r="C2">
+        <f>0.04*SQRT(12)</f>
+        <v>0.13856406460551018</v>
+      </c>
+      <c r="D2">
+        <v>0.6</v>
+      </c>
+      <c r="E2">
+        <f>0.04*SQRT(12)</f>
+        <v>0.13856406460551018</v>
+      </c>
+      <c r="F2">
+        <f>D2/B2</f>
+        <v>-1</v>
+      </c>
+      <c r="I2">
+        <f>A2*2*PI()*1000</f>
+        <v>10681.415022205296</v>
+      </c>
+      <c r="J2">
+        <f>10^-4/SQRT(12)</f>
+        <v>2.8867513459481293E-5</v>
+      </c>
+      <c r="K2">
+        <f>ASIN(F2)</f>
+        <v>-1.5707963267948966</v>
+      </c>
+      <c r="L2" t="e">
+        <f>SQRT(((E2/B2)^2+((D2*C2)/(B2^2))^2)/(1-(F2)^2))</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3.2</v>
+      </c>
+      <c r="B3">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C9" si="0">0.04*SQRT(12)</f>
+        <v>0.13856406460551018</v>
+      </c>
+      <c r="D3">
+        <v>1.76</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E9" si="1">0.04*SQRT(12)</f>
+        <v>0.13856406460551018</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F9" si="2">D3/B3</f>
+        <v>-0.76521739130434785</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I9" si="3">A3*2*PI()*1000</f>
+        <v>20106.192982974677</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J9" si="4">10^-4/SQRT(12)</f>
+        <v>2.8867513459481293E-5</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K9" si="5">ASIN(F3)</f>
+        <v>-0.87137894639644309</v>
+      </c>
+      <c r="L3">
+        <f>SQRT(((E3/B3)^2+((D3*C3)/(B3^2))^2)/(1-(F3)^2))</f>
+        <v>0.11783701623338079</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3.5</v>
+      </c>
+      <c r="B4">
+        <v>-3.56</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>0.13856406460551018</v>
+      </c>
+      <c r="D4">
+        <v>1.44</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>0.13856406460551018</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="2"/>
+        <v>-0.4044943820224719</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="3"/>
+        <v>21991.148575128551</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="4"/>
+        <v>2.8867513459481293E-5</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="5"/>
+        <v>-0.41642589737418523</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L9" si="6">SQRT(((E4/B4)^2+((D4*C4)/(B4^2))^2)/(1-(F4)^2))</f>
+        <v>4.5909490055325811E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3.6</v>
+      </c>
+      <c r="B5">
+        <v>-3.84</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>0.13856406460551018</v>
+      </c>
+      <c r="D5">
+        <v>0.4</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>0.13856406460551018</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>-0.10416666666666667</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>22619.46710584651</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="4"/>
+        <v>2.8867513459481293E-5</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="5"/>
+        <v>-0.10435597258845379</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="6"/>
+        <v>3.6478080017711433E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3.62</v>
+      </c>
+      <c r="B6">
+        <v>3.88</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0.13856406460551018</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>0.13856406460551018</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>22745.1308119901</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="4"/>
+        <v>2.8867513459481293E-5</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="6"/>
+        <v>3.5712387784925304E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>3.7</v>
+      </c>
+      <c r="B7">
+        <v>3.74</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>0.13856406460551018</v>
+      </c>
+      <c r="D7">
+        <v>0.84</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>0.13856406460551018</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>0.2245989304812834</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>23247.785636564469</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="4"/>
+        <v>2.8867513459481293E-5</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="5"/>
+        <v>0.22653143165920933</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="6"/>
+        <v>3.8967762466627177E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>2.56</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>0.13856406460551018</v>
+      </c>
+      <c r="D8">
+        <v>1.8</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>0.13856406460551018</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>0.703125</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>25132.741228718343</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="4"/>
+        <v>2.8867513459481293E-5</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="5"/>
+        <v>0.77978281098031366</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="6"/>
+        <v>9.3053302138452407E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>5.7</v>
+      </c>
+      <c r="B9">
+        <v>0.6</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>0.13856406460551018</v>
+      </c>
+      <c r="D9">
+        <v>0.6</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>0.13856406460551018</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>35814.156250923646</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="4"/>
+        <v>2.8867513459481293E-5</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="5"/>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="L9" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -803,7 +1210,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>10681.415022205296</v>
       </c>
@@ -817,7 +1224,7 @@
         <v>0.16329931618554522</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>20106.192982974677</v>
       </c>
@@ -831,7 +1238,7 @@
         <v>0.11783701623338079</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>21991.148575128551</v>
       </c>
@@ -845,7 +1252,7 @@
         <v>4.5909490055325811E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>22619.46710584651</v>
       </c>
@@ -859,7 +1266,7 @@
         <v>3.6478080017711433E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>22745.1308119901</v>
       </c>
@@ -873,7 +1280,7 @@
         <v>3.5712387784925304E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>23247.785636564469</v>
       </c>
@@ -887,7 +1294,7 @@
         <v>3.8967762466627177E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>25132.741228718343</v>
       </c>
@@ -901,7 +1308,7 @@
         <v>9.3053302138452407E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>35814.156250923646</v>
       </c>
@@ -921,16 +1328,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -941,7 +1360,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1.7</v>
       </c>
@@ -952,7 +1371,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2.1</v>
       </c>
@@ -963,7 +1382,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2.4</v>
       </c>
@@ -974,7 +1393,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2.7</v>
       </c>
@@ -985,7 +1404,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2.9</v>
       </c>
@@ -996,7 +1415,7 @@
         <v>1.56</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3.1</v>
       </c>
@@ -1007,7 +1426,7 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3.2</v>
       </c>
@@ -1018,7 +1437,7 @@
         <v>2.2799999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>3.3</v>
       </c>
@@ -1029,7 +1448,7 @@
         <v>2.68</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3.4</v>
       </c>
@@ -1040,7 +1459,7 @@
         <v>3.12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3.5</v>
       </c>
@@ -1051,7 +1470,7 @@
         <v>3.56</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3.56</v>
       </c>
@@ -1059,7 +1478,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3.58</v>
       </c>
@@ -1067,7 +1486,7 @@
         <v>3.76</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3.59</v>
       </c>
@@ -1075,7 +1494,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3.6</v>
       </c>
@@ -1086,7 +1505,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3.61</v>
       </c>
@@ -1094,7 +1513,7 @@
         <v>3.84</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3.62</v>
       </c>
@@ -1102,7 +1521,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3.64</v>
       </c>
@@ -1110,7 +1529,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3.7</v>
       </c>
@@ -1121,7 +1540,7 @@
         <v>3.72</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3.8</v>
       </c>
@@ -1132,7 +1551,7 @@
         <v>3.32</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3.9</v>
       </c>
@@ -1143,7 +1562,7 @@
         <v>2.92</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>4</v>
       </c>
@@ -1154,7 +1573,7 @@
         <v>2.44</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>4.2</v>
       </c>
@@ -1165,7 +1584,7 @@
         <v>1.84</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>4.4000000000000004</v>
       </c>
@@ -1176,7 +1595,7 @@
         <v>1.48</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>4.7</v>
       </c>
@@ -1187,7 +1606,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>5</v>
       </c>
@@ -1198,7 +1617,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>5.3</v>
       </c>
@@ -1209,7 +1628,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>5.7</v>
       </c>
@@ -1220,12 +1639,12 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>9</v>
       </c>
@@ -1233,34 +1652,34 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D37" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C28">
+  <sortState ref="A2:C28">
     <sortCondition ref="A2:A28"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -1292,7 +1711,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1.7</v>
       </c>
@@ -1331,7 +1750,7 @@
         <v>2.8249061049934764E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2.1</v>
       </c>
@@ -1370,7 +1789,7 @@
         <v>2.8451462901554272E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2.4</v>
       </c>
@@ -1409,7 +1828,7 @@
         <v>2.8777490669701354E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2.7</v>
       </c>
@@ -1448,7 +1867,7 @@
         <v>2.9268576927575021E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2.9</v>
       </c>
@@ -1487,7 +1906,7 @@
         <v>2.9968522223628394E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3.1</v>
       </c>
@@ -1526,7 +1945,7 @@
         <v>3.1036559749999023E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3.2</v>
       </c>
@@ -1565,7 +1984,7 @@
         <v>3.203208483954749E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>3.3</v>
       </c>
@@ -1604,7 +2023,7 @@
         <v>3.3434485003549694E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3.4</v>
       </c>
@@ -1643,7 +2062,7 @@
         <v>3.5156216011369167E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3.5</v>
       </c>
@@ -1682,7 +2101,7 @@
         <v>3.7040141511021207E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3.56</v>
       </c>
@@ -1721,7 +2140,7 @@
         <v>3.7760741925047347E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3.58</v>
       </c>
@@ -1760,7 +2179,7 @@
         <v>3.7943632147700987E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3.59</v>
       </c>
@@ -1799,7 +2218,7 @@
         <v>3.8127587014715734E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3.6</v>
       </c>
@@ -1838,7 +2257,7 @@
         <v>3.8127587014715734E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3.61</v>
       </c>
@@ -1877,7 +2296,7 @@
         <v>3.8312591190678355E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3.62</v>
       </c>
@@ -1916,7 +2335,7 @@
         <v>3.8127587014715734E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3.64</v>
       </c>
@@ -1955,7 +2374,7 @@
         <v>3.8127587014715734E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3.7</v>
       </c>
@@ -1994,7 +2413,7 @@
         <v>3.7760741925047347E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3.8</v>
       </c>
@@ -2033,7 +2452,7 @@
         <v>3.5993918889664226E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3.9</v>
       </c>
@@ -2072,7 +2491,7 @@
         <v>3.4351985107220332E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>4</v>
       </c>
@@ -2111,7 +2530,7 @@
         <v>3.2573019761544756E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>4.2</v>
       </c>
@@ -2150,7 +2569,7 @@
         <v>3.0694730390203166E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>4.4000000000000004</v>
       </c>
@@ -2189,7 +2608,7 @@
         <v>2.9780163783876511E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>4.7</v>
       </c>
@@ -2228,7 +2647,7 @@
         <v>2.8905847643294932E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>5</v>
       </c>
@@ -2267,7 +2686,7 @@
         <v>2.8550180837874188E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>5.3</v>
       </c>
@@ -2306,7 +2725,7 @@
         <v>2.8405885317696021E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>5.7</v>
       </c>
@@ -2351,20 +2770,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -2378,7 +2797,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>10681.415022205296</v>
       </c>
@@ -2392,7 +2811,7 @@
         <v>2.8249061049934764E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>13194.689145077131</v>
       </c>
@@ -2406,7 +2825,7 @@
         <v>2.8451462901554272E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>15079.644737231007</v>
       </c>
@@ -2420,7 +2839,7 @@
         <v>2.8777490669701354E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>16964.600329384884</v>
       </c>
@@ -2434,7 +2853,7 @@
         <v>2.9268576927575021E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>18221.237390820799</v>
       </c>
@@ -2448,7 +2867,7 @@
         <v>2.9968522223628394E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>19477.874452256718</v>
       </c>
@@ -2462,7 +2881,7 @@
         <v>3.1036559749999023E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>20106.192982974677</v>
       </c>
@@ -2476,7 +2895,7 @@
         <v>3.203208483954749E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>20734.511513692636</v>
       </c>
@@ -2490,7 +2909,7 @@
         <v>3.3434485003549694E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>21362.830044410592</v>
       </c>
@@ -2504,7 +2923,7 @@
         <v>3.5156216011369167E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>21991.148575128551</v>
       </c>
@@ -2518,7 +2937,7 @@
         <v>3.7040141511021207E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>22368.139693559329</v>
       </c>
@@ -2532,7 +2951,7 @@
         <v>3.7760741925047347E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>22493.80339970292</v>
       </c>
@@ -2546,7 +2965,7 @@
         <v>3.7943632147700987E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>22556.635252774715</v>
       </c>
@@ -2560,7 +2979,7 @@
         <v>3.8127587014715734E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>22619.46710584651</v>
       </c>
@@ -2574,7 +2993,7 @@
         <v>3.8127587014715734E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>22682.298958918305</v>
       </c>
@@ -2588,7 +3007,7 @@
         <v>3.8312591190678355E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>22745.1308119901</v>
       </c>
@@ -2602,7 +3021,7 @@
         <v>3.8127587014715734E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>22870.794518133695</v>
       </c>
@@ -2616,7 +3035,7 @@
         <v>3.8127587014715734E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>23247.785636564469</v>
       </c>
@@ -2630,7 +3049,7 @@
         <v>3.7760741925047347E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>23876.104167282429</v>
       </c>
@@ -2644,7 +3063,7 @@
         <v>3.5993918889664226E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>24504.422698000388</v>
       </c>
@@ -2658,7 +3077,7 @@
         <v>3.4351985107220332E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>25132.741228718343</v>
       </c>
@@ -2672,7 +3091,7 @@
         <v>3.2573019761544756E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>26389.378290154262</v>
       </c>
@@ -2686,7 +3105,7 @@
         <v>3.0694730390203166E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>27646.015351590184</v>
       </c>
@@ -2700,7 +3119,7 @@
         <v>2.9780163783876511E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>29530.970943744054</v>
       </c>
@@ -2714,7 +3133,7 @@
         <v>2.8905847643294932E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>31415.926535897932</v>
       </c>
@@ -2728,7 +3147,7 @@
         <v>2.8550180837874188E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>33300.882128051802</v>
       </c>
@@ -2742,7 +3161,7 @@
         <v>2.8405885317696021E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>35814.156250923646</v>
       </c>
@@ -2761,17 +3180,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -2779,7 +3198,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1.7</v>
       </c>
@@ -2787,7 +3206,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2.1</v>
       </c>
@@ -2795,7 +3214,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2.4</v>
       </c>
@@ -2803,7 +3222,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2.7</v>
       </c>
@@ -2811,7 +3230,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2.9</v>
       </c>
@@ -2819,7 +3238,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3.1</v>
       </c>
@@ -2827,7 +3246,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3.2</v>
       </c>
@@ -2835,7 +3254,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>3.3</v>
       </c>
@@ -2843,7 +3262,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3.4</v>
       </c>
@@ -2851,7 +3270,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3.5</v>
       </c>
@@ -2859,7 +3278,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3.56</v>
       </c>
@@ -2867,7 +3286,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3.58</v>
       </c>
@@ -2875,7 +3294,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3.59</v>
       </c>
@@ -2883,7 +3302,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3.6</v>
       </c>
@@ -2891,7 +3310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3.61</v>
       </c>
@@ -2899,7 +3318,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3.62</v>
       </c>
@@ -2907,7 +3326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3.64</v>
       </c>
@@ -2915,7 +3334,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3.7</v>
       </c>
@@ -2923,7 +3342,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3.8</v>
       </c>
@@ -2931,7 +3350,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3.9</v>
       </c>
@@ -2939,7 +3358,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>4</v>
       </c>
@@ -2947,7 +3366,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>4.2</v>
       </c>
@@ -2955,7 +3374,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>4.4000000000000004</v>
       </c>
@@ -2963,7 +3382,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>4.7</v>
       </c>
@@ -2971,7 +3390,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>5</v>
       </c>
@@ -2979,7 +3398,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>5.3</v>
       </c>
@@ -2987,7 +3406,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>5.7</v>
       </c>
@@ -2995,12 +3414,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>19</v>
       </c>
@@ -3010,21 +3429,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -3050,7 +3469,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1.7</v>
       </c>
@@ -3082,7 +3501,7 @@
         <v>3.7001507030398864E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2.1</v>
       </c>
@@ -3114,7 +3533,7 @@
         <v>4.5707743978712521E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2.4</v>
       </c>
@@ -3146,7 +3565,7 @@
         <v>5.2237421689951928E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2.7</v>
       </c>
@@ -3178,7 +3597,7 @@
         <v>5.8767099401192749E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2.9</v>
       </c>
@@ -3210,7 +3629,7 @@
         <v>6.3120217875353825E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3.1</v>
       </c>
@@ -3242,7 +3661,7 @@
         <v>6.747333634951498E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3.2</v>
       </c>
@@ -3274,7 +3693,7 @@
         <v>6.9649895586595227E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>3.3</v>
       </c>
@@ -3306,7 +3725,7 @@
         <v>7.1826454823675865E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3.4</v>
       </c>
@@ -3338,7 +3757,7 @@
         <v>7.4003014060756581E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3.5</v>
       </c>
@@ -3370,7 +3789,7 @@
         <v>7.6179573297837297E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3.56</v>
       </c>
@@ -3402,7 +3821,7 @@
         <v>7.7485508840085832E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3.58</v>
       </c>
@@ -3434,7 +3853,7 @@
         <v>7.7920820687502014E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3.59</v>
       </c>
@@ -3466,7 +3885,7 @@
         <v>7.8138476611210109E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3.6</v>
       </c>
@@ -3498,7 +3917,7 @@
         <v>7.8356132534918212E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3.61</v>
       </c>
@@ -3530,7 +3949,7 @@
         <v>7.8573788458626316E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3.62</v>
       </c>
@@ -3562,7 +3981,7 @@
         <v>7.8791444382334402E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3.64</v>
       </c>
@@ -3594,7 +4013,7 @@
         <v>7.9226756229750627E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3.7</v>
       </c>
@@ -3626,7 +4045,7 @@
         <v>8.0532691771999319E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3.8</v>
       </c>
@@ -3658,7 +4077,7 @@
         <v>8.2709251009080564E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3.9</v>
       </c>
@@ -3690,7 +4109,7 @@
         <v>8.4885810246161826E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>4</v>
       </c>
@@ -3722,7 +4141,7 @@
         <v>8.7062369483243071E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>4.2</v>
       </c>
@@ -3754,7 +4173,7 @@
         <v>9.1415487957405353E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>4.4000000000000004</v>
       </c>
@@ -3786,7 +4205,7 @@
         <v>9.5768606431567548E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>4.7</v>
       </c>
@@ -3818,7 +4237,7 @@
         <v>1.0229828414281075E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>5</v>
       </c>
@@ -3850,7 +4269,7 @@
         <v>1.0882796185405387E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>5.3</v>
       </c>
@@ -3882,7 +4301,7 @@
         <v>1.1535763956529698E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>5.7</v>
       </c>
@@ -3920,17 +4339,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -3944,7 +4363,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>10681.415022205296</v>
       </c>
@@ -3958,7 +4377,7 @@
         <v>3.7001507030398864E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>13194.689145077131</v>
       </c>
@@ -3972,7 +4391,7 @@
         <v>4.5707743978712521E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>15079.644737231007</v>
       </c>
@@ -3986,7 +4405,7 @@
         <v>5.2237421689951928E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>16964.600329384884</v>
       </c>
@@ -4000,7 +4419,7 @@
         <v>5.8767099401192749E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>18221.237390820799</v>
       </c>
@@ -4014,7 +4433,7 @@
         <v>6.3120217875353825E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>19477.874452256718</v>
       </c>
@@ -4028,7 +4447,7 @@
         <v>6.747333634951498E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>20106.192982974677</v>
       </c>
@@ -4042,7 +4461,7 @@
         <v>6.9649895586595227E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>20734.511513692636</v>
       </c>
@@ -4056,7 +4475,7 @@
         <v>7.1826454823675865E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>21362.830044410592</v>
       </c>
@@ -4070,7 +4489,7 @@
         <v>7.4003014060756581E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>21991.148575128551</v>
       </c>
@@ -4084,7 +4503,7 @@
         <v>7.6179573297837297E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>22368.139693559329</v>
       </c>
@@ -4098,7 +4517,7 @@
         <v>7.7485508840085832E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>22493.80339970292</v>
       </c>
@@ -4112,7 +4531,7 @@
         <v>7.7920820687502014E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>22556.635252774715</v>
       </c>
@@ -4126,7 +4545,7 @@
         <v>7.8138476611210109E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>22619.46710584651</v>
       </c>
@@ -4140,7 +4559,7 @@
         <v>7.8356132534918212E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>22682.298958918305</v>
       </c>
@@ -4154,7 +4573,7 @@
         <v>7.8573788458626316E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>22745.1308119901</v>
       </c>
@@ -4168,7 +4587,7 @@
         <v>7.8791444382334402E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>22870.794518133695</v>
       </c>
@@ -4182,7 +4601,7 @@
         <v>7.9226756229750627E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>23247.785636564469</v>
       </c>
@@ -4196,7 +4615,7 @@
         <v>8.0532691771999319E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>23876.104167282429</v>
       </c>
@@ -4210,7 +4629,7 @@
         <v>8.2709251009080564E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>24504.422698000388</v>
       </c>
@@ -4224,7 +4643,7 @@
         <v>8.4885810246161826E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>25132.741228718343</v>
       </c>
@@ -4238,7 +4657,7 @@
         <v>8.7062369483243071E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>26389.378290154262</v>
       </c>
@@ -4252,7 +4671,7 @@
         <v>9.1415487957405353E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>27646.015351590184</v>
       </c>
@@ -4266,7 +4685,7 @@
         <v>9.5768606431567548E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>29530.970943744054</v>
       </c>
@@ -4280,7 +4699,7 @@
         <v>1.0229828414281075E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>31415.926535897932</v>
       </c>
@@ -4294,7 +4713,7 @@
         <v>1.0882796185405387E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>33300.882128051802</v>
       </c>
@@ -4308,7 +4727,7 @@
         <v>1.1535763956529698E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>35814.156250923646</v>
       </c>
@@ -4327,17 +4746,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -4351,7 +4770,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1.7</v>
       </c>
@@ -4362,12 +4781,12 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2.1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2.4</v>
       </c>
@@ -4375,22 +4794,22 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2.7</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2.9</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3.1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3.2</v>
       </c>
@@ -4401,17 +4820,17 @@
         <v>1.76</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>3.3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3.4</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3.5</v>
       </c>
@@ -4422,22 +4841,22 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3.56</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3.58</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3.59</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3.6</v>
       </c>
@@ -4448,12 +4867,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3.61</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3.62</v>
       </c>
@@ -4464,12 +4883,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3.64</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3.7</v>
       </c>
@@ -4480,17 +4899,17 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3.8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3.9</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>4</v>
       </c>
@@ -4501,32 +4920,32 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>4.2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>4.7</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>5.3</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>5.7</v>
       </c>
@@ -4540,367 +4959,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:L9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1.7</v>
-      </c>
-      <c r="B2">
-        <v>-0.6</v>
-      </c>
-      <c r="C2">
-        <f>0.04*SQRT(12)</f>
-        <v>0.13856406460551018</v>
-      </c>
-      <c r="D2">
-        <v>0.6</v>
-      </c>
-      <c r="E2">
-        <f>0.04*SQRT(12)</f>
-        <v>0.13856406460551018</v>
-      </c>
-      <c r="F2">
-        <f>D2/B2</f>
-        <v>-1</v>
-      </c>
-      <c r="I2">
-        <f>A2*2*PI()*1000</f>
-        <v>10681.415022205296</v>
-      </c>
-      <c r="J2">
-        <f>10^-4/SQRT(12)</f>
-        <v>2.8867513459481293E-5</v>
-      </c>
-      <c r="K2">
-        <f>ASIN(F2)</f>
-        <v>-1.5707963267948966</v>
-      </c>
-      <c r="L2" t="e">
-        <f>SQRT(((E2/B2)^2+((D2*C2)/(B2^2))^2)/(1-(F2)^2))</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>3.2</v>
-      </c>
-      <c r="B3">
-        <v>-2.2999999999999998</v>
-      </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C9" si="0">0.04*SQRT(12)</f>
-        <v>0.13856406460551018</v>
-      </c>
-      <c r="D3">
-        <v>1.76</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E9" si="1">0.04*SQRT(12)</f>
-        <v>0.13856406460551018</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F9" si="2">D3/B3</f>
-        <v>-0.76521739130434785</v>
-      </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I9" si="3">A3*2*PI()*1000</f>
-        <v>20106.192982974677</v>
-      </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J9" si="4">10^-4/SQRT(12)</f>
-        <v>2.8867513459481293E-5</v>
-      </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K9" si="5">ASIN(F3)</f>
-        <v>-0.87137894639644309</v>
-      </c>
-      <c r="L3">
-        <f>SQRT(((E3/B3)^2+((D3*C3)/(B3^2))^2)/(1-(F3)^2))</f>
-        <v>0.11783701623338079</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3.5</v>
-      </c>
-      <c r="B4">
-        <v>-3.56</v>
-      </c>
-      <c r="C4">
-        <f t="shared" si="0"/>
-        <v>0.13856406460551018</v>
-      </c>
-      <c r="D4">
-        <v>1.44</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="1"/>
-        <v>0.13856406460551018</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="2"/>
-        <v>-0.4044943820224719</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="3"/>
-        <v>21991.148575128551</v>
-      </c>
-      <c r="J4">
-        <f t="shared" si="4"/>
-        <v>2.8867513459481293E-5</v>
-      </c>
-      <c r="K4">
-        <f t="shared" si="5"/>
-        <v>-0.41642589737418523</v>
-      </c>
-      <c r="L4">
-        <f t="shared" ref="L4:L9" si="6">SQRT(((E4/B4)^2+((D4*C4)/(B4^2))^2)/(1-(F4)^2))</f>
-        <v>4.5909490055325811E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>3.6</v>
-      </c>
-      <c r="B5">
-        <v>-3.84</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="0"/>
-        <v>0.13856406460551018</v>
-      </c>
-      <c r="D5">
-        <v>0.4</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="1"/>
-        <v>0.13856406460551018</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="2"/>
-        <v>-0.10416666666666667</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="3"/>
-        <v>22619.46710584651</v>
-      </c>
-      <c r="J5">
-        <f t="shared" si="4"/>
-        <v>2.8867513459481293E-5</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="5"/>
-        <v>-0.10435597258845379</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="6"/>
-        <v>3.6478080017711433E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>3.62</v>
-      </c>
-      <c r="B6">
-        <v>3.88</v>
-      </c>
-      <c r="C6">
-        <f t="shared" si="0"/>
-        <v>0.13856406460551018</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="1"/>
-        <v>0.13856406460551018</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="3"/>
-        <v>22745.1308119901</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="4"/>
-        <v>2.8867513459481293E-5</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="6"/>
-        <v>3.5712387784925304E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>3.7</v>
-      </c>
-      <c r="B7">
-        <v>3.74</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="0"/>
-        <v>0.13856406460551018</v>
-      </c>
-      <c r="D7">
-        <v>0.84</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="1"/>
-        <v>0.13856406460551018</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="2"/>
-        <v>0.2245989304812834</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="3"/>
-        <v>23247.785636564469</v>
-      </c>
-      <c r="J7">
-        <f t="shared" si="4"/>
-        <v>2.8867513459481293E-5</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="5"/>
-        <v>0.22653143165920933</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="6"/>
-        <v>3.8967762466627177E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="B8">
-        <v>2.56</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="0"/>
-        <v>0.13856406460551018</v>
-      </c>
-      <c r="D8">
-        <v>1.8</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="1"/>
-        <v>0.13856406460551018</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="2"/>
-        <v>0.703125</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="3"/>
-        <v>25132.741228718343</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="4"/>
-        <v>2.8867513459481293E-5</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="5"/>
-        <v>0.77978281098031366</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="6"/>
-        <v>9.3053302138452407E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>5.7</v>
-      </c>
-      <c r="B9">
-        <v>0.6</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="0"/>
-        <v>0.13856406460551018</v>
-      </c>
-      <c r="D9">
-        <v>0.6</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="1"/>
-        <v>0.13856406460551018</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="3"/>
-        <v>35814.156250923646</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="4"/>
-        <v>2.8867513459481293E-5</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="5"/>
-        <v>1.5707963267948966</v>
-      </c>
-      <c r="L9" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/היענות לתדר ותהודה/היענות לתדר ותהודה - אקסל.xlsx
+++ b/היענות לתדר ותהודה/היענות לתדר ותהודה - אקסל.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" firstSheet="9" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="RCL מדידות" sheetId="13" r:id="rId1"/>
@@ -609,17 +609,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="X4:AJ18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AE13" sqref="AE13"/>
+    <sheetView topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AG14" sqref="AG14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="23" width="8.875" style="2"/>
     <col min="24" max="24" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.875" style="2" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="9.25" style="2" customWidth="1"/>
-    <col min="27" max="27" width="10.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.875" style="2" bestFit="1" customWidth="1"/>
     <col min="28" max="32" width="8.875" style="2"/>
     <col min="33" max="33" width="9.25" style="2" bestFit="1" customWidth="1"/>
     <col min="34" max="16384" width="8.875" style="2"/>
@@ -653,20 +653,20 @@
     </row>
     <row r="5" spans="24:36" x14ac:dyDescent="0.2">
       <c r="X5" s="2">
-        <f>0.00022868</f>
-        <v>2.2868000000000001E-4</v>
+        <f>0.0003442</f>
+        <v>3.4420000000000002E-4</v>
       </c>
       <c r="Y5" s="2">
-        <f>0.0000084141</f>
-        <v>8.4140999999999996E-6</v>
+        <f>0.0000055931</f>
+        <v>5.5930999999999999E-6</v>
       </c>
       <c r="Z5" s="4">
-        <f>0.00002671</f>
-        <v>2.671E-5</v>
+        <f>0.00003518</f>
+        <v>3.5179999999999999E-5</v>
       </c>
       <c r="AA5" s="2">
-        <f>0.0000009801</f>
-        <v>9.8009999999999994E-7</v>
+        <f>0.0000005709</f>
+        <v>5.7090000000000001E-7</v>
       </c>
       <c r="AE5" s="2" t="s">
         <v>5</v>
@@ -709,7 +709,7 @@
     <row r="8" spans="24:36" x14ac:dyDescent="0.2">
       <c r="X8" s="2">
         <f>SQRT((Z5/(2*(X5^1.5)*SQRT(Y5)))^2+(AA5/(2*(Y5^1.5)*SQRT(X5)))^2)</f>
-        <v>1880.2781253174478</v>
+        <v>1646.0752423820611</v>
       </c>
       <c r="AI8" s="2">
         <f>AI5+AI7</f>
@@ -722,7 +722,7 @@
     <row r="9" spans="24:36" x14ac:dyDescent="0.2">
       <c r="X9" s="2">
         <f>1/SQRT(X5*Y5)</f>
-        <v>22797.229621723465</v>
+        <v>22791.256817689431</v>
       </c>
       <c r="AG9" s="2">
         <f>AG6*0.012+5*10^-11</f>
@@ -750,7 +750,7 @@
     <row r="12" spans="24:36" x14ac:dyDescent="0.2">
       <c r="X12" s="2">
         <f>100*X8/X9</f>
-        <v>8.2478360595435323</v>
+        <v>7.2223978499705197</v>
       </c>
       <c r="Z12" s="2">
         <v>481.5268188</v>
@@ -802,7 +802,7 @@
     <row r="18" spans="24:35" x14ac:dyDescent="0.2">
       <c r="X18" s="2">
         <f>ABS(AE12-X9)/SQRT(X8^2+AE13^2)</f>
-        <v>1.3040873048379582</v>
+        <v>1.4776500356794924</v>
       </c>
       <c r="Z18" s="2">
         <f>ABS(AE12-Z13)/SQRT(Z12^2+AE13^2)</f>
@@ -828,7 +828,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -876,35 +876,35 @@
         <v>-0.6</v>
       </c>
       <c r="C2">
-        <f>0.04*SQRT(12)</f>
-        <v>0.13856406460551018</v>
+        <f>0.08/SQRT(12)</f>
+        <v>2.3094010767585032E-2</v>
       </c>
       <c r="D2">
-        <v>0.6</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="E2">
-        <f>0.04*SQRT(12)</f>
-        <v>0.13856406460551018</v>
+        <f>0.08/SQRT(12)</f>
+        <v>2.3094010767585032E-2</v>
       </c>
       <c r="F2">
         <f>D2/B2</f>
-        <v>-1</v>
+        <v>-0.93333333333333346</v>
       </c>
       <c r="I2">
         <f>A2*2*PI()*1000</f>
         <v>10681.415022205296</v>
       </c>
       <c r="J2">
-        <f>10^-4/SQRT(12)</f>
-        <v>2.8867513459481293E-5</v>
+        <f>2*PI()*10^-4/SQRT(12)</f>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="K2">
         <f>ASIN(F2)</f>
-        <v>-1.5707963267948966</v>
-      </c>
-      <c r="L2" t="e">
+        <v>-1.20358830623706</v>
+      </c>
+      <c r="L2">
         <f>SQRT(((E2/B2)^2+((D2*C2)/(B2^2))^2)/(1-(F2)^2))</f>
-        <v>#DIV/0!</v>
+        <v>0.14665273357713116</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -915,15 +915,15 @@
         <v>-2.2999999999999998</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C9" si="0">0.04*SQRT(12)</f>
-        <v>0.13856406460551018</v>
+        <f t="shared" ref="C3:C9" si="0">0.08/SQRT(12)</f>
+        <v>2.3094010767585032E-2</v>
       </c>
       <c r="D3">
         <v>1.76</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E9" si="1">0.04*SQRT(12)</f>
-        <v>0.13856406460551018</v>
+        <f t="shared" ref="E3:E9" si="1">0.08/SQRT(12)</f>
+        <v>2.3094010767585032E-2</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F9" si="2">D3/B3</f>
@@ -934,8 +934,8 @@
         <v>20106.192982974677</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J9" si="4">10^-4/SQRT(12)</f>
-        <v>2.8867513459481293E-5</v>
+        <f t="shared" ref="J3:J8" si="4">2*PI()*10^-4/SQRT(12)</f>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K9" si="5">ASIN(F3)</f>
@@ -943,7 +943,7 @@
       </c>
       <c r="L3">
         <f>SQRT(((E3/B3)^2+((D3*C3)/(B3^2))^2)/(1-(F3)^2))</f>
-        <v>0.11783701623338079</v>
+        <v>1.9639502705563465E-2</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -955,14 +955,14 @@
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>0.13856406460551018</v>
+        <v>2.3094010767585032E-2</v>
       </c>
       <c r="D4">
         <v>1.44</v>
       </c>
       <c r="E4">
         <f t="shared" si="1"/>
-        <v>0.13856406460551018</v>
+        <v>2.3094010767585032E-2</v>
       </c>
       <c r="F4">
         <f t="shared" si="2"/>
@@ -974,7 +974,7 @@
       </c>
       <c r="J4">
         <f t="shared" si="4"/>
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="K4">
         <f t="shared" si="5"/>
@@ -982,7 +982,7 @@
       </c>
       <c r="L4">
         <f t="shared" ref="L4:L9" si="6">SQRT(((E4/B4)^2+((D4*C4)/(B4^2))^2)/(1-(F4)^2))</f>
-        <v>4.5909490055325811E-2</v>
+        <v>7.651581675887636E-3</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -994,14 +994,14 @@
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>0.13856406460551018</v>
+        <v>2.3094010767585032E-2</v>
       </c>
       <c r="D5">
         <v>0.4</v>
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
-        <v>0.13856406460551018</v>
+        <v>2.3094010767585032E-2</v>
       </c>
       <c r="F5">
         <f t="shared" si="2"/>
@@ -1013,7 +1013,7 @@
       </c>
       <c r="J5">
         <f t="shared" si="4"/>
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="K5">
         <f t="shared" si="5"/>
@@ -1021,7 +1021,7 @@
       </c>
       <c r="L5">
         <f t="shared" si="6"/>
-        <v>3.6478080017711433E-2</v>
+        <v>6.0796800029519048E-3</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -1033,14 +1033,14 @@
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>0.13856406460551018</v>
+        <v>2.3094010767585032E-2</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>0.13856406460551018</v>
+        <v>2.3094010767585032E-2</v>
       </c>
       <c r="F6">
         <f t="shared" si="2"/>
@@ -1052,7 +1052,7 @@
       </c>
       <c r="J6">
         <f t="shared" si="4"/>
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="K6">
         <f t="shared" si="5"/>
@@ -1060,7 +1060,7 @@
       </c>
       <c r="L6">
         <f t="shared" si="6"/>
-        <v>3.5712387784925304E-2</v>
+        <v>5.9520646308208851E-3</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -1072,14 +1072,14 @@
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>0.13856406460551018</v>
+        <v>2.3094010767585032E-2</v>
       </c>
       <c r="D7">
         <v>0.84</v>
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>0.13856406460551018</v>
+        <v>2.3094010767585032E-2</v>
       </c>
       <c r="F7">
         <f t="shared" si="2"/>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="J7">
         <f t="shared" si="4"/>
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="K7">
         <f t="shared" si="5"/>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="L7">
         <f t="shared" si="6"/>
-        <v>3.8967762466627177E-2</v>
+        <v>6.4946270777711968E-3</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -1111,14 +1111,14 @@
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>0.13856406460551018</v>
+        <v>2.3094010767585032E-2</v>
       </c>
       <c r="D8">
         <v>1.8</v>
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>0.13856406460551018</v>
+        <v>2.3094010767585032E-2</v>
       </c>
       <c r="F8">
         <f t="shared" si="2"/>
@@ -1130,7 +1130,7 @@
       </c>
       <c r="J8">
         <f t="shared" si="4"/>
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="K8">
         <f t="shared" si="5"/>
@@ -1138,7 +1138,7 @@
       </c>
       <c r="L8">
         <f t="shared" si="6"/>
-        <v>9.3053302138452407E-2</v>
+        <v>1.5508883689742068E-2</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -1150,34 +1150,34 @@
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>0.13856406460551018</v>
+        <v>2.3094010767585032E-2</v>
       </c>
       <c r="D9">
-        <v>0.6</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>0.13856406460551018</v>
+        <v>2.3094010767585032E-2</v>
       </c>
       <c r="F9">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.93333333333333346</v>
       </c>
       <c r="I9">
         <f t="shared" si="3"/>
         <v>35814.156250923646</v>
       </c>
       <c r="J9">
-        <f t="shared" si="4"/>
-        <v>2.8867513459481293E-5</v>
+        <f>2*PI()*10^-4/SQRT(12)</f>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="K9">
         <f t="shared" si="5"/>
-        <v>1.5707963267948966</v>
-      </c>
-      <c r="L9" t="e">
+        <v>1.2035883062370598</v>
+      </c>
+      <c r="L9">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>0.14665273357713116</v>
       </c>
     </row>
   </sheetData>
@@ -1190,8 +1190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1215,13 +1215,13 @@
         <v>10681.415022205296</v>
       </c>
       <c r="B2">
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="C2">
-        <v>-1.5707963267948966</v>
+        <v>-1.20358830623706</v>
       </c>
       <c r="D2">
-        <v>0.16329931618554522</v>
+        <v>0.14665273357713116</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1229,13 +1229,13 @@
         <v>20106.192982974677</v>
       </c>
       <c r="B3">
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="C3">
         <v>-0.87137894639644309</v>
       </c>
       <c r="D3">
-        <v>0.11783701623338079</v>
+        <v>1.9639502705563465E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1243,13 +1243,13 @@
         <v>21991.148575128551</v>
       </c>
       <c r="B4">
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="C4">
         <v>-0.41642589737418523</v>
       </c>
       <c r="D4">
-        <v>4.5909490055325811E-2</v>
+        <v>7.651581675887636E-3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1257,13 +1257,13 @@
         <v>22619.46710584651</v>
       </c>
       <c r="B5">
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="C5">
         <v>-0.10435597258845379</v>
       </c>
       <c r="D5">
-        <v>3.6478080017711433E-2</v>
+        <v>6.0796800029519048E-3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1271,13 +1271,13 @@
         <v>22745.1308119901</v>
       </c>
       <c r="B6">
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.5712387784925304E-2</v>
+        <v>5.9520646308208851E-3</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1285,13 +1285,13 @@
         <v>23247.785636564469</v>
       </c>
       <c r="B7">
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="C7">
         <v>0.22653143165920933</v>
       </c>
       <c r="D7">
-        <v>3.8967762466627177E-2</v>
+        <v>6.4946270777711968E-3</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1299,13 +1299,13 @@
         <v>25132.741228718343</v>
       </c>
       <c r="B8">
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="C8">
         <v>0.77978281098031366</v>
       </c>
       <c r="D8">
-        <v>9.3053302138452407E-2</v>
+        <v>1.5508883689742068E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1313,13 +1313,13 @@
         <v>35814.156250923646</v>
       </c>
       <c r="B9">
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="C9">
-        <v>1.5707963267948966</v>
+        <v>1.2035883062370598</v>
       </c>
       <c r="D9">
-        <v>0.16329931618554522</v>
+        <v>0.14665273357713116</v>
       </c>
     </row>
   </sheetData>
@@ -1343,7 +1343,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
@@ -1670,7 +1670,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1738,8 +1738,8 @@
         <v>10681.415022205296</v>
       </c>
       <c r="J2">
-        <f>10^(-4)/SQRT(12)</f>
-        <v>2.8867513459481293E-5</v>
+        <f>2*PI()*10^(-4)/SQRT(12)</f>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="K2">
         <f>E2/C2</f>
@@ -1777,8 +1777,8 @@
         <v>13194.689145077131</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J28" si="4">10^(-4)/SQRT(12)</f>
-        <v>2.8867513459481293E-5</v>
+        <f t="shared" ref="J3:J28" si="4">2*PI()*10^(-4)/SQRT(12)</f>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K28" si="5">E3/C3</f>
@@ -1817,7 +1817,7 @@
       </c>
       <c r="J4">
         <f t="shared" si="4"/>
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="K4">
         <f t="shared" si="5"/>
@@ -1856,7 +1856,7 @@
       </c>
       <c r="J5">
         <f t="shared" si="4"/>
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="K5">
         <f t="shared" si="5"/>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="J6">
         <f t="shared" si="4"/>
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="K6">
         <f t="shared" si="5"/>
@@ -1934,7 +1934,7 @@
       </c>
       <c r="J7">
         <f t="shared" si="4"/>
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="K7">
         <f t="shared" si="5"/>
@@ -1973,7 +1973,7 @@
       </c>
       <c r="J8">
         <f t="shared" si="4"/>
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="K8">
         <f t="shared" si="5"/>
@@ -2012,7 +2012,7 @@
       </c>
       <c r="J9">
         <f t="shared" si="4"/>
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="K9">
         <f t="shared" si="5"/>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="J10">
         <f t="shared" si="4"/>
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="K10">
         <f t="shared" si="5"/>
@@ -2090,7 +2090,7 @@
       </c>
       <c r="J11">
         <f t="shared" si="4"/>
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="K11">
         <f t="shared" si="5"/>
@@ -2129,7 +2129,7 @@
       </c>
       <c r="J12">
         <f t="shared" si="4"/>
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="K12">
         <f t="shared" si="5"/>
@@ -2168,7 +2168,7 @@
       </c>
       <c r="J13">
         <f t="shared" si="4"/>
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="K13">
         <f t="shared" si="5"/>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="J14">
         <f t="shared" si="4"/>
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="K14">
         <f t="shared" si="5"/>
@@ -2246,7 +2246,7 @@
       </c>
       <c r="J15">
         <f t="shared" si="4"/>
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="K15">
         <f t="shared" si="5"/>
@@ -2285,7 +2285,7 @@
       </c>
       <c r="J16">
         <f t="shared" si="4"/>
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="K16">
         <f t="shared" si="5"/>
@@ -2324,7 +2324,7 @@
       </c>
       <c r="J17">
         <f t="shared" si="4"/>
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="K17">
         <f t="shared" si="5"/>
@@ -2363,7 +2363,7 @@
       </c>
       <c r="J18">
         <f t="shared" si="4"/>
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="K18">
         <f t="shared" si="5"/>
@@ -2402,7 +2402,7 @@
       </c>
       <c r="J19">
         <f t="shared" si="4"/>
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="K19">
         <f t="shared" si="5"/>
@@ -2441,7 +2441,7 @@
       </c>
       <c r="J20">
         <f t="shared" si="4"/>
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="K20">
         <f t="shared" si="5"/>
@@ -2480,7 +2480,7 @@
       </c>
       <c r="J21">
         <f t="shared" si="4"/>
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="K21">
         <f t="shared" si="5"/>
@@ -2519,7 +2519,7 @@
       </c>
       <c r="J22">
         <f t="shared" si="4"/>
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="K22">
         <f t="shared" si="5"/>
@@ -2558,7 +2558,7 @@
       </c>
       <c r="J23">
         <f t="shared" si="4"/>
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="K23">
         <f t="shared" si="5"/>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="J24">
         <f t="shared" si="4"/>
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="K24">
         <f t="shared" si="5"/>
@@ -2636,7 +2636,7 @@
       </c>
       <c r="J25">
         <f t="shared" si="4"/>
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="K25">
         <f t="shared" si="5"/>
@@ -2675,7 +2675,7 @@
       </c>
       <c r="J26">
         <f t="shared" si="4"/>
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="K26">
         <f t="shared" si="5"/>
@@ -2714,7 +2714,7 @@
       </c>
       <c r="J27">
         <f t="shared" si="4"/>
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="K27">
         <f t="shared" si="5"/>
@@ -2753,7 +2753,7 @@
       </c>
       <c r="J28">
         <f t="shared" si="4"/>
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="K28">
         <f t="shared" si="5"/>
@@ -2774,8 +2774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2802,7 +2802,7 @@
         <v>10681.415022205296</v>
       </c>
       <c r="B2">
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="C2">
         <v>0.12621359223300971</v>
@@ -2816,7 +2816,7 @@
         <v>13194.689145077131</v>
       </c>
       <c r="B3">
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="C3">
         <v>0.17475728155339804</v>
@@ -2830,7 +2830,7 @@
         <v>15079.644737231007</v>
       </c>
       <c r="B4">
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="C4">
         <v>0.23300970873786406</v>
@@ -2844,7 +2844,7 @@
         <v>16964.600329384884</v>
       </c>
       <c r="B5">
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="C5">
         <v>0.30097087378640774</v>
@@ -2858,7 +2858,7 @@
         <v>18221.237390820799</v>
       </c>
       <c r="B6">
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="C6">
         <v>0.37864077669902912</v>
@@ -2872,7 +2872,7 @@
         <v>19477.874452256718</v>
       </c>
       <c r="B7">
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="C7">
         <v>0.47572815533980578</v>
@@ -2886,7 +2886,7 @@
         <v>20106.192982974677</v>
       </c>
       <c r="B8">
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="C8">
         <v>0.55339805825242716</v>
@@ -2900,7 +2900,7 @@
         <v>20734.511513692636</v>
       </c>
       <c r="B9">
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="C9">
         <v>0.65048543689320393</v>
@@ -2914,7 +2914,7 @@
         <v>21362.830044410592</v>
       </c>
       <c r="B10">
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="C10">
         <v>0.75728155339805825</v>
@@ -2928,7 +2928,7 @@
         <v>21991.148575128551</v>
       </c>
       <c r="B11">
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="C11">
         <v>0.86407766990291257</v>
@@ -2942,7 +2942,7 @@
         <v>22368.139693559329</v>
       </c>
       <c r="B12">
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="C12">
         <v>0.90291262135922334</v>
@@ -2956,7 +2956,7 @@
         <v>22493.80339970292</v>
       </c>
       <c r="B13">
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="C13">
         <v>0.9126213592233009</v>
@@ -2970,7 +2970,7 @@
         <v>22556.635252774715</v>
       </c>
       <c r="B14">
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="C14">
         <v>0.92233009708737856</v>
@@ -2984,7 +2984,7 @@
         <v>22619.46710584651</v>
       </c>
       <c r="B15">
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="C15">
         <v>0.92233009708737856</v>
@@ -2998,7 +2998,7 @@
         <v>22682.298958918305</v>
       </c>
       <c r="B16">
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="C16">
         <v>0.93203883495145623</v>
@@ -3012,7 +3012,7 @@
         <v>22745.1308119901</v>
       </c>
       <c r="B17">
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="C17">
         <v>0.92233009708737856</v>
@@ -3026,7 +3026,7 @@
         <v>22870.794518133695</v>
       </c>
       <c r="B18">
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="C18">
         <v>0.92233009708737856</v>
@@ -3040,7 +3040,7 @@
         <v>23247.785636564469</v>
       </c>
       <c r="B19">
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="C19">
         <v>0.90291262135922334</v>
@@ -3054,7 +3054,7 @@
         <v>23876.104167282429</v>
       </c>
       <c r="B20">
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="C20">
         <v>0.80582524271844658</v>
@@ -3068,7 +3068,7 @@
         <v>24504.422698000388</v>
       </c>
       <c r="B21">
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="C21">
         <v>0.70873786407766992</v>
@@ -3082,7 +3082,7 @@
         <v>25132.741228718343</v>
       </c>
       <c r="B22">
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="C22">
         <v>0.59223300970873782</v>
@@ -3096,7 +3096,7 @@
         <v>26389.378290154262</v>
       </c>
       <c r="B23">
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="C23">
         <v>0.44660194174757284</v>
@@ -3110,7 +3110,7 @@
         <v>27646.015351590184</v>
       </c>
       <c r="B24">
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="C24">
         <v>0.35922330097087379</v>
@@ -3124,7 +3124,7 @@
         <v>29530.970943744054</v>
       </c>
       <c r="B25">
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="C25">
         <v>0.25242718446601942</v>
@@ -3138,7 +3138,7 @@
         <v>31415.926535897932</v>
       </c>
       <c r="B26">
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="C26">
         <v>0.1941747572815534</v>
@@ -3152,7 +3152,7 @@
         <v>33300.882128051802</v>
       </c>
       <c r="B27">
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="C27">
         <v>0.1650485436893204</v>
@@ -3166,7 +3166,7 @@
         <v>35814.156250923646</v>
       </c>
       <c r="B28">
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="C28">
         <v>0.11650485436893203</v>
@@ -3433,8 +3433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3481,16 +3481,16 @@
         <v>-136</v>
       </c>
       <c r="D2">
-        <f>1.2/SQRT(12)</f>
-        <v>0.34641016151377546</v>
+        <f>1.6/SQRT(12)</f>
+        <v>0.46188021535170065</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2:H16" si="0">A2*2*PI()*1000</f>
         <v>10681.415022205296</v>
       </c>
       <c r="I2">
-        <f>10^-4/SQRT(12)</f>
-        <v>2.8867513459481293E-5</v>
+        <f>2*PI()*10^-4/SQRT(12)</f>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="J2">
         <f>H2*C2*10^-6</f>
@@ -3498,7 +3498,7 @@
       </c>
       <c r="K2">
         <f>SQRT((H2*D2*10^-6)^2+(C2*I2*10^-6)^2)</f>
-        <v>3.7001507030398864E-3</v>
+        <v>4.9335342707787413E-3</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -3513,16 +3513,16 @@
         <v>-106</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D28" si="2">1.2/SQRT(12)</f>
-        <v>0.34641016151377546</v>
+        <f t="shared" ref="D3:D28" si="2">1.6/SQRT(12)</f>
+        <v>0.46188021535170065</v>
       </c>
       <c r="H3">
         <f t="shared" si="0"/>
         <v>13194.689145077131</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I28" si="3">10^-4/SQRT(12)</f>
-        <v>2.8867513459481293E-5</v>
+        <f t="shared" ref="I3:I28" si="3">2*PI()*10^-4/SQRT(12)</f>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J28" si="4">H3*C3*10^-6</f>
@@ -3530,7 +3530,7 @@
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K28" si="5">SQRT((H3*D3*10^-6)^2+(C3*I3*10^-6)^2)</f>
-        <v>4.5707743978712521E-3</v>
+        <v>6.0943658638573E-3</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -3546,7 +3546,7 @@
       </c>
       <c r="D4">
         <f t="shared" si="2"/>
-        <v>0.34641016151377546</v>
+        <v>0.46188021535170065</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
@@ -3554,7 +3554,7 @@
       </c>
       <c r="I4">
         <f t="shared" si="3"/>
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="J4">
         <f t="shared" si="4"/>
@@ -3562,7 +3562,7 @@
       </c>
       <c r="K4">
         <f t="shared" si="5"/>
-        <v>5.2237421689951928E-3</v>
+        <v>6.9649895586785257E-3</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -3578,7 +3578,7 @@
       </c>
       <c r="D5">
         <f t="shared" si="2"/>
-        <v>0.34641016151377546</v>
+        <v>0.46188021535170065</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
@@ -3586,7 +3586,7 @@
       </c>
       <c r="I5">
         <f t="shared" si="3"/>
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="J5">
         <f t="shared" si="4"/>
@@ -3594,7 +3594,7 @@
       </c>
       <c r="K5">
         <f t="shared" si="5"/>
-        <v>5.8767099401192749E-3</v>
+        <v>7.835613253503947E-3</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -3610,7 +3610,7 @@
       </c>
       <c r="D6">
         <f t="shared" si="2"/>
-        <v>0.34641016151377546</v>
+        <v>0.46188021535170065</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
@@ -3618,7 +3618,7 @@
       </c>
       <c r="I6">
         <f t="shared" si="3"/>
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="J6">
         <f t="shared" si="4"/>
@@ -3626,7 +3626,7 @@
       </c>
       <c r="K6">
         <f t="shared" si="5"/>
-        <v>6.3120217875353825E-3</v>
+        <v>8.4160290500558087E-3</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -3642,7 +3642,7 @@
       </c>
       <c r="D7">
         <f t="shared" si="2"/>
-        <v>0.34641016151377546</v>
+        <v>0.46188021535170065</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
@@ -3650,7 +3650,7 @@
       </c>
       <c r="I7">
         <f t="shared" si="3"/>
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="J7">
         <f t="shared" si="4"/>
@@ -3658,7 +3658,7 @@
       </c>
       <c r="K7">
         <f t="shared" si="5"/>
-        <v>6.747333634951498E-3</v>
+        <v>8.9964448466078716E-3</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
@@ -3674,7 +3674,7 @@
       </c>
       <c r="D8">
         <f t="shared" si="2"/>
-        <v>0.34641016151377546</v>
+        <v>0.46188021535170065</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
@@ -3682,7 +3682,7 @@
       </c>
       <c r="I8">
         <f t="shared" si="3"/>
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="J8">
         <f t="shared" si="4"/>
@@ -3690,7 +3690,7 @@
       </c>
       <c r="K8">
         <f t="shared" si="5"/>
-        <v>6.9649895586595227E-3</v>
+        <v>9.2866527448829447E-3</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -3706,7 +3706,7 @@
       </c>
       <c r="D9">
         <f t="shared" si="2"/>
-        <v>0.34641016151377546</v>
+        <v>0.46188021535170065</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
@@ -3714,7 +3714,7 @@
       </c>
       <c r="I9">
         <f t="shared" si="3"/>
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="J9">
         <f t="shared" si="4"/>
@@ -3722,7 +3722,7 @@
       </c>
       <c r="K9">
         <f t="shared" si="5"/>
-        <v>7.1826454823675865E-3</v>
+        <v>9.5768606431591505E-3</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -3738,7 +3738,7 @@
       </c>
       <c r="D10">
         <f t="shared" si="2"/>
-        <v>0.34641016151377546</v>
+        <v>0.46188021535170065</v>
       </c>
       <c r="H10">
         <f t="shared" si="0"/>
@@ -3746,7 +3746,7 @@
       </c>
       <c r="I10">
         <f t="shared" si="3"/>
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="J10">
         <f t="shared" si="4"/>
@@ -3754,7 +3754,7 @@
       </c>
       <c r="K10">
         <f t="shared" si="5"/>
-        <v>7.4003014060756581E-3</v>
+        <v>9.8670685414356443E-3</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -3770,7 +3770,7 @@
       </c>
       <c r="D11">
         <f t="shared" si="2"/>
-        <v>0.34641016151377546</v>
+        <v>0.46188021535170065</v>
       </c>
       <c r="H11">
         <f t="shared" si="0"/>
@@ -3778,7 +3778,7 @@
       </c>
       <c r="I11">
         <f t="shared" si="3"/>
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="J11">
         <f t="shared" si="4"/>
@@ -3786,7 +3786,7 @@
       </c>
       <c r="K11">
         <f t="shared" si="5"/>
-        <v>7.6179573297837297E-3</v>
+        <v>1.0157276439712077E-2</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
@@ -3802,7 +3802,7 @@
       </c>
       <c r="D12">
         <f t="shared" si="2"/>
-        <v>0.34641016151377546</v>
+        <v>0.46188021535170065</v>
       </c>
       <c r="H12">
         <f t="shared" si="0"/>
@@ -3810,7 +3810,7 @@
       </c>
       <c r="I12">
         <f t="shared" si="3"/>
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="J12">
         <f t="shared" si="4"/>
@@ -3818,7 +3818,7 @@
       </c>
       <c r="K12">
         <f t="shared" si="5"/>
-        <v>7.7485508840085832E-3</v>
+        <v>1.0331401178678219E-2</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -3834,7 +3834,7 @@
       </c>
       <c r="D13">
         <f t="shared" si="2"/>
-        <v>0.34641016151377546</v>
+        <v>0.46188021535170065</v>
       </c>
       <c r="H13">
         <f t="shared" si="0"/>
@@ -3842,7 +3842,7 @@
       </c>
       <c r="I13">
         <f t="shared" si="3"/>
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="J13">
         <f t="shared" si="4"/>
@@ -3850,7 +3850,7 @@
       </c>
       <c r="K13">
         <f t="shared" si="5"/>
-        <v>7.7920820687502014E-3</v>
+        <v>1.0389442758333646E-2</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -3866,7 +3866,7 @@
       </c>
       <c r="D14">
         <f t="shared" si="2"/>
-        <v>0.34641016151377546</v>
+        <v>0.46188021535170065</v>
       </c>
       <c r="H14">
         <f t="shared" si="0"/>
@@ -3874,7 +3874,7 @@
       </c>
       <c r="I14">
         <f t="shared" si="3"/>
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="J14">
         <f t="shared" si="4"/>
@@ -3882,7 +3882,7 @@
       </c>
       <c r="K14">
         <f t="shared" si="5"/>
-        <v>7.8138476611210109E-3</v>
+        <v>1.0418463548161373E-2</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -3898,7 +3898,7 @@
       </c>
       <c r="D15">
         <f t="shared" si="2"/>
-        <v>0.34641016151377546</v>
+        <v>0.46188021535170065</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
@@ -3906,7 +3906,7 @@
       </c>
       <c r="I15">
         <f t="shared" si="3"/>
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="J15">
         <f t="shared" si="4"/>
@@ -3914,7 +3914,7 @@
       </c>
       <c r="K15">
         <f t="shared" si="5"/>
-        <v>7.8356132534918212E-3</v>
+        <v>1.0447484337989109E-2</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
@@ -3930,7 +3930,7 @@
       </c>
       <c r="D16">
         <f t="shared" si="2"/>
-        <v>0.34641016151377546</v>
+        <v>0.46188021535170065</v>
       </c>
       <c r="H16">
         <f t="shared" si="0"/>
@@ -3938,7 +3938,7 @@
       </c>
       <c r="I16">
         <f t="shared" si="3"/>
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="J16">
         <f t="shared" si="4"/>
@@ -3946,7 +3946,7 @@
       </c>
       <c r="K16">
         <f t="shared" si="5"/>
-        <v>7.8573788458626316E-3</v>
+        <v>1.0476505127816844E-2</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -3962,7 +3962,7 @@
       </c>
       <c r="D17">
         <f t="shared" si="2"/>
-        <v>0.34641016151377546</v>
+        <v>0.46188021535170065</v>
       </c>
       <c r="H17">
         <f t="shared" ref="H17:H28" si="6">A17*2*PI()*1000</f>
@@ -3970,7 +3970,7 @@
       </c>
       <c r="I17">
         <f t="shared" si="3"/>
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="J17">
         <f t="shared" si="4"/>
@@ -3978,7 +3978,7 @@
       </c>
       <c r="K17">
         <f t="shared" si="5"/>
-        <v>7.8791444382334402E-3</v>
+        <v>1.0505525917644589E-2</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -3994,7 +3994,7 @@
       </c>
       <c r="D18">
         <f t="shared" si="2"/>
-        <v>0.34641016151377546</v>
+        <v>0.46188021535170065</v>
       </c>
       <c r="H18">
         <f t="shared" si="6"/>
@@ -4002,7 +4002,7 @@
       </c>
       <c r="I18">
         <f t="shared" si="3"/>
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="J18">
         <f t="shared" si="4"/>
@@ -4010,7 +4010,7 @@
       </c>
       <c r="K18">
         <f t="shared" si="5"/>
-        <v>7.9226756229750627E-3</v>
+        <v>1.0563567497300098E-2</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -4026,7 +4026,7 @@
       </c>
       <c r="D19">
         <f t="shared" si="2"/>
-        <v>0.34641016151377546</v>
+        <v>0.46188021535170065</v>
       </c>
       <c r="H19">
         <f t="shared" si="6"/>
@@ -4034,7 +4034,7 @@
       </c>
       <c r="I19">
         <f t="shared" si="3"/>
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="J19">
         <f t="shared" si="4"/>
@@ -4042,7 +4042,7 @@
       </c>
       <c r="K19">
         <f t="shared" si="5"/>
-        <v>8.0532691771999319E-3</v>
+        <v>1.0737692236266748E-2</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -4058,7 +4058,7 @@
       </c>
       <c r="D20">
         <f t="shared" si="2"/>
-        <v>0.34641016151377546</v>
+        <v>0.46188021535170065</v>
       </c>
       <c r="H20">
         <f t="shared" si="6"/>
@@ -4066,7 +4066,7 @@
       </c>
       <c r="I20">
         <f t="shared" si="3"/>
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="J20">
         <f t="shared" si="4"/>
@@ -4074,7 +4074,7 @@
       </c>
       <c r="K20">
         <f t="shared" si="5"/>
-        <v>8.2709251009080564E-3</v>
+        <v>1.102790013454474E-2</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -4090,7 +4090,7 @@
       </c>
       <c r="D21">
         <f t="shared" si="2"/>
-        <v>0.34641016151377546</v>
+        <v>0.46188021535170065</v>
       </c>
       <c r="H21">
         <f t="shared" si="6"/>
@@ -4098,7 +4098,7 @@
       </c>
       <c r="I21">
         <f t="shared" si="3"/>
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="J21">
         <f t="shared" si="4"/>
@@ -4106,7 +4106,7 @@
       </c>
       <c r="K21">
         <f t="shared" si="5"/>
-        <v>8.4885810246161826E-3</v>
+        <v>1.1318108032822828E-2</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -4122,7 +4122,7 @@
       </c>
       <c r="D22">
         <f t="shared" si="2"/>
-        <v>0.34641016151377546</v>
+        <v>0.46188021535170065</v>
       </c>
       <c r="H22">
         <f t="shared" si="6"/>
@@ -4130,7 +4130,7 @@
       </c>
       <c r="I22">
         <f t="shared" si="3"/>
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="J22">
         <f t="shared" si="4"/>
@@ -4138,7 +4138,7 @@
       </c>
       <c r="K22">
         <f t="shared" si="5"/>
-        <v>8.7062369483243071E-3</v>
+        <v>1.1608315931100829E-2</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -4154,7 +4154,7 @@
       </c>
       <c r="D23">
         <f t="shared" si="2"/>
-        <v>0.34641016151377546</v>
+        <v>0.46188021535170065</v>
       </c>
       <c r="H23">
         <f t="shared" si="6"/>
@@ -4162,7 +4162,7 @@
       </c>
       <c r="I23">
         <f t="shared" si="3"/>
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="J23">
         <f t="shared" si="4"/>
@@ -4170,7 +4170,7 @@
       </c>
       <c r="K23">
         <f t="shared" si="5"/>
-        <v>9.1415487957405353E-3</v>
+        <v>1.2188731727656325E-2</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -4186,7 +4186,7 @@
       </c>
       <c r="D24">
         <f t="shared" si="2"/>
-        <v>0.34641016151377546</v>
+        <v>0.46188021535170065</v>
       </c>
       <c r="H24">
         <f t="shared" si="6"/>
@@ -4194,7 +4194,7 @@
       </c>
       <c r="I24">
         <f t="shared" si="3"/>
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="J24">
         <f t="shared" si="4"/>
@@ -4202,7 +4202,7 @@
       </c>
       <c r="K24">
         <f t="shared" si="5"/>
-        <v>9.5768606431567548E-3</v>
+        <v>1.2769147524211391E-2</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -4218,7 +4218,7 @@
       </c>
       <c r="D25">
         <f t="shared" si="2"/>
-        <v>0.34641016151377546</v>
+        <v>0.46188021535170065</v>
       </c>
       <c r="H25">
         <f t="shared" si="6"/>
@@ -4226,7 +4226,7 @@
       </c>
       <c r="I25">
         <f t="shared" si="3"/>
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="J25">
         <f t="shared" si="4"/>
@@ -4234,7 +4234,7 @@
       </c>
       <c r="K25">
         <f t="shared" si="5"/>
-        <v>1.0229828414281075E-2</v>
+        <v>1.363977121904387E-2</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -4250,7 +4250,7 @@
       </c>
       <c r="D26">
         <f t="shared" si="2"/>
-        <v>0.34641016151377546</v>
+        <v>0.46188021535170065</v>
       </c>
       <c r="H26">
         <f t="shared" si="6"/>
@@ -4258,7 +4258,7 @@
       </c>
       <c r="I26">
         <f t="shared" si="3"/>
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="J26">
         <f t="shared" si="4"/>
@@ -4266,7 +4266,7 @@
       </c>
       <c r="K26">
         <f t="shared" si="5"/>
-        <v>1.0882796185405387E-2</v>
+        <v>1.4510394913876143E-2</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -4282,7 +4282,7 @@
       </c>
       <c r="D27">
         <f t="shared" si="2"/>
-        <v>0.34641016151377546</v>
+        <v>0.46188021535170065</v>
       </c>
       <c r="H27">
         <f t="shared" si="6"/>
@@ -4290,7 +4290,7 @@
       </c>
       <c r="I27">
         <f t="shared" si="3"/>
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="J27">
         <f t="shared" si="4"/>
@@ -4298,7 +4298,7 @@
       </c>
       <c r="K27">
         <f t="shared" si="5"/>
-        <v>1.1535763956529698E-2</v>
+        <v>1.5381018608708427E-2</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -4314,7 +4314,7 @@
       </c>
       <c r="D28">
         <f t="shared" si="2"/>
-        <v>0.34641016151377546</v>
+        <v>0.46188021535170065</v>
       </c>
       <c r="H28">
         <f t="shared" si="6"/>
@@ -4322,7 +4322,7 @@
       </c>
       <c r="I28">
         <f t="shared" si="3"/>
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="J28">
         <f t="shared" si="4"/>
@@ -4330,7 +4330,7 @@
       </c>
       <c r="K28">
         <f t="shared" si="5"/>
-        <v>1.2406387651362129E-2</v>
+        <v>1.6541850201818357E-2</v>
       </c>
     </row>
   </sheetData>
@@ -4344,7 +4344,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4368,13 +4368,13 @@
         <v>10681.415022205296</v>
       </c>
       <c r="B2">
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="C2">
         <v>-1.4526724430199203</v>
       </c>
       <c r="D2">
-        <v>3.7001507030398864E-3</v>
+        <v>4.9335342707787413E-3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4382,13 +4382,13 @@
         <v>13194.689145077131</v>
       </c>
       <c r="B3">
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="C3">
         <v>-1.3986370493781759</v>
       </c>
       <c r="D3">
-        <v>4.5707743978712521E-3</v>
+        <v>6.0943658638573E-3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -4396,13 +4396,13 @@
         <v>15079.644737231007</v>
       </c>
       <c r="B4">
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="C4">
         <v>-1.3571680263507906</v>
       </c>
       <c r="D4">
-        <v>5.2237421689951928E-3</v>
+        <v>6.9649895586785257E-3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -4410,13 +4410,13 @@
         <v>16964.600329384884</v>
       </c>
       <c r="B5">
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="C5">
         <v>-1.2893096250332512</v>
       </c>
       <c r="D5">
-        <v>5.8767099401192749E-3</v>
+        <v>7.835613253503947E-3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -4424,13 +4424,13 @@
         <v>18221.237390820799</v>
       </c>
       <c r="B6">
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="C6">
         <v>-1.2390441425758143</v>
       </c>
       <c r="D6">
-        <v>6.3120217875353825E-3</v>
+        <v>8.4160290500558087E-3</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -4438,13 +4438,13 @@
         <v>19477.874452256718</v>
       </c>
       <c r="B7">
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="C7">
         <v>-1.1297167182308896</v>
       </c>
       <c r="D7">
-        <v>6.747333634951498E-3</v>
+        <v>8.9964448466078716E-3</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -4452,13 +4452,13 @@
         <v>20106.192982974677</v>
       </c>
       <c r="B8">
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="C8">
         <v>-0.9248848772168351</v>
       </c>
       <c r="D8">
-        <v>6.9649895586595227E-3</v>
+        <v>9.2866527448829447E-3</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -4466,13 +4466,13 @@
         <v>20734.511513692636</v>
       </c>
       <c r="B9">
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="C9">
         <v>-0.78791143752032011</v>
       </c>
       <c r="D9">
-        <v>7.1826454823675865E-3</v>
+        <v>9.5768606431591505E-3</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -4480,13 +4480,13 @@
         <v>21362.830044410592</v>
       </c>
       <c r="B10">
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="C10">
         <v>-0.64088490133231768</v>
       </c>
       <c r="D10">
-        <v>7.4003014060756581E-3</v>
+        <v>9.8670685414356443E-3</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -4494,13 +4494,13 @@
         <v>21991.148575128551</v>
       </c>
       <c r="B11">
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="C11">
         <v>-0.36945129606215965</v>
       </c>
       <c r="D11">
-        <v>7.6179573297837297E-3</v>
+        <v>1.0157276439712077E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -4508,13 +4508,13 @@
         <v>22368.139693559329</v>
       </c>
       <c r="B12">
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="C12">
         <v>-0.18789237342589837</v>
       </c>
       <c r="D12">
-        <v>7.7485508840085832E-3</v>
+        <v>1.0331401178678219E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -4522,13 +4522,13 @@
         <v>22493.80339970292</v>
       </c>
       <c r="B13">
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="C13">
         <v>-0.12146653835839577</v>
       </c>
       <c r="D13">
-        <v>7.7920820687502014E-3</v>
+        <v>1.0389442758333646E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -4536,13 +4536,13 @@
         <v>22556.635252774715</v>
       </c>
       <c r="B14">
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="C14">
         <v>-9.0226541011098851E-2</v>
       </c>
       <c r="D14">
-        <v>7.8138476611210109E-3</v>
+        <v>1.0418463548161373E-2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -4550,13 +4550,13 @@
         <v>22619.46710584651</v>
       </c>
       <c r="B15">
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="C15">
         <v>-6.7858401317539535E-2</v>
       </c>
       <c r="D15">
-        <v>7.8356132534918212E-3</v>
+        <v>1.0447484337989109E-2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -4564,13 +4564,13 @@
         <v>22682.298958918305</v>
       </c>
       <c r="B16">
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="C16">
         <v>-2.7218758750701965E-2</v>
       </c>
       <c r="D16">
-        <v>7.8573788458626316E-3</v>
+        <v>1.0476505127816844E-2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -4578,13 +4578,13 @@
         <v>22745.1308119901</v>
       </c>
       <c r="B17">
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>7.8791444382334402E-3</v>
+        <v>1.0505525917644589E-2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -4592,13 +4592,13 @@
         <v>22870.794518133695</v>
       </c>
       <c r="B18">
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="C18">
         <v>6.4038224650774342E-2</v>
       </c>
       <c r="D18">
-        <v>7.9226756229750627E-3</v>
+        <v>1.0563567497300098E-2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -4606,13 +4606,13 @@
         <v>23247.785636564469</v>
       </c>
       <c r="B19">
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="C19">
         <v>0.25107608487489624</v>
       </c>
       <c r="D19">
-        <v>8.0532691771999319E-3</v>
+        <v>1.0737692236266748E-2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -4620,13 +4620,13 @@
         <v>23876.104167282429</v>
       </c>
       <c r="B20">
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="C20">
         <v>0.51572385001330046</v>
       </c>
       <c r="D20">
-        <v>8.2709251009080564E-3</v>
+        <v>1.102790013454474E-2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -4634,13 +4634,13 @@
         <v>24504.422698000388</v>
       </c>
       <c r="B21">
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="C21">
         <v>0.73513268094001161</v>
       </c>
       <c r="D21">
-        <v>8.4885810246161826E-3</v>
+        <v>1.1318108032822828E-2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -4648,13 +4648,13 @@
         <v>25132.741228718343</v>
       </c>
       <c r="B22">
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="C22">
         <v>0.90477868423386032</v>
       </c>
       <c r="D22">
-        <v>8.7062369483243071E-3</v>
+        <v>1.1608315931100829E-2</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -4662,13 +4662,13 @@
         <v>26389.378290154262</v>
       </c>
       <c r="B23">
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="C23">
         <v>1.108353888186479</v>
       </c>
       <c r="D23">
-        <v>9.1415487957405353E-3</v>
+        <v>1.2188731727656325E-2</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -4676,13 +4676,13 @@
         <v>27646.015351590184</v>
       </c>
       <c r="B24">
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="C24">
         <v>1.2164246754699679</v>
       </c>
       <c r="D24">
-        <v>9.5768606431567548E-3</v>
+        <v>1.2769147524211391E-2</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -4690,13 +4690,13 @@
         <v>29530.970943744054</v>
       </c>
       <c r="B25">
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="C25">
         <v>1.3584246634122266</v>
       </c>
       <c r="D25">
-        <v>1.0229828414281075E-2</v>
+        <v>1.363977121904387E-2</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -4704,13 +4704,13 @@
         <v>31415.926535897932</v>
       </c>
       <c r="B26">
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="C26">
         <v>1.4451326206513049</v>
       </c>
       <c r="D26">
-        <v>1.0882796185405387E-2</v>
+        <v>1.4510394913876143E-2</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -4718,13 +4718,13 @@
         <v>33300.882128051802</v>
       </c>
       <c r="B27">
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="C27">
         <v>1.5318405778903827</v>
       </c>
       <c r="D27">
-        <v>1.1535763956529698E-2</v>
+        <v>1.5381018608708427E-2</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -4732,13 +4732,13 @@
         <v>35814.156250923646</v>
       </c>
       <c r="B28">
-        <v>2.8867513459481293E-5</v>
+        <v>1.8137993642342178E-4</v>
       </c>
       <c r="C28">
         <v>1.7190795000443351</v>
       </c>
       <c r="D28">
-        <v>1.2406387651362129E-2</v>
+        <v>1.6541850201818357E-2</v>
       </c>
     </row>
   </sheetData>
@@ -4751,7 +4751,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
